--- a/Documenti/RQ/esterni/piano_di_progetto/pianificazione.xlsx
+++ b/Documenti/RQ/esterni/piano_di_progetto/pianificazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="9315" windowHeight="5415"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="9315" windowHeight="5415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PA" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="109">
   <si>
     <t>Ambiente di Progettazione</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>proge</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,25 +953,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="9"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
@@ -983,31 +995,40 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11" applyAlignment="1">
@@ -1017,9 +1038,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1056,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1368,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO192"/>
+  <dimension ref="A1:AP192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK174" sqref="AK174"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H182" sqref="H181:H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1427,7 @@
     <col min="26" max="26" width="3.42578125" customWidth="1"/>
     <col min="28" max="28" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" customWidth="1"/>
     <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -1410,20 +1438,20 @@
     <col min="38" max="38" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="94"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
-      <c r="Q1" s="112" t="s">
+      <c r="Q1" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="112"/>
+      <c r="R1" s="105"/>
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
@@ -1436,19 +1464,22 @@
       <c r="AB1" s="29"/>
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE1" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -1470,23 +1501,24 @@
       <c r="AB2" s="29"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="105"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
@@ -1495,10 +1527,10 @@
       <c r="N3" s="29"/>
       <c r="O3" s="25"/>
       <c r="P3" s="29"/>
-      <c r="Q3" s="112" t="s">
+      <c r="Q3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="112"/>
+      <c r="R3" s="105"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -1511,19 +1543,22 @@
       <c r="AB3" s="29"/>
       <c r="AC3" s="25"/>
       <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE3" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
       <c r="B4" s="94"/>
       <c r="I4" s="87"/>
@@ -1548,19 +1583,20 @@
       <c r="AB4" s="29"/>
       <c r="AC4" s="25"/>
       <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-    </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+    </row>
+    <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1619,19 +1655,34 @@
       <c r="AB5" s="29"/>
       <c r="AC5" s="25"/>
       <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+    </row>
+    <row r="6" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1684,19 +1735,32 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="13">
+        <f>T6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13">
+        <f>SUM(AH6:AJ6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
@@ -1741,19 +1805,28 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="25"/>
       <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="13">
+        <f t="shared" ref="AH7:AJ21" si="2">T7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16">
+        <f t="shared" ref="AK7:AK21" si="3">SUM(AH7:AJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="93">
         <v>3</v>
       </c>
@@ -1806,19 +1879,32 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="25"/>
       <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE8" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
         <v>4</v>
       </c>
@@ -1871,19 +1957,32 @@
       <c r="AB9" s="29"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE9" s="100">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
         <v>6</v>
       </c>
@@ -1936,19 +2035,32 @@
       <c r="AB10" s="29"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE10" s="100">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>7</v>
       </c>
@@ -2001,19 +2113,32 @@
       <c r="AB11" s="29"/>
       <c r="AC11" s="25"/>
       <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE11" s="33">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="17" t="s">
@@ -2058,19 +2183,28 @@
       <c r="AB12" s="29"/>
       <c r="AC12" s="25"/>
       <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="100"/>
+      <c r="AK12" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
         <v>9</v>
       </c>
@@ -2123,19 +2257,32 @@
       <c r="AB13" s="29"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE13" s="100">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG13" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>10</v>
       </c>
@@ -2192,19 +2339,35 @@
       <c r="AB14" s="29"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE14" s="100">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>11</v>
       </c>
@@ -2257,19 +2420,32 @@
       <c r="AB15" s="29"/>
       <c r="AC15" s="25"/>
       <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE15" s="33">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="93" t="s">
@@ -2314,19 +2490,28 @@
       <c r="AB16" s="29"/>
       <c r="AC16" s="25"/>
       <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>13</v>
       </c>
@@ -2379,19 +2564,32 @@
       <c r="AB17" s="29"/>
       <c r="AC17" s="25"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE17" s="100">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="100">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -2444,19 +2642,32 @@
       <c r="AB18" s="29"/>
       <c r="AC18" s="25"/>
       <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE18" s="33">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="93" t="s">
@@ -2501,19 +2712,28 @@
       <c r="AB19" s="29"/>
       <c r="AC19" s="25"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>16</v>
       </c>
@@ -2566,19 +2786,32 @@
       <c r="AB20" s="29"/>
       <c r="AC20" s="25"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE20" s="100">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG20" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="93">
         <v>17</v>
       </c>
@@ -2631,19 +2864,32 @@
       <c r="AB21" s="29"/>
       <c r="AC21" s="25"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-    </row>
-    <row r="22" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE21" s="100">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+    </row>
+    <row r="22" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>49</v>
       </c>
@@ -2702,19 +2948,34 @@
       <c r="AB22" s="29"/>
       <c r="AC22" s="25"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-    </row>
-    <row r="23" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20">
+        <f>SUM(AH6:AH21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="20">
+        <f>SUM(AI13:AI21)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="20">
+        <f>SUM(AJ13:AJ21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="20">
+        <f>SUM(AK6:AK21)</f>
+        <v>10</v>
+      </c>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+    </row>
+    <row r="23" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94"/>
       <c r="B23" s="94"/>
       <c r="C23" s="94"/>
@@ -2745,23 +3006,24 @@
       <c r="AB23" s="29"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="94"/>
       <c r="D24" s="94"/>
       <c r="E24" s="94"/>
@@ -2776,10 +3038,10 @@
       <c r="N24" s="29"/>
       <c r="O24" s="25"/>
       <c r="P24" s="29"/>
-      <c r="Q24" s="112" t="s">
+      <c r="Q24" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="112"/>
+      <c r="R24" s="105"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
@@ -2792,19 +3054,22 @@
       <c r="AB24" s="29"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE24" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="94"/>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
@@ -2835,38 +3100,39 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="25"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115" t="s">
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="99" t="s">
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="93" t="s">
         <v>63</v>
       </c>
@@ -2877,40 +3143,51 @@
       <c r="Q26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="115" t="s">
+      <c r="R26" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115" t="s">
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="99" t="s">
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="101"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="121"/>
       <c r="AB26" s="28" t="s">
         <v>63</v>
       </c>
       <c r="AC26" s="25"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE26" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF26" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="93" t="s">
         <v>31</v>
@@ -2936,10 +3213,10 @@
       <c r="I27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="100"/>
+      <c r="K27" s="120"/>
       <c r="L27" s="93"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
@@ -2970,26 +3247,45 @@
       <c r="Y27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Z27" s="99" t="s">
+      <c r="Z27" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="100"/>
+      <c r="AA27" s="120"/>
       <c r="AB27" s="28"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH27" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI27" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ27" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK27" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM27" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN27" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="100"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -3017,10 +3313,10 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="116">
+      <c r="J28" s="123">
         <v>11</v>
       </c>
-      <c r="K28" s="117"/>
+      <c r="K28" s="124"/>
       <c r="L28" s="93">
         <f>C28+F28+I28</f>
         <v>22</v>
@@ -3056,29 +3352,56 @@
       <c r="Y28" s="1">
         <v>4</v>
       </c>
-      <c r="Z28" s="116">
+      <c r="Z28" s="123">
         <v>11</v>
       </c>
-      <c r="AA28" s="117"/>
+      <c r="AA28" s="124"/>
       <c r="AB28" s="28">
         <f>S28+V28+Y28</f>
         <v>22</v>
       </c>
       <c r="AC28" s="25"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>S28-C28</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>V28-F28</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="1">
+        <f>Y28-I28</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="123">
+        <v>11</v>
+      </c>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="100">
+        <f>AG28+AJ28+AM28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="97" t="s">
         <v>19</v>
       </c>
@@ -3106,12 +3429,12 @@
       <c r="I29" s="97">
         <v>8</v>
       </c>
-      <c r="J29" s="110">
+      <c r="J29" s="117">
         <v>10</v>
       </c>
-      <c r="K29" s="111"/>
+      <c r="K29" s="118"/>
       <c r="L29" s="93">
-        <f t="shared" ref="L29:L30" si="2">C29+F29+I29</f>
+        <f t="shared" ref="L29:L30" si="4">C29+F29+I29</f>
         <v>27</v>
       </c>
       <c r="M29" s="29"/>
@@ -3145,29 +3468,55 @@
       <c r="Y29" s="2">
         <v>8</v>
       </c>
-      <c r="Z29" s="110">
+      <c r="Z29" s="117">
         <v>10</v>
       </c>
-      <c r="AA29" s="111"/>
+      <c r="AA29" s="118"/>
       <c r="AB29" s="28">
-        <f t="shared" ref="AB29:AB30" si="3">S29+V29+Y29</f>
+        <f t="shared" ref="AB29:AB30" si="5">S29+V29+Y29</f>
         <v>32</v>
       </c>
       <c r="AC29" s="25"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE29" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF29" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="104">
+        <f t="shared" ref="AG29:AG35" si="6">S29-C29</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="104">
+        <f t="shared" ref="AJ29:AJ35" si="7">V29-F29</f>
+        <v>5</v>
+      </c>
+      <c r="AK29" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL29" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN29" s="117">
+        <v>10</v>
+      </c>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="100" t="e">
+        <f t="shared" ref="AP29:AP30" si="8">AG29+AJ29+AM29</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3549,7 @@
       </c>
       <c r="K30" s="114"/>
       <c r="L30" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M30" s="29"/>
@@ -3239,24 +3588,51 @@
       </c>
       <c r="AA30" s="114"/>
       <c r="AB30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="AC30" s="25"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="29"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF30" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI30" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="82">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AK30" s="82">
+        <v>13</v>
+      </c>
+      <c r="AL30" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="82">
+        <f t="shared" ref="AM29:AM35" si="9">Y30-I30</f>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="113">
+        <v>10</v>
+      </c>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
         <v>56</v>
       </c>
@@ -3284,10 +3660,10 @@
       <c r="I31" s="4">
         <v>6</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="115">
         <v>10</v>
       </c>
-      <c r="K31" s="103"/>
+      <c r="K31" s="116"/>
       <c r="L31" s="93">
         <f>C31+F31+I31+I32</f>
         <v>27</v>
@@ -3323,29 +3699,56 @@
       <c r="Y31" s="4">
         <v>6</v>
       </c>
-      <c r="Z31" s="102">
+      <c r="Z31" s="115">
         <v>10</v>
       </c>
-      <c r="AA31" s="103"/>
+      <c r="AA31" s="116"/>
       <c r="AB31" s="28">
         <f>S31+V31+Y31+Y32</f>
         <v>27</v>
       </c>
       <c r="AC31" s="25"/>
       <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE31" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="83">
+        <v>7</v>
+      </c>
+      <c r="AI31" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ31" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="83">
+        <v>9.1</v>
+      </c>
+      <c r="AL31" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="138">
+        <v>10</v>
+      </c>
+      <c r="AO31" s="138"/>
+      <c r="AP31" s="100">
+        <f>AG31+AJ31+AM31+AM32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -3359,10 +3762,10 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="102">
-        <v>0</v>
-      </c>
-      <c r="K32" s="103"/>
+      <c r="J32" s="115">
+        <v>0</v>
+      </c>
+      <c r="K32" s="116"/>
       <c r="L32" s="93"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -3381,26 +3784,40 @@
       <c r="Y32" s="4">
         <v>0</v>
       </c>
-      <c r="Z32" s="102">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="103"/>
+      <c r="Z32" s="115">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="116"/>
       <c r="AB32" s="28"/>
       <c r="AC32" s="25"/>
       <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="83"/>
+      <c r="AG32" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="83"/>
+      <c r="AI32" s="83"/>
+      <c r="AJ32" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="83"/>
+      <c r="AL32" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="138">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="138"/>
+      <c r="AP32" s="100"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -3428,12 +3845,12 @@
       <c r="I33" s="5">
         <v>8</v>
       </c>
-      <c r="J33" s="104" t="s">
+      <c r="J33" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="105"/>
+      <c r="K33" s="107"/>
       <c r="L33" s="93">
-        <f t="shared" ref="L33:L35" si="4">C33+F33+I33</f>
+        <f t="shared" ref="L33:L35" si="10">C33+F33+I33</f>
         <v>28</v>
       </c>
       <c r="M33" s="29"/>
@@ -3467,29 +3884,56 @@
       <c r="Y33" s="5">
         <v>8</v>
       </c>
-      <c r="Z33" s="104" t="s">
+      <c r="Z33" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="AA33" s="105"/>
+      <c r="AA33" s="107"/>
       <c r="AB33" s="28">
-        <f t="shared" ref="AB33:AB35" si="5">S33+V33+Y33</f>
+        <f t="shared" ref="AB33:AB35" si="11">S33+V33+Y33</f>
         <v>28</v>
       </c>
       <c r="AC33" s="25"/>
       <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
-      <c r="AM33" s="29"/>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="29"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF33" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG33" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="84">
+        <v>6</v>
+      </c>
+      <c r="AI33" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="84">
+        <v>17</v>
+      </c>
+      <c r="AL33" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO33" s="137"/>
+      <c r="AP33" s="100">
+        <f t="shared" ref="AP33:AP35" si="12">AG33+AJ33+AM33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -3517,12 +3961,12 @@
       <c r="I34" s="6">
         <v>13</v>
       </c>
-      <c r="J34" s="106">
+      <c r="J34" s="109">
         <v>11.14</v>
       </c>
-      <c r="K34" s="107"/>
+      <c r="K34" s="110"/>
       <c r="L34" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="M34" s="29"/>
@@ -3556,29 +4000,56 @@
       <c r="Y34" s="6">
         <v>13</v>
       </c>
-      <c r="Z34" s="106">
+      <c r="Z34" s="109">
         <v>11.14</v>
       </c>
-      <c r="AA34" s="107"/>
+      <c r="AA34" s="110"/>
       <c r="AB34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="AC34" s="25"/>
       <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="29"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF34" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG34" s="85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="85">
+        <v>6</v>
+      </c>
+      <c r="AI34" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="85">
+        <v>16</v>
+      </c>
+      <c r="AL34" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM34" s="85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="136">
+        <v>11.14</v>
+      </c>
+      <c r="AO34" s="136"/>
+      <c r="AP34" s="100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3606,12 +4077,12 @@
       <c r="I35" s="7">
         <v>4</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="111">
         <v>14</v>
       </c>
-      <c r="K35" s="109"/>
+      <c r="K35" s="112"/>
       <c r="L35" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="M35" s="29"/>
@@ -3645,29 +4116,56 @@
       <c r="Y35" s="7">
         <v>4</v>
       </c>
-      <c r="Z35" s="108">
+      <c r="Z35" s="111">
         <v>14</v>
       </c>
-      <c r="AA35" s="109"/>
+      <c r="AA35" s="112"/>
       <c r="AB35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="AC35" s="25"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="29"/>
-      <c r="AL35" s="29"/>
-      <c r="AM35" s="29"/>
-      <c r="AN35" s="29"/>
-      <c r="AO35" s="29"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="86">
+        <v>7</v>
+      </c>
+      <c r="AI35" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ35" s="86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="86">
+        <v>9.1</v>
+      </c>
+      <c r="AL35" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="135">
+        <v>14</v>
+      </c>
+      <c r="AO35" s="135"/>
+      <c r="AP35" s="100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
       <c r="B36" s="94"/>
       <c r="C36" s="94"/>
@@ -3698,23 +4196,24 @@
       <c r="AB36" s="29"/>
       <c r="AC36" s="25"/>
       <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="99"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="99"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="99"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="94">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -3745,10 +4244,10 @@
       <c r="N37" s="29"/>
       <c r="O37" s="25"/>
       <c r="P37" s="29"/>
-      <c r="Q37" s="112" t="s">
+      <c r="Q37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="112"/>
+      <c r="R37" s="105"/>
       <c r="S37" s="29">
         <f>SUM(S28:S36)</f>
         <v>52</v>
@@ -3775,19 +4274,36 @@
       </c>
       <c r="AC37" s="25"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="29"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="29"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE37" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="99">
+        <f>SUM(AG28:AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="99"/>
+      <c r="AI37" s="99"/>
+      <c r="AJ37" s="99">
+        <f>SUM(AJ28:AJ36)</f>
+        <v>10</v>
+      </c>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="99"/>
+      <c r="AM37" s="99">
+        <f>SUM(AM28:AM36)</f>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="99"/>
+      <c r="AO37" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP37" s="23" t="e">
+        <f>SUM(AP28:AP35)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="94"/>
       <c r="C38" s="94"/>
@@ -3818,23 +4334,24 @@
       <c r="AB38" s="29"/>
       <c r="AC38" s="25"/>
       <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
+      <c r="AE38" s="99"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="99"/>
+      <c r="AH38" s="99"/>
+      <c r="AI38" s="99"/>
+      <c r="AJ38" s="99"/>
+      <c r="AK38" s="99"/>
+      <c r="AL38" s="99"/>
+      <c r="AM38" s="99"/>
+      <c r="AN38" s="99"/>
+      <c r="AO38" s="99"/>
+      <c r="AP38" s="99"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="112"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="94"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
@@ -3849,10 +4366,10 @@
       <c r="N39" s="29"/>
       <c r="O39" s="25"/>
       <c r="P39" s="29"/>
-      <c r="Q39" s="112" t="s">
+      <c r="Q39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="112"/>
+      <c r="R39" s="105"/>
       <c r="S39" s="29"/>
       <c r="T39" s="29"/>
       <c r="U39" s="29"/>
@@ -3865,19 +4382,22 @@
       <c r="AB39" s="29"/>
       <c r="AC39" s="25"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE39" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="99"/>
+      <c r="AH39" s="99"/>
+      <c r="AI39" s="99"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="99"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="99"/>
+      <c r="AO39" s="99"/>
+      <c r="AP39" s="99"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="94"/>
       <c r="B40" s="94"/>
       <c r="C40" s="94"/>
@@ -3908,19 +4428,20 @@
       <c r="AB40" s="29"/>
       <c r="AC40" s="25"/>
       <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="29"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="99"/>
+      <c r="AO40" s="99"/>
+      <c r="AP40" s="99"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
         <v>31</v>
       </c>
@@ -3967,19 +4488,28 @@
       <c r="AB41" s="29"/>
       <c r="AC41" s="25"/>
       <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="29"/>
-      <c r="AL41" s="29"/>
-      <c r="AM41" s="29"/>
-      <c r="AN41" s="29"/>
-      <c r="AO41" s="29"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE41" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF41" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH41" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI41" s="99"/>
+      <c r="AJ41" s="99"/>
+      <c r="AK41" s="99"/>
+      <c r="AL41" s="99"/>
+      <c r="AM41" s="99"/>
+      <c r="AN41" s="99"/>
+      <c r="AO41" s="99"/>
+      <c r="AP41" s="99"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
         <v>2</v>
       </c>
@@ -4030,19 +4560,30 @@
       <c r="AB42" s="29"/>
       <c r="AC42" s="25"/>
       <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="29"/>
-      <c r="AL42" s="29"/>
-      <c r="AM42" s="29"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE42" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="100">
+        <f>R42-B42</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="100">
+        <v>30</v>
+      </c>
+      <c r="AH42" s="21">
+        <f>AF42*AG42</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="99"/>
+      <c r="AJ42" s="99"/>
+      <c r="AK42" s="99"/>
+      <c r="AL42" s="99"/>
+      <c r="AM42" s="99"/>
+      <c r="AN42" s="99"/>
+      <c r="AO42" s="99"/>
+      <c r="AP42" s="99"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="s">
         <v>1</v>
       </c>
@@ -4054,7 +4595,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" ref="D43:D47" si="6">B43*C43</f>
+        <f t="shared" ref="D43:D47" si="13">B43*C43</f>
         <v>300</v>
       </c>
       <c r="E43" s="94"/>
@@ -4080,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="T43" s="21">
-        <f t="shared" ref="T43:T47" si="7">R43*S43</f>
+        <f t="shared" ref="T43:T47" si="14">R43*S43</f>
         <v>300</v>
       </c>
       <c r="U43" s="29"/>
@@ -4093,19 +4634,30 @@
       <c r="AB43" s="29"/>
       <c r="AC43" s="25"/>
       <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="29"/>
-      <c r="AL43" s="29"/>
-      <c r="AM43" s="29"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE43" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="100">
+        <f t="shared" ref="AF43:AF47" si="15">R43-B43</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="100">
+        <v>20</v>
+      </c>
+      <c r="AH43" s="21">
+        <f t="shared" ref="AH43:AH47" si="16">AF43*AG43</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="99"/>
+      <c r="AJ43" s="99"/>
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99"/>
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="s">
         <v>15</v>
       </c>
@@ -4117,7 +4669,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="E44" s="94"/>
@@ -4143,7 +4695,7 @@
         <v>25</v>
       </c>
       <c r="T44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
       <c r="U44" s="29"/>
@@ -4156,19 +4708,30 @@
       <c r="AB44" s="29"/>
       <c r="AC44" s="25"/>
       <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="29"/>
-      <c r="AL44" s="29"/>
-      <c r="AM44" s="29"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="29"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE44" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF44" s="100">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="100">
+        <v>25</v>
+      </c>
+      <c r="AH44" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="99"/>
+      <c r="AJ44" s="99"/>
+      <c r="AK44" s="99"/>
+      <c r="AL44" s="99"/>
+      <c r="AM44" s="99"/>
+      <c r="AN44" s="99"/>
+      <c r="AO44" s="99"/>
+      <c r="AP44" s="99"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="s">
         <v>3</v>
       </c>
@@ -4180,7 +4743,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1914</v>
       </c>
       <c r="E45" s="94"/>
@@ -4206,7 +4769,7 @@
         <v>22</v>
       </c>
       <c r="T45" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2134</v>
       </c>
       <c r="U45" s="29"/>
@@ -4219,19 +4782,30 @@
       <c r="AB45" s="29"/>
       <c r="AC45" s="25"/>
       <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="29"/>
-      <c r="AL45" s="29"/>
-      <c r="AM45" s="29"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE45" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF45" s="100">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AG45" s="100">
+        <v>22</v>
+      </c>
+      <c r="AH45" s="21">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="99"/>
+      <c r="AL45" s="99"/>
+      <c r="AM45" s="99"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="99"/>
+      <c r="AP45" s="99"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E46" s="94"/>
@@ -4267,7 +4841,7 @@
         <v>15</v>
       </c>
       <c r="T46" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U46" s="29"/>
@@ -4280,19 +4854,30 @@
       <c r="AB46" s="29"/>
       <c r="AC46" s="25"/>
       <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE46" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF46" s="100">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="100">
+        <v>15</v>
+      </c>
+      <c r="AH46" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="99"/>
+      <c r="AJ46" s="99"/>
+      <c r="AK46" s="99"/>
+      <c r="AL46" s="99"/>
+      <c r="AM46" s="99"/>
+      <c r="AN46" s="99"/>
+      <c r="AO46" s="99"/>
+      <c r="AP46" s="99"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="s">
         <v>5</v>
       </c>
@@ -4304,7 +4889,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>465</v>
       </c>
       <c r="E47" s="94"/>
@@ -4330,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="T47" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>465</v>
       </c>
       <c r="U47" s="29"/>
@@ -4343,19 +4928,30 @@
       <c r="AB47" s="29"/>
       <c r="AC47" s="25"/>
       <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29"/>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE47" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="100">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="100">
+        <v>15</v>
+      </c>
+      <c r="AH47" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="99"/>
+      <c r="AJ47" s="99"/>
+      <c r="AK47" s="99"/>
+      <c r="AL47" s="99"/>
+      <c r="AM47" s="99"/>
+      <c r="AN47" s="99"/>
+      <c r="AO47" s="99"/>
+      <c r="AP47" s="99"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="s">
         <v>14</v>
       </c>
@@ -4402,17 +4998,26 @@
       <c r="AB48" s="29"/>
       <c r="AC48" s="25"/>
       <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-      <c r="AL48" s="29"/>
-      <c r="AM48" s="29"/>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="29"/>
+      <c r="AE48" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF48" s="100">
+        <f>SUM(AF42:AF47)</f>
+        <v>10</v>
+      </c>
+      <c r="AG48" s="100"/>
+      <c r="AH48" s="21">
+        <f>SUM(AH42:AH47)</f>
+        <v>220</v>
+      </c>
+      <c r="AI48" s="99"/>
+      <c r="AJ48" s="99"/>
+      <c r="AK48" s="99"/>
+      <c r="AL48" s="99"/>
+      <c r="AM48" s="99"/>
+      <c r="AN48" s="99"/>
+      <c r="AO48" s="99"/>
+      <c r="AP48" s="99"/>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
@@ -4445,9 +5050,6 @@
       <c r="AB49" s="29"/>
       <c r="AC49" s="25"/>
       <c r="AD49" s="29"/>
-      <c r="AE49" s="29" t="s">
-        <v>91</v>
-      </c>
       <c r="AF49" s="29"/>
       <c r="AG49" s="29"/>
       <c r="AH49" s="29"/>
@@ -4460,10 +5062,10 @@
       <c r="AO49" s="29"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="112"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -4537,7 +5139,9 @@
       <c r="AB51" s="29"/>
       <c r="AC51" s="25"/>
       <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
+      <c r="AE51" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="AF51" s="29"/>
       <c r="AG51" s="29"/>
       <c r="AH51" s="29"/>
@@ -4593,10 +5197,10 @@
       <c r="AO52" s="29"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="112"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -4893,7 +5497,7 @@
       </c>
       <c r="U58" s="87"/>
       <c r="V58" s="29">
-        <f t="shared" ref="V58:V85" si="8">SUM(T58:U58)</f>
+        <f t="shared" ref="V58:V85" si="17">SUM(T58:U58)</f>
         <v>7</v>
       </c>
       <c r="W58" s="29"/>
@@ -4914,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="AH58" s="29">
-        <f t="shared" ref="AH58:AH72" si="9">T58-D58</f>
+        <f>T58-D58</f>
         <v>-2</v>
       </c>
       <c r="AI58" s="29"/>
@@ -4939,7 +5543,7 @@
       </c>
       <c r="E59" s="87"/>
       <c r="F59" s="87">
-        <f t="shared" ref="F59:F82" si="10">SUM(D59:E59)</f>
+        <f t="shared" ref="F59:F82" si="18">SUM(D59:E59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="29"/>
@@ -4962,7 +5566,7 @@
       </c>
       <c r="U59" s="87"/>
       <c r="V59" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W59" s="29"/>
@@ -4979,12 +5583,12 @@
         <v>2</v>
       </c>
       <c r="AH59" s="87">
-        <f t="shared" si="9"/>
+        <f>T59-D59</f>
         <v>0</v>
       </c>
       <c r="AI59" s="29"/>
       <c r="AJ59" s="29">
-        <f t="shared" ref="AJ59:AJ85" si="11">SUM(AH59:AI59)</f>
+        <f t="shared" ref="AJ59:AJ85" si="19">SUM(AH59:AI59)</f>
         <v>0</v>
       </c>
       <c r="AK59" s="29"/>
@@ -5008,7 +5612,7 @@
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="G60" s="29"/>
@@ -5035,7 +5639,7 @@
       </c>
       <c r="U60" s="87"/>
       <c r="V60" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="W60" s="29"/>
@@ -5056,12 +5660,12 @@
         <v>3</v>
       </c>
       <c r="AH60" s="87">
-        <f t="shared" si="9"/>
+        <f>T60-D60</f>
         <v>2</v>
       </c>
       <c r="AI60" s="29"/>
       <c r="AJ60" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AK60" s="29"/>
@@ -5080,7 +5684,7 @@
       <c r="C61" s="29"/>
       <c r="E61" s="87"/>
       <c r="F61" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G61" s="29"/>
@@ -5103,7 +5707,7 @@
       <c r="T61" s="87"/>
       <c r="U61" s="87"/>
       <c r="V61" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W61" s="29"/>
@@ -5122,12 +5726,12 @@
       </c>
       <c r="AG61" s="29"/>
       <c r="AH61" s="87">
-        <f t="shared" si="9"/>
+        <f>T61-D61</f>
         <v>0</v>
       </c>
       <c r="AI61" s="29"/>
       <c r="AJ61" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK61" s="29"/>
@@ -5147,7 +5751,7 @@
       </c>
       <c r="E62" s="87"/>
       <c r="F62" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="G62" s="29"/>
@@ -5170,7 +5774,7 @@
       </c>
       <c r="U62" s="87"/>
       <c r="V62" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="W62" s="29"/>
@@ -5187,12 +5791,12 @@
         <v>5</v>
       </c>
       <c r="AH62" s="87">
-        <f t="shared" si="9"/>
+        <f>T62-D62</f>
         <v>0</v>
       </c>
       <c r="AI62" s="29"/>
       <c r="AJ62" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK62" s="29"/>
@@ -5212,7 +5816,7 @@
       </c>
       <c r="E63" s="87"/>
       <c r="F63" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G63" s="29"/>
@@ -5235,7 +5839,7 @@
       </c>
       <c r="U63" s="87"/>
       <c r="V63" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W63" s="29"/>
@@ -5252,12 +5856,12 @@
         <v>2</v>
       </c>
       <c r="AH63" s="87">
-        <f t="shared" si="9"/>
+        <f>T63-D63</f>
         <v>0</v>
       </c>
       <c r="AI63" s="29"/>
       <c r="AJ63" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK63" s="29"/>
@@ -5281,7 +5885,7 @@
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="G64" s="29"/>
@@ -5308,7 +5912,7 @@
       </c>
       <c r="U64" s="87"/>
       <c r="V64" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="W64" s="29"/>
@@ -5329,12 +5933,12 @@
         <v>3</v>
       </c>
       <c r="AH64" s="87">
-        <f t="shared" si="9"/>
+        <f>T64-D64</f>
         <v>2</v>
       </c>
       <c r="AI64" s="29"/>
       <c r="AJ64" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AK64" s="29"/>
@@ -5353,7 +5957,7 @@
       <c r="C65" s="29"/>
       <c r="E65" s="87"/>
       <c r="F65" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G65" s="29"/>
@@ -5376,7 +5980,7 @@
       <c r="T65" s="87"/>
       <c r="U65" s="87"/>
       <c r="V65" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W65" s="29"/>
@@ -5395,12 +5999,12 @@
       </c>
       <c r="AG65" s="29"/>
       <c r="AH65" s="87">
-        <f t="shared" si="9"/>
+        <f>T65-D65</f>
         <v>0</v>
       </c>
       <c r="AI65" s="29"/>
       <c r="AJ65" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK65" s="29"/>
@@ -5443,7 +6047,7 @@
       </c>
       <c r="U66" s="29"/>
       <c r="V66" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="W66" s="29"/>
@@ -5460,12 +6064,12 @@
         <v>5</v>
       </c>
       <c r="AH66" s="87">
-        <f t="shared" si="9"/>
+        <f>T66-D66</f>
         <v>0</v>
       </c>
       <c r="AI66" s="29"/>
       <c r="AJ66" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK66" s="29"/>
@@ -5485,7 +6089,7 @@
       </c>
       <c r="E67" s="87"/>
       <c r="F67" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G67" s="29"/>
@@ -5508,7 +6112,7 @@
       </c>
       <c r="U67" s="29"/>
       <c r="V67" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W67" s="29"/>
@@ -5525,12 +6129,12 @@
         <v>2</v>
       </c>
       <c r="AH67" s="87">
-        <f t="shared" si="9"/>
+        <f>T67-D67</f>
         <v>-1</v>
       </c>
       <c r="AI67" s="29"/>
       <c r="AJ67" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="AK67" s="29"/>
@@ -5554,7 +6158,7 @@
       </c>
       <c r="E68" s="87"/>
       <c r="F68" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="G68" s="29"/>
@@ -5581,7 +6185,7 @@
       </c>
       <c r="U68" s="29"/>
       <c r="V68" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="W68" s="29"/>
@@ -5602,12 +6206,12 @@
         <v>3</v>
       </c>
       <c r="AH68" s="87">
-        <f t="shared" si="9"/>
+        <f>T68-D68</f>
         <v>2</v>
       </c>
       <c r="AI68" s="29"/>
       <c r="AJ68" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AK68" s="29"/>
@@ -5626,7 +6230,7 @@
       <c r="C69" s="29"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G69" s="29"/>
@@ -5649,7 +6253,7 @@
       <c r="T69" s="29"/>
       <c r="U69" s="29"/>
       <c r="V69" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W69" s="29"/>
@@ -5668,12 +6272,12 @@
       </c>
       <c r="AG69" s="29"/>
       <c r="AH69" s="87">
-        <f t="shared" si="9"/>
+        <f>T69-D69</f>
         <v>0</v>
       </c>
       <c r="AI69" s="29"/>
       <c r="AJ69" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK69" s="29"/>
@@ -5716,7 +6320,7 @@
       </c>
       <c r="U70" s="29"/>
       <c r="V70" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="W70" s="29"/>
@@ -5733,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="AH70" s="87">
-        <f t="shared" si="9"/>
+        <f>T70-D70</f>
         <v>0</v>
       </c>
       <c r="AI70" s="29"/>
@@ -5781,7 +6385,7 @@
       </c>
       <c r="U71" s="29"/>
       <c r="V71" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W71" s="29"/>
@@ -5798,12 +6402,12 @@
         <v>2</v>
       </c>
       <c r="AH71" s="87">
-        <f t="shared" si="9"/>
+        <f>T71-D71</f>
         <v>0</v>
       </c>
       <c r="AI71" s="29"/>
       <c r="AJ71" s="87">
-        <f t="shared" ref="AJ71:AJ72" si="12">SUM(AH71:AI71)</f>
+        <f t="shared" ref="AJ71:AJ72" si="20">SUM(AH71:AI71)</f>
         <v>0</v>
       </c>
       <c r="AK71" s="29"/>
@@ -5858,7 +6462,7 @@
         <v>22</v>
       </c>
       <c r="V72" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="W72" s="29"/>
@@ -5879,15 +6483,15 @@
         <v>9</v>
       </c>
       <c r="AH72" s="87">
-        <f t="shared" si="9"/>
+        <f>T72-D72</f>
         <v>0</v>
       </c>
       <c r="AI72" s="29">
-        <f t="shared" ref="AH72:AI85" si="13">U72-E72</f>
+        <f>U72-E72</f>
         <v>0</v>
       </c>
       <c r="AJ72" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK72" s="29"/>
@@ -5911,7 +6515,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="G73" s="29"/>
@@ -5938,7 +6542,7 @@
         <v>29</v>
       </c>
       <c r="V73" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="W73" s="29"/>
@@ -5960,11 +6564,11 @@
       </c>
       <c r="AH73" s="29"/>
       <c r="AI73" s="87">
-        <f t="shared" si="13"/>
+        <f>U73-E73</f>
         <v>-1</v>
       </c>
       <c r="AJ73" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="AK73" s="29"/>
@@ -5984,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G74" s="29"/>
@@ -6007,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="V74" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W74" s="29"/>
@@ -6025,11 +6629,11 @@
       </c>
       <c r="AH74" s="29"/>
       <c r="AI74" s="87">
-        <f t="shared" si="13"/>
+        <f>U74-E74</f>
         <v>0</v>
       </c>
       <c r="AJ74" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK74" s="29"/>
@@ -6053,7 +6657,7 @@
         <v>44</v>
       </c>
       <c r="F75" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="G75" s="29"/>
@@ -6080,7 +6684,7 @@
         <v>44</v>
       </c>
       <c r="V75" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="W75" s="29"/>
@@ -6102,11 +6706,11 @@
       </c>
       <c r="AH75" s="29"/>
       <c r="AI75" s="87">
-        <f t="shared" si="13"/>
+        <f>U75-E75</f>
         <v>0</v>
       </c>
       <c r="AJ75" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK75" s="29"/>
@@ -6130,7 +6734,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="G76" s="29"/>
@@ -6157,7 +6761,7 @@
         <v>17</v>
       </c>
       <c r="V76" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="W76" s="29"/>
@@ -6179,11 +6783,11 @@
       </c>
       <c r="AH76" s="29"/>
       <c r="AI76" s="87">
-        <f t="shared" si="13"/>
+        <f>U76-E76</f>
         <v>3</v>
       </c>
       <c r="AJ76" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AK76" s="29"/>
@@ -6203,7 +6807,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G77" s="29"/>
@@ -6226,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="V77" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="W77" s="29"/>
@@ -6244,11 +6848,11 @@
       </c>
       <c r="AH77" s="29"/>
       <c r="AI77" s="87">
-        <f t="shared" si="13"/>
+        <f>U77-E77</f>
         <v>0</v>
       </c>
       <c r="AJ77" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK77" s="29"/>
@@ -6272,7 +6876,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="G78" s="29"/>
@@ -6299,7 +6903,7 @@
         <v>15</v>
       </c>
       <c r="V78" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="W78" s="29"/>
@@ -6321,11 +6925,11 @@
       </c>
       <c r="AH78" s="29"/>
       <c r="AI78" s="87">
-        <f t="shared" si="13"/>
+        <f>U78-E78</f>
         <v>0</v>
       </c>
       <c r="AJ78" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK78" s="29"/>
@@ -6344,7 +6948,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="G79" s="29"/>
@@ -6367,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="V79" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="W79" s="29"/>
@@ -6385,11 +6989,11 @@
       </c>
       <c r="AH79" s="29"/>
       <c r="AI79" s="87">
-        <f t="shared" si="13"/>
+        <f>U79-E79</f>
         <v>0</v>
       </c>
       <c r="AJ79" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK79" s="29"/>
@@ -6408,7 +7012,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="G80" s="29"/>
@@ -6431,7 +7035,7 @@
         <v>7</v>
       </c>
       <c r="V80" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="W80" s="29"/>
@@ -6449,11 +7053,11 @@
       </c>
       <c r="AH80" s="29"/>
       <c r="AI80" s="87">
-        <f t="shared" si="13"/>
+        <f>U80-E80</f>
         <v>-2</v>
       </c>
       <c r="AJ80" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2</v>
       </c>
       <c r="AK80" s="29"/>
@@ -6472,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G81" s="29"/>
@@ -6495,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="V81" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="W81" s="29"/>
@@ -6513,11 +7117,11 @@
       </c>
       <c r="AH81" s="29"/>
       <c r="AI81" s="87">
-        <f t="shared" si="13"/>
+        <f>U81-E81</f>
         <v>0</v>
       </c>
       <c r="AJ81" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK81" s="29"/>
@@ -6543,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="G82" s="29"/>
@@ -6572,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="V82" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="W82" s="29"/>
@@ -6593,15 +7197,15 @@
         <v>5</v>
       </c>
       <c r="AH82" s="87">
-        <f t="shared" si="13"/>
+        <f>T82-D82</f>
         <v>0</v>
       </c>
       <c r="AI82" s="87">
-        <f t="shared" si="13"/>
+        <f>U82-E82</f>
         <v>0</v>
       </c>
       <c r="AJ82" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK82" s="29"/>
@@ -6648,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="V83" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="W83" s="29"/>
@@ -6665,15 +7269,15 @@
         <v>2</v>
       </c>
       <c r="AH83" s="87">
-        <f t="shared" si="13"/>
+        <f>T83-D83</f>
         <v>0</v>
       </c>
       <c r="AI83" s="87">
-        <f t="shared" si="13"/>
+        <f>U83-E83</f>
         <v>-1</v>
       </c>
       <c r="AJ83" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="AK83" s="29"/>
@@ -6724,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="V84" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="W84" s="29"/>
@@ -6746,11 +7350,11 @@
       </c>
       <c r="AH84" s="29"/>
       <c r="AI84" s="87">
-        <f t="shared" si="13"/>
+        <f>U84-E84</f>
         <v>-1</v>
       </c>
       <c r="AJ84" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="AK84" s="29"/>
@@ -6793,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="V85" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="W85" s="29"/>
@@ -6811,11 +7415,11 @@
       </c>
       <c r="AH85" s="29"/>
       <c r="AI85" s="87">
-        <f t="shared" si="13"/>
+        <f>U85-E85</f>
         <v>0</v>
       </c>
       <c r="AJ85" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK85" s="29"/>
@@ -6835,7 +7439,7 @@
         <v>205</v>
       </c>
       <c r="E86" s="29">
-        <f t="shared" ref="E86" si="14">SUM(E58:E85)</f>
+        <f t="shared" ref="E86" si="21">SUM(E58:E85)</f>
         <v>161</v>
       </c>
       <c r="F86" s="29">
@@ -6858,11 +7462,11 @@
       <c r="R86" s="29"/>
       <c r="S86" s="22"/>
       <c r="T86" s="29">
-        <f t="shared" ref="T86:U86" si="15">SUM(T58:T85)</f>
+        <f t="shared" ref="T86:U86" si="22">SUM(T58:T85)</f>
         <v>208</v>
       </c>
       <c r="U86" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>159</v>
       </c>
       <c r="V86" s="29">
@@ -6887,11 +7491,11 @@
         <v>3</v>
       </c>
       <c r="AI86" s="29">
-        <f t="shared" ref="AI86:AJ86" si="16">SUM(AI58:AI85)</f>
+        <f t="shared" ref="AI86:AJ86" si="23">SUM(AI58:AI85)</f>
         <v>-2</v>
       </c>
       <c r="AJ86" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AK86" s="29"/>
@@ -7056,14 +7660,14 @@
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
       <c r="T90" s="29"/>
-      <c r="U90" s="112" t="s">
+      <c r="U90" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="V90" s="112"/>
-      <c r="W90" s="112" t="s">
+      <c r="V90" s="105"/>
+      <c r="W90" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="X90" s="112"/>
+      <c r="X90" s="105"/>
       <c r="Y90" s="29"/>
       <c r="Z90" s="29"/>
       <c r="AA90" s="29"/>
@@ -7162,15 +7766,15 @@
         <v>2</v>
       </c>
       <c r="B92" s="28">
-        <f>D59+D63+D70+E74+E77+E81+E83+E84+D67</f>
-        <v>29</v>
+        <f>F59+F63+F71+F74+F77+F81+F83+F84+F67</f>
+        <v>27</v>
       </c>
       <c r="C92" s="28">
         <v>30</v>
       </c>
       <c r="D92" s="21">
-        <f t="shared" ref="D92:D97" si="17">B92*C92</f>
-        <v>870</v>
+        <f t="shared" ref="D92:D97" si="24">B92*C92</f>
+        <v>810</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="29"/>
@@ -7254,7 +7858,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="E93" s="29"/>
@@ -7280,7 +7884,7 @@
         <v>20</v>
       </c>
       <c r="T93" s="21">
-        <f t="shared" ref="T93:T97" si="18">R93*S93</f>
+        <f t="shared" ref="T93:T97" si="25">R93*S93</f>
         <v>320</v>
       </c>
       <c r="U93" s="29">
@@ -7316,7 +7920,7 @@
         <v>20</v>
       </c>
       <c r="AH93" s="21">
-        <f t="shared" ref="AH93:AH97" si="19">AF93*AG93</f>
+        <f t="shared" ref="AH93:AH97" si="26">AF93*AG93</f>
         <v>-80</v>
       </c>
       <c r="AI93" s="29"/>
@@ -7338,7 +7942,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E94" s="29"/>
@@ -7363,7 +7967,7 @@
         <v>25</v>
       </c>
       <c r="T94" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U94" s="29"/>
@@ -7385,7 +7989,7 @@
         <v>25</v>
       </c>
       <c r="AH94" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI94" s="29"/>
@@ -7408,7 +8012,7 @@
         <v>22</v>
       </c>
       <c r="D95" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2574</v>
       </c>
       <c r="E95" s="29"/>
@@ -7434,7 +8038,7 @@
         <v>22</v>
       </c>
       <c r="T95" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>2706</v>
       </c>
       <c r="U95" s="29">
@@ -7470,7 +8074,7 @@
         <v>22</v>
       </c>
       <c r="AH95" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>132</v>
       </c>
       <c r="AI95" s="29"/>
@@ -7493,7 +8097,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1515</v>
       </c>
       <c r="E96" s="29"/>
@@ -7519,7 +8123,7 @@
         <v>15</v>
       </c>
       <c r="T96" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1515</v>
       </c>
       <c r="U96" s="29">
@@ -7555,7 +8159,7 @@
         <v>15</v>
       </c>
       <c r="AH96" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI96" s="29"/>
@@ -7578,7 +8182,7 @@
         <v>15</v>
       </c>
       <c r="D97" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1515</v>
       </c>
       <c r="E97" s="29"/>
@@ -7604,7 +8208,7 @@
         <v>15</v>
       </c>
       <c r="T97" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1545</v>
       </c>
       <c r="U97" s="29">
@@ -7640,7 +8244,7 @@
         <v>15</v>
       </c>
       <c r="AH97" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="AI97" s="29"/>
@@ -7657,12 +8261,12 @@
       </c>
       <c r="B98" s="28">
         <f>SUM(B92:B97)</f>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C98" s="28"/>
       <c r="D98" s="21">
         <f>SUM(D92:D97)</f>
-        <v>6874</v>
+        <v>6814</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
@@ -7779,10 +8383,10 @@
       <c r="AO99" s="29"/>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A100" s="112" t="s">
+      <c r="A100" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="112"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
@@ -7797,10 +8401,10 @@
       <c r="N100" s="29"/>
       <c r="O100" s="25"/>
       <c r="P100" s="26"/>
-      <c r="Q100" s="112" t="s">
+      <c r="Q100" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="R100" s="112"/>
+      <c r="R100" s="105"/>
       <c r="S100" s="29"/>
       <c r="T100" s="29"/>
       <c r="U100" s="29"/>
@@ -7874,16 +8478,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="115" t="s">
+      <c r="B102" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115" t="s">
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="115"/>
-      <c r="G102" s="115"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
       <c r="H102" s="28" t="s">
         <v>63</v>
       </c>
@@ -7898,16 +8502,16 @@
       <c r="Q102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R102" s="115" t="s">
+      <c r="R102" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="S102" s="115"/>
-      <c r="T102" s="115"/>
-      <c r="U102" s="115" t="s">
+      <c r="S102" s="108"/>
+      <c r="T102" s="108"/>
+      <c r="U102" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="V102" s="115"/>
-      <c r="W102" s="115"/>
+      <c r="V102" s="108"/>
+      <c r="W102" s="108"/>
       <c r="X102" s="28" t="s">
         <v>63</v>
       </c>
@@ -7920,16 +8524,16 @@
       <c r="AE102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AF102" s="99" t="s">
+      <c r="AF102" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="AG102" s="100"/>
-      <c r="AH102" s="101"/>
-      <c r="AI102" s="99" t="s">
+      <c r="AG102" s="120"/>
+      <c r="AH102" s="121"/>
+      <c r="AI102" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="AJ102" s="100"/>
-      <c r="AK102" s="101"/>
+      <c r="AJ102" s="120"/>
+      <c r="AK102" s="121"/>
       <c r="AL102" s="28" t="s">
         <v>63</v>
       </c>
@@ -8088,7 +8692,7 @@
         <v>3</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" ref="AG104:AG106" si="20">S104-C104</f>
+        <f>S104-C104</f>
         <v>-1</v>
       </c>
       <c r="AH104" s="1">
@@ -8098,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" s="1">
-        <f t="shared" ref="AJ104:AJ106" si="21">V104-F104</f>
+        <f>V104-F104</f>
         <v>-2</v>
       </c>
       <c r="AK104" s="1">
@@ -8172,7 +8776,7 @@
         <v>5</v>
       </c>
       <c r="AG105" s="1">
-        <f t="shared" si="20"/>
+        <f>S105-C105</f>
         <v>0</v>
       </c>
       <c r="AH105" s="1">
@@ -8182,7 +8786,7 @@
         <v>5</v>
       </c>
       <c r="AJ105" s="1">
-        <f t="shared" si="21"/>
+        <f>V105-F105</f>
         <v>1</v>
       </c>
       <c r="AK105" s="1">
@@ -8265,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="AG106" s="2">
-        <f t="shared" si="20"/>
+        <f>S106-C106</f>
         <v>3</v>
       </c>
       <c r="AH106" s="2">
@@ -8275,7 +8879,7 @@
         <v>9</v>
       </c>
       <c r="AJ106" s="2">
-        <f t="shared" si="21"/>
+        <f>V106-F106</f>
         <v>-1</v>
       </c>
       <c r="AK106" s="2">
@@ -8362,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="AG107" s="3">
-        <f t="shared" ref="AG107:AG115" si="22">S107-C107</f>
+        <f>S107-C107</f>
         <v>-1</v>
       </c>
       <c r="AH107" s="3" t="s">
@@ -8372,7 +8976,7 @@
         <v>9</v>
       </c>
       <c r="AJ107" s="3">
-        <f t="shared" ref="AJ107:AJ115" si="23">V107-F107</f>
+        <f>V107-F107</f>
         <v>1</v>
       </c>
       <c r="AK107" s="3">
@@ -8434,7 +9038,7 @@
         <v>9</v>
       </c>
       <c r="AG108" s="3">
-        <f t="shared" si="22"/>
+        <f>S108-C108</f>
         <v>1</v>
       </c>
       <c r="AH108" s="3">
@@ -8442,7 +9046,7 @@
       </c>
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3">
-        <f t="shared" si="23"/>
+        <f>V108-F108</f>
         <v>0</v>
       </c>
       <c r="AK108" s="3"/>
@@ -8524,7 +9128,7 @@
         <v>9</v>
       </c>
       <c r="AG109" s="4">
-        <f t="shared" si="22"/>
+        <f>S109-C109</f>
         <v>1</v>
       </c>
       <c r="AH109" s="4">
@@ -8534,7 +9138,7 @@
         <v>2</v>
       </c>
       <c r="AJ109" s="4">
-        <f t="shared" si="23"/>
+        <f>V109-F109</f>
         <v>-2</v>
       </c>
       <c r="AK109" s="4" t="s">
@@ -8608,7 +9212,7 @@
         <v>3</v>
       </c>
       <c r="AG110" s="4">
-        <f t="shared" si="22"/>
+        <f>S110-C110</f>
         <v>2</v>
       </c>
       <c r="AH110" s="4">
@@ -8618,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="AJ110" s="4">
-        <f t="shared" si="23"/>
+        <f>V110-F110</f>
         <v>0</v>
       </c>
       <c r="AK110" s="4">
@@ -8701,7 +9305,7 @@
         <v>9</v>
       </c>
       <c r="AG111" s="5">
-        <f t="shared" si="22"/>
+        <f>S111-C111</f>
         <v>-2</v>
       </c>
       <c r="AH111" s="5">
@@ -8711,7 +9315,7 @@
         <v>5</v>
       </c>
       <c r="AJ111" s="5">
-        <f t="shared" si="23"/>
+        <f>V111-F111</f>
         <v>3</v>
       </c>
       <c r="AK111" s="5" t="s">
@@ -8773,7 +9377,7 @@
         <v>5</v>
       </c>
       <c r="AG112" s="5">
-        <f t="shared" si="22"/>
+        <f>S112-C112</f>
         <v>0</v>
       </c>
       <c r="AH112" s="5">
@@ -8781,7 +9385,7 @@
       </c>
       <c r="AI112" s="5"/>
       <c r="AJ112" s="5">
-        <f t="shared" si="23"/>
+        <f>V112-F112</f>
         <v>0</v>
       </c>
       <c r="AK112" s="5"/>
@@ -8862,7 +9466,7 @@
         <v>3</v>
       </c>
       <c r="AG113" s="6">
-        <f t="shared" si="22"/>
+        <f>S113-C113</f>
         <v>2</v>
       </c>
       <c r="AH113" s="6">
@@ -8872,7 +9476,7 @@
         <v>9</v>
       </c>
       <c r="AJ113" s="6">
-        <f t="shared" si="23"/>
+        <f>V113-F113</f>
         <v>0</v>
       </c>
       <c r="AK113" s="6">
@@ -8958,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="AG114" s="7">
-        <f t="shared" si="22"/>
+        <f>S114-C114</f>
         <v>-2</v>
       </c>
       <c r="AH114" s="7">
@@ -8968,7 +9572,7 @@
         <v>5</v>
       </c>
       <c r="AJ114" s="7">
-        <f t="shared" si="23"/>
+        <f>V114-F114</f>
         <v>-2</v>
       </c>
       <c r="AK114" s="7">
@@ -9030,7 +9634,7 @@
         <v>5</v>
       </c>
       <c r="AG115" s="7">
-        <f t="shared" si="22"/>
+        <f>S115-C115</f>
         <v>0</v>
       </c>
       <c r="AH115" s="7">
@@ -9038,7 +9642,7 @@
       </c>
       <c r="AI115" s="7"/>
       <c r="AJ115" s="7">
-        <f t="shared" si="23"/>
+        <f>V115-F115</f>
         <v>0</v>
       </c>
       <c r="AK115" s="7"/>
@@ -9503,7 +10107,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="29">
-        <f t="shared" ref="F124:F134" si="24">SUM(D124:E124)</f>
+        <f t="shared" ref="F124:F134" si="27">SUM(D124:E124)</f>
         <v>3</v>
       </c>
       <c r="G124" s="29"/>
@@ -9530,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="V124" s="29">
-        <f t="shared" ref="V124:V134" si="25">SUM(T124:U124)</f>
+        <f t="shared" ref="V124:V134" si="28">SUM(T124:U124)</f>
         <v>3</v>
       </c>
       <c r="W124" s="29"/>
@@ -9552,11 +10156,11 @@
       </c>
       <c r="AH124" s="29"/>
       <c r="AI124" s="29">
-        <f t="shared" ref="AH124:AI134" si="26">U124-E124</f>
+        <f>U124-E124</f>
         <v>0</v>
       </c>
       <c r="AJ124" s="29">
-        <f t="shared" ref="AJ124:AJ134" si="27">SUM(AH124:AI124)</f>
+        <f t="shared" ref="AJ124:AJ134" si="29">SUM(AH124:AI124)</f>
         <v>0</v>
       </c>
       <c r="AK124" s="29"/>
@@ -9576,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="G125" s="29"/>
@@ -9599,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="V125" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="W125" s="29"/>
@@ -9617,11 +10221,11 @@
       </c>
       <c r="AH125" s="29"/>
       <c r="AI125" s="29">
-        <f t="shared" si="26"/>
+        <f>U125-E125</f>
         <v>0</v>
       </c>
       <c r="AJ125" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK125" s="29"/>
@@ -9645,7 +10249,7 @@
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="G126" s="29"/>
@@ -9672,7 +10276,7 @@
       </c>
       <c r="U126" s="29"/>
       <c r="V126" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="W126" s="29"/>
@@ -9693,12 +10297,12 @@
         <v>3</v>
       </c>
       <c r="AH126" s="29">
-        <f t="shared" si="26"/>
+        <f>T126-D126</f>
         <v>2</v>
       </c>
       <c r="AI126" s="29"/>
       <c r="AJ126" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AK126" s="29"/>
@@ -9722,7 +10326,7 @@
       </c>
       <c r="E127" s="29"/>
       <c r="F127" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="G127" s="29"/>
@@ -9749,7 +10353,7 @@
       </c>
       <c r="U127" s="29"/>
       <c r="V127" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="W127" s="29"/>
@@ -9770,12 +10374,12 @@
         <v>5</v>
       </c>
       <c r="AH127" s="29">
-        <f t="shared" si="26"/>
+        <f>T127-D127</f>
         <v>0</v>
       </c>
       <c r="AI127" s="29"/>
       <c r="AJ127" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK127" s="29"/>
@@ -9795,7 +10399,7 @@
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="G128" s="29"/>
@@ -9818,7 +10422,7 @@
       </c>
       <c r="U128" s="29"/>
       <c r="V128" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="W128" s="29"/>
@@ -9835,12 +10439,12 @@
         <v>2</v>
       </c>
       <c r="AH128" s="29">
-        <f t="shared" si="26"/>
+        <f>T128-D128</f>
         <v>0</v>
       </c>
       <c r="AI128" s="29"/>
       <c r="AJ128" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK128" s="29"/>
@@ -9864,7 +10468,7 @@
         <v>56</v>
       </c>
       <c r="F129" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="G129" s="29"/>
@@ -9891,7 +10495,7 @@
         <v>56</v>
       </c>
       <c r="V129" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>56</v>
       </c>
       <c r="W129" s="29"/>
@@ -9913,11 +10517,11 @@
       </c>
       <c r="AH129" s="29"/>
       <c r="AI129" s="29">
-        <f t="shared" si="26"/>
+        <f>U129-E129</f>
         <v>0</v>
       </c>
       <c r="AJ129" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK129" s="29"/>
@@ -9941,7 +10545,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="G130" s="29"/>
@@ -9965,11 +10569,11 @@
       </c>
       <c r="T130" s="29"/>
       <c r="U130" s="29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V130" s="29">
-        <f t="shared" si="25"/>
-        <v>12</v>
+        <f t="shared" si="28"/>
+        <v>10</v>
       </c>
       <c r="W130" s="29"/>
       <c r="X130" s="29"/>
@@ -9990,12 +10594,12 @@
       </c>
       <c r="AH130" s="29"/>
       <c r="AI130" s="29">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>U130-E130</f>
+        <v>-2</v>
       </c>
       <c r="AJ130" s="29">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2</v>
       </c>
       <c r="AK130" s="29"/>
       <c r="AL130" s="29"/>
@@ -10014,7 +10618,7 @@
         <v>7</v>
       </c>
       <c r="F131" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="G131" s="29"/>
@@ -10037,7 +10641,7 @@
         <v>7</v>
       </c>
       <c r="V131" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="W131" s="29"/>
@@ -10054,12 +10658,12 @@
         <v>2</v>
       </c>
       <c r="AH131" s="29">
-        <f t="shared" si="26"/>
+        <f>T131-D131</f>
         <v>0</v>
       </c>
       <c r="AI131" s="29"/>
       <c r="AJ131" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK131" s="29"/>
@@ -10083,7 +10687,7 @@
       </c>
       <c r="E132" s="29"/>
       <c r="F132" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>26</v>
       </c>
       <c r="G132" s="29"/>
@@ -10110,7 +10714,7 @@
       </c>
       <c r="U132" s="29"/>
       <c r="V132" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="W132" s="29"/>
@@ -10131,12 +10735,12 @@
         <v>9</v>
       </c>
       <c r="AH132" s="29">
-        <f t="shared" si="26"/>
+        <f>T132-D132</f>
         <v>0</v>
       </c>
       <c r="AI132" s="29"/>
       <c r="AJ132" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK132" s="29"/>
@@ -10160,7 +10764,7 @@
       </c>
       <c r="E133" s="29"/>
       <c r="F133" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="G133" s="29"/>
@@ -10187,7 +10791,7 @@
       </c>
       <c r="U133" s="29"/>
       <c r="V133" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="W133" s="29"/>
@@ -10208,12 +10812,12 @@
         <v>5</v>
       </c>
       <c r="AH133" s="29">
-        <f t="shared" si="26"/>
+        <f>T133-D133</f>
         <v>3</v>
       </c>
       <c r="AI133" s="29"/>
       <c r="AJ133" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AK133" s="29"/>
@@ -10233,7 +10837,7 @@
       </c>
       <c r="E134" s="29"/>
       <c r="F134" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="G134" s="29"/>
@@ -10256,7 +10860,7 @@
       </c>
       <c r="U134" s="29"/>
       <c r="V134" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="W134" s="29"/>
@@ -10273,12 +10877,12 @@
         <v>2</v>
       </c>
       <c r="AH134" s="29">
-        <f t="shared" si="26"/>
+        <f>T134-D134</f>
         <v>0</v>
       </c>
       <c r="AI134" s="29"/>
       <c r="AJ134" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK134" s="29"/>
@@ -10294,11 +10898,11 @@
       <c r="B135" s="29"/>
       <c r="C135" s="22"/>
       <c r="D135" s="29">
-        <f t="shared" ref="D135:E135" si="28">SUM(D123:D134)</f>
+        <f t="shared" ref="D135:E135" si="30">SUM(D123:D134)</f>
         <v>68</v>
       </c>
       <c r="E135" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="F135" s="29">
@@ -10321,16 +10925,16 @@
       <c r="R135" s="29"/>
       <c r="S135" s="22"/>
       <c r="T135" s="29">
-        <f t="shared" ref="T135" si="29">SUM(T123:T134)</f>
+        <f t="shared" ref="T135" si="31">SUM(T123:T134)</f>
         <v>73</v>
       </c>
       <c r="U135" s="29">
-        <f t="shared" ref="U135" si="30">SUM(U123:U134)</f>
-        <v>80</v>
+        <f t="shared" ref="U135" si="32">SUM(U123:U134)</f>
+        <v>78</v>
       </c>
       <c r="V135" s="29">
         <f>SUM(V123:V134)</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W135" s="29"/>
       <c r="X135" s="29"/>
@@ -10346,16 +10950,16 @@
       <c r="AF135" s="29"/>
       <c r="AG135" s="22"/>
       <c r="AH135" s="29">
-        <f t="shared" ref="AH135" si="31">SUM(AH123:AH134)</f>
+        <f t="shared" ref="AH135" si="33">SUM(AH123:AH134)</f>
         <v>5</v>
       </c>
       <c r="AI135" s="29">
-        <f t="shared" ref="AI135" si="32">SUM(AI123:AI134)</f>
-        <v>0</v>
+        <f t="shared" ref="AI135" si="34">SUM(AI123:AI134)</f>
+        <v>-2</v>
       </c>
       <c r="AJ135" s="29">
         <f>SUM(AJ123:AJ134)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK135" s="29"/>
       <c r="AL135" s="29"/>
@@ -10519,14 +11123,14 @@
       <c r="R139" s="29"/>
       <c r="S139" s="29"/>
       <c r="T139" s="29"/>
-      <c r="U139" s="112" t="s">
+      <c r="U139" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="V139" s="112"/>
-      <c r="W139" s="112" t="s">
+      <c r="V139" s="105"/>
+      <c r="W139" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="X139" s="112"/>
+      <c r="X139" s="105"/>
       <c r="Y139" s="29"/>
       <c r="Z139" s="29"/>
       <c r="AA139" s="29"/>
@@ -10717,7 +11321,7 @@
         <v>20</v>
       </c>
       <c r="D142" s="21">
-        <f t="shared" ref="D142:D146" si="33">B142*C142</f>
+        <f t="shared" ref="D142:D146" si="35">B142*C142</f>
         <v>380</v>
       </c>
       <c r="E142" s="29"/>
@@ -10737,14 +11341,14 @@
       </c>
       <c r="R142" s="28">
         <f>V123+V124+V130</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S142" s="28">
         <v>20</v>
       </c>
       <c r="T142" s="21">
-        <f t="shared" ref="T142:T146" si="34">R142*S142</f>
-        <v>380</v>
+        <f t="shared" ref="T142:T146" si="36">R142*S142</f>
+        <v>340</v>
       </c>
       <c r="U142">
         <f>T123</f>
@@ -10756,11 +11360,11 @@
       </c>
       <c r="W142" s="29">
         <f>U124+U130</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X142" s="29">
         <f>V154</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y142" s="29"/>
       <c r="Z142" s="29"/>
@@ -10773,14 +11377,14 @@
       </c>
       <c r="AF142" s="28">
         <f>AJ123+AJ124+AJ130</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG142" s="28">
         <v>20</v>
       </c>
       <c r="AH142" s="21">
-        <f t="shared" ref="AH142:AH146" si="35">AF142*AG142</f>
-        <v>0</v>
+        <f t="shared" ref="AH142:AH146" si="37">AF142*AG142</f>
+        <v>-40</v>
       </c>
       <c r="AI142" s="29"/>
       <c r="AJ142" s="29"/>
@@ -10801,7 +11405,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E143" s="29"/>
@@ -10826,7 +11430,7 @@
         <v>25</v>
       </c>
       <c r="T143" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U143" s="29"/>
@@ -10849,7 +11453,7 @@
         <v>25</v>
       </c>
       <c r="AH143" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI143" s="29"/>
@@ -10872,7 +11476,7 @@
         <v>22</v>
       </c>
       <c r="D144" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>352</v>
       </c>
       <c r="E144" s="29"/>
@@ -10898,7 +11502,7 @@
         <v>22</v>
       </c>
       <c r="T144" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>396</v>
       </c>
       <c r="U144" s="29">
@@ -10928,7 +11532,7 @@
         <v>22</v>
       </c>
       <c r="AH144" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>44</v>
       </c>
       <c r="AI144" s="29"/>
@@ -10951,7 +11555,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>390</v>
       </c>
       <c r="E145" s="29"/>
@@ -10977,7 +11581,7 @@
         <v>15</v>
       </c>
       <c r="T145" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>390</v>
       </c>
       <c r="U145" s="29">
@@ -11007,7 +11611,7 @@
         <v>15</v>
       </c>
       <c r="AH145" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI145" s="29"/>
@@ -11030,7 +11634,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1095</v>
       </c>
       <c r="E146" s="29"/>
@@ -11056,7 +11660,7 @@
         <v>15</v>
       </c>
       <c r="T146" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1140</v>
       </c>
       <c r="U146" s="29">
@@ -11092,7 +11696,7 @@
         <v>15</v>
       </c>
       <c r="AH146" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>45</v>
       </c>
       <c r="AI146" s="29"/>
@@ -11133,28 +11737,28 @@
       </c>
       <c r="R147" s="28">
         <f>SUM(R141:R146)</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S147" s="28"/>
       <c r="T147" s="21">
         <f>SUM(T141:T146)</f>
-        <v>2726</v>
+        <v>2686</v>
       </c>
       <c r="U147" s="29">
         <f>SUM(U141:U146)</f>
         <v>73</v>
       </c>
       <c r="V147" s="87">
-        <f t="shared" ref="V147:X147" si="36">SUM(V141:V146)</f>
+        <f t="shared" ref="V147:X147" si="38">SUM(V141:V146)</f>
         <v>73</v>
       </c>
       <c r="W147" s="87">
-        <f t="shared" si="36"/>
-        <v>80</v>
+        <f t="shared" si="38"/>
+        <v>78</v>
       </c>
       <c r="X147" s="87">
-        <f t="shared" si="36"/>
-        <v>80</v>
+        <f t="shared" si="38"/>
+        <v>78</v>
       </c>
       <c r="Y147" s="29"/>
       <c r="Z147" s="29"/>
@@ -11167,12 +11771,12 @@
       </c>
       <c r="AF147" s="28">
         <f>SUM(AF141:AF146)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG147" s="28"/>
       <c r="AH147" s="21">
         <f>SUM(AH141:AH146)</f>
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI147" s="29"/>
       <c r="AJ147" s="29"/>
@@ -11226,10 +11830,10 @@
       <c r="AO148" s="29"/>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A149" s="112" t="s">
+      <c r="A149" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="112"/>
+      <c r="B149" s="105"/>
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
@@ -11244,10 +11848,10 @@
       <c r="N149" s="29"/>
       <c r="O149" s="25"/>
       <c r="P149" s="26"/>
-      <c r="Q149" s="112" t="s">
+      <c r="Q149" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="R149" s="112"/>
+      <c r="R149" s="105"/>
       <c r="S149" s="29"/>
       <c r="T149" s="29"/>
       <c r="U149" s="29"/>
@@ -11321,16 +11925,16 @@
       <c r="A151" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="115"/>
-      <c r="D151" s="115"/>
-      <c r="E151" s="115" t="s">
+      <c r="C151" s="108"/>
+      <c r="D151" s="108"/>
+      <c r="E151" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F151" s="115"/>
-      <c r="G151" s="115"/>
+      <c r="F151" s="108"/>
+      <c r="G151" s="108"/>
       <c r="H151" s="28" t="s">
         <v>63</v>
       </c>
@@ -11345,16 +11949,16 @@
       <c r="Q151" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R151" s="115" t="s">
+      <c r="R151" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="S151" s="115"/>
-      <c r="T151" s="115"/>
-      <c r="U151" s="115" t="s">
+      <c r="S151" s="108"/>
+      <c r="T151" s="108"/>
+      <c r="U151" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="V151" s="115"/>
-      <c r="W151" s="115"/>
+      <c r="V151" s="108"/>
+      <c r="W151" s="108"/>
       <c r="X151" s="28" t="s">
         <v>63</v>
       </c>
@@ -11538,7 +12142,7 @@
         <v>9</v>
       </c>
       <c r="AG153" s="98">
-        <f t="shared" ref="AG153:AG160" si="37">S153-C153</f>
+        <f>S153-C153</f>
         <v>0</v>
       </c>
       <c r="AH153" s="98">
@@ -11585,7 +12189,7 @@
         <v>3.9</v>
       </c>
       <c r="H154" s="28">
-        <f t="shared" ref="H154:H160" si="38">C154+F154</f>
+        <f t="shared" ref="H154:H160" si="39">C154+F154</f>
         <v>20</v>
       </c>
       <c r="I154" s="29"/>
@@ -11613,18 +12217,19 @@
         <v>1</v>
       </c>
       <c r="V154" s="2">
-        <v>15</v>
+        <f>U124+U130</f>
+        <v>13</v>
       </c>
       <c r="W154" s="2">
         <v>3.9</v>
       </c>
       <c r="X154" s="28">
-        <f t="shared" ref="X154:X157" si="39">S154+V154</f>
-        <v>20</v>
+        <f t="shared" ref="X154:X157" si="40">S154+V154</f>
+        <v>18</v>
       </c>
       <c r="Y154" s="87">
-        <f t="shared" ref="Y154:Y158" si="40">X168</f>
-        <v>102</v>
+        <f t="shared" ref="Y154:Y158" si="41">X168</f>
+        <v>100</v>
       </c>
       <c r="Z154" s="29"/>
       <c r="AA154" s="29"/>
@@ -11638,7 +12243,7 @@
         <v>2</v>
       </c>
       <c r="AG154" s="92">
-        <f t="shared" si="37"/>
+        <f>S154-C154</f>
         <v>0</v>
       </c>
       <c r="AH154" s="92" t="s">
@@ -11648,15 +12253,15 @@
         <v>1</v>
       </c>
       <c r="AJ154" s="92">
-        <f t="shared" ref="AJ154:AJ160" si="41">V154-F154</f>
-        <v>0</v>
+        <f>V154-F154</f>
+        <v>-2</v>
       </c>
       <c r="AK154" s="92">
         <v>3.9</v>
       </c>
       <c r="AL154" s="28">
         <f t="shared" ref="AL154:AL157" si="42">AG154+AJ154</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM154" s="29"/>
       <c r="AN154" s="29"/>
@@ -11685,7 +12290,7 @@
         <v>8</v>
       </c>
       <c r="H155" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>22</v>
       </c>
       <c r="I155" s="29"/>
@@ -11718,11 +12323,11 @@
         <v>8</v>
       </c>
       <c r="X155" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="Y155" s="87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>101</v>
       </c>
       <c r="Z155" s="29"/>
@@ -11737,7 +12342,7 @@
         <v>3</v>
       </c>
       <c r="AG155" s="82">
-        <f t="shared" si="37"/>
+        <f>S155-C155</f>
         <v>-2</v>
       </c>
       <c r="AH155" s="82">
@@ -11747,7 +12352,7 @@
         <v>5</v>
       </c>
       <c r="AJ155" s="82">
-        <f t="shared" si="41"/>
+        <f>V155-F155</f>
         <v>0</v>
       </c>
       <c r="AK155" s="82">
@@ -11784,7 +12389,7 @@
         <v>3.9</v>
       </c>
       <c r="H156" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="I156" s="29"/>
@@ -11818,11 +12423,11 @@
         <v>3.9</v>
       </c>
       <c r="X156" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>22</v>
       </c>
       <c r="Y156" s="87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>103</v>
       </c>
       <c r="Z156" s="29"/>
@@ -11837,7 +12442,7 @@
         <v>5</v>
       </c>
       <c r="AG156" s="83">
-        <f t="shared" si="37"/>
+        <f>S156-C156</f>
         <v>2</v>
       </c>
       <c r="AH156" s="83">
@@ -11847,7 +12452,7 @@
         <v>2</v>
       </c>
       <c r="AJ156" s="83">
-        <f t="shared" si="41"/>
+        <f>V156-F156</f>
         <v>0</v>
       </c>
       <c r="AK156" s="83">
@@ -11884,7 +12489,7 @@
         <v>8</v>
       </c>
       <c r="H157" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>22</v>
       </c>
       <c r="I157" s="29"/>
@@ -11917,11 +12522,11 @@
         <v>8</v>
       </c>
       <c r="X157" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>26</v>
       </c>
       <c r="Y157" s="87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>102</v>
       </c>
       <c r="Z157" s="29"/>
@@ -11946,7 +12551,7 @@
         <v>5</v>
       </c>
       <c r="AJ157" s="84">
-        <f t="shared" si="41"/>
+        <f>V157-F157</f>
         <v>0</v>
       </c>
       <c r="AK157" s="84">
@@ -12020,7 +12625,7 @@
         <v>23</v>
       </c>
       <c r="Y158" s="87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>101</v>
       </c>
       <c r="Z158" s="29"/>
@@ -12035,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="AG158" s="85">
-        <f t="shared" si="37"/>
+        <f>S158-C158</f>
         <v>0</v>
       </c>
       <c r="AH158" s="85">
@@ -12045,7 +12650,7 @@
         <v>5</v>
       </c>
       <c r="AJ158" s="85">
-        <f t="shared" si="41"/>
+        <f>V158-F158</f>
         <v>0</v>
       </c>
       <c r="AK158" s="85">
@@ -12107,7 +12712,7 @@
         <v>5</v>
       </c>
       <c r="AG159" s="85">
-        <f t="shared" si="37"/>
+        <f>S159-C159</f>
         <v>1</v>
       </c>
       <c r="AH159" s="85">
@@ -12115,7 +12720,7 @@
       </c>
       <c r="AI159" s="85"/>
       <c r="AJ159" s="85">
-        <f t="shared" si="41"/>
+        <f>V159-F159</f>
         <v>0</v>
       </c>
       <c r="AK159" s="85"/>
@@ -12147,7 +12752,7 @@
         <v>8</v>
       </c>
       <c r="H160" s="28">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>21</v>
       </c>
       <c r="I160" s="29"/>
@@ -12199,7 +12804,7 @@
         <v>9</v>
       </c>
       <c r="AG160" s="86">
-        <f t="shared" si="37"/>
+        <f>S160-C160</f>
         <v>0</v>
       </c>
       <c r="AH160" s="86">
@@ -12209,7 +12814,7 @@
         <v>5</v>
       </c>
       <c r="AJ160" s="86">
-        <f t="shared" si="41"/>
+        <f>V160-F160</f>
         <v>0</v>
       </c>
       <c r="AK160" s="86">
@@ -12255,14 +12860,14 @@
       <c r="U161" s="29"/>
       <c r="V161" s="29">
         <f>SUM(V153:V160)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W161" s="29" t="s">
         <v>49</v>
       </c>
       <c r="X161" s="29">
         <f>SUM(X153:X160)</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y161" s="29"/>
       <c r="Z161" s="29"/>
@@ -12281,7 +12886,7 @@
       </c>
       <c r="AL161" s="29">
         <f>SUM(AL153:AL160)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM161" s="29"/>
       <c r="AN161" s="29"/>
@@ -12374,10 +12979,10 @@
       <c r="AO163" s="29"/>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A164" s="112" t="s">
+      <c r="A164" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B164" s="112"/>
+      <c r="B164" s="105"/>
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -12392,10 +12997,10 @@
       <c r="N164" s="29"/>
       <c r="O164" s="25"/>
       <c r="P164" s="26"/>
-      <c r="Q164" s="112" t="s">
+      <c r="Q164" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R164" s="112"/>
+      <c r="R164" s="105"/>
       <c r="S164" s="29"/>
       <c r="T164" s="29"/>
       <c r="U164" s="29"/>
@@ -12639,23 +13244,23 @@
         <v>0</v>
       </c>
       <c r="AG167" s="1">
-        <f t="shared" ref="AG167:AK173" si="45">S167-C167</f>
+        <f>S167-C167</f>
         <v>-2</v>
       </c>
       <c r="AH167" s="1">
-        <f t="shared" si="45"/>
+        <f>T167-D167</f>
         <v>0</v>
       </c>
       <c r="AI167" s="1">
-        <f t="shared" si="45"/>
+        <f>U167-E167</f>
         <v>-1</v>
       </c>
       <c r="AJ167" s="1">
-        <f t="shared" si="45"/>
+        <f>V167-F167</f>
         <v>0</v>
       </c>
       <c r="AK167" s="1">
-        <f t="shared" si="45"/>
+        <f>W167-G167</f>
         <v>1</v>
       </c>
       <c r="AL167" s="29">
@@ -12693,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="29">
-        <f t="shared" ref="H168:H173" si="46">SUM(B168:G168)</f>
+        <f t="shared" ref="H168:H173" si="45">SUM(B168:G168)</f>
         <v>95</v>
       </c>
       <c r="I168" s="29" t="s">
@@ -12715,7 +13320,7 @@
       </c>
       <c r="S168" s="2">
         <f>V154</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T168" s="2">
         <v>0</v>
@@ -12732,8 +13337,8 @@
         <v>0</v>
       </c>
       <c r="X168" s="29">
-        <f t="shared" ref="X168:X173" si="47">SUM(R168:W168)</f>
-        <v>102</v>
+        <f t="shared" ref="X168:X173" si="46">SUM(R168:W168)</f>
+        <v>100</v>
       </c>
       <c r="Y168" s="29"/>
       <c r="Z168" s="29"/>
@@ -12745,32 +13350,32 @@
         <v>19</v>
       </c>
       <c r="AF168" s="92">
-        <f t="shared" ref="AF168:AF173" si="48">R168-B168</f>
+        <f>R168-B168</f>
         <v>0</v>
       </c>
       <c r="AG168" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f>S168-C168</f>
+        <v>-2</v>
       </c>
       <c r="AH168" s="92">
-        <f t="shared" si="45"/>
+        <f>T168-D168</f>
         <v>0</v>
       </c>
       <c r="AI168" s="92">
-        <f t="shared" si="45"/>
+        <f>U168-E168</f>
         <v>8</v>
       </c>
       <c r="AJ168" s="92">
-        <f t="shared" si="45"/>
+        <f>V168-F168</f>
         <v>-1</v>
       </c>
-      <c r="AK168" s="92">
-        <f t="shared" si="45"/>
+      <c r="AK168" s="139">
+        <f>W168-G168</f>
         <v>0</v>
       </c>
       <c r="AL168" s="29">
-        <f t="shared" ref="AL168:AL173" si="49">SUM(AF168:AK168)</f>
-        <v>7</v>
+        <f t="shared" ref="AL168:AL173" si="47">SUM(AF168:AK168)</f>
+        <v>5</v>
       </c>
       <c r="AM168" s="29"/>
       <c r="AN168" s="29"/>
@@ -12804,7 +13409,7 @@
         <v>14</v>
       </c>
       <c r="H169" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>97</v>
       </c>
       <c r="I169" s="87" t="s">
@@ -12844,7 +13449,7 @@
         <v>14</v>
       </c>
       <c r="X169" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>101</v>
       </c>
       <c r="Y169" s="29"/>
@@ -12857,31 +13462,31 @@
         <v>18</v>
       </c>
       <c r="AF169" s="82">
-        <f t="shared" si="48"/>
+        <f>R169-B169</f>
         <v>-1</v>
       </c>
       <c r="AG169" s="82">
-        <f t="shared" si="45"/>
+        <f>S169-C169</f>
         <v>0</v>
       </c>
       <c r="AH169" s="82">
-        <f t="shared" si="45"/>
+        <f>T169-D169</f>
         <v>0</v>
       </c>
       <c r="AI169" s="82">
-        <f t="shared" si="45"/>
+        <f>U169-E169</f>
         <v>3</v>
       </c>
       <c r="AJ169" s="82">
-        <f t="shared" si="45"/>
+        <f>V169-F169</f>
         <v>2</v>
       </c>
       <c r="AK169" s="82">
-        <f t="shared" si="45"/>
+        <f>W169-G169</f>
         <v>0</v>
       </c>
       <c r="AL169" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="AM169" s="29"/>
@@ -12916,7 +13521,7 @@
         <v>16</v>
       </c>
       <c r="H170" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I170" s="29"/>
@@ -12954,7 +13559,7 @@
         <v>18</v>
       </c>
       <c r="X170" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>103</v>
       </c>
       <c r="Y170" s="29"/>
@@ -12967,31 +13572,31 @@
         <v>56</v>
       </c>
       <c r="AF170" s="83">
-        <f t="shared" si="48"/>
+        <f>R170-B170</f>
         <v>-2</v>
       </c>
       <c r="AG170" s="83">
-        <f t="shared" si="45"/>
+        <f>S170-C170</f>
         <v>0</v>
       </c>
       <c r="AH170" s="83">
-        <f t="shared" si="45"/>
+        <f>T170-D170</f>
         <v>0</v>
       </c>
       <c r="AI170" s="83">
-        <f t="shared" si="45"/>
+        <f>U170-E170</f>
         <v>2</v>
       </c>
       <c r="AJ170" s="83">
-        <f t="shared" si="45"/>
+        <f>V170-F170</f>
         <v>1</v>
       </c>
       <c r="AK170" s="83">
-        <f t="shared" si="45"/>
+        <f>W170-G170</f>
         <v>2</v>
       </c>
       <c r="AL170" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AM170" s="29"/>
@@ -13027,7 +13632,7 @@
         <v>41</v>
       </c>
       <c r="H171" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>97</v>
       </c>
       <c r="I171" s="29"/>
@@ -13066,7 +13671,7 @@
         <v>44</v>
       </c>
       <c r="X171" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>102</v>
       </c>
       <c r="Y171" s="29"/>
@@ -13079,31 +13684,31 @@
         <v>17</v>
       </c>
       <c r="AF171" s="84">
-        <f t="shared" si="48"/>
+        <f>R171-B171</f>
         <v>0</v>
       </c>
       <c r="AG171" s="84">
-        <f t="shared" si="45"/>
+        <f>S171-C171</f>
         <v>0</v>
       </c>
       <c r="AH171" s="84">
-        <f t="shared" si="45"/>
+        <f>T171-D171</f>
         <v>0</v>
       </c>
       <c r="AI171" s="84">
-        <f t="shared" si="45"/>
+        <f>U171-E171</f>
         <v>4</v>
       </c>
       <c r="AJ171" s="84">
-        <f t="shared" si="45"/>
+        <f>V171-F171</f>
         <v>-2</v>
       </c>
       <c r="AK171" s="84">
-        <f t="shared" si="45"/>
+        <f>W171-G171</f>
         <v>3</v>
       </c>
       <c r="AL171" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AM171" s="29"/>
@@ -13139,7 +13744,7 @@
         <v>31</v>
       </c>
       <c r="H172" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>98</v>
       </c>
       <c r="I172" s="29"/>
@@ -13178,7 +13783,7 @@
         <v>32</v>
       </c>
       <c r="X172" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>101</v>
       </c>
       <c r="Y172" s="29"/>
@@ -13191,31 +13796,31 @@
         <v>57</v>
       </c>
       <c r="AF172" s="85">
-        <f t="shared" si="48"/>
+        <f>R172-B172</f>
         <v>0</v>
       </c>
       <c r="AG172" s="85">
-        <f t="shared" si="45"/>
+        <f>S172-C172</f>
         <v>0</v>
       </c>
       <c r="AH172" s="85">
-        <f t="shared" si="45"/>
+        <f>T172-D172</f>
         <v>0</v>
       </c>
       <c r="AI172" s="85">
-        <f t="shared" si="45"/>
+        <f>U172-E172</f>
         <v>2</v>
       </c>
       <c r="AJ172" s="85">
-        <f t="shared" si="45"/>
+        <f>V172-F172</f>
         <v>0</v>
       </c>
       <c r="AK172" s="85">
-        <f t="shared" si="45"/>
+        <f>W172-G172</f>
         <v>1</v>
       </c>
       <c r="AL172" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AM172" s="29"/>
@@ -13249,7 +13854,7 @@
         <v>68</v>
       </c>
       <c r="H173" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>104</v>
       </c>
       <c r="I173" s="29"/>
@@ -13286,7 +13891,7 @@
         <v>66</v>
       </c>
       <c r="X173" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
       <c r="Y173" s="29"/>
@@ -13299,31 +13904,31 @@
         <v>16</v>
       </c>
       <c r="AF173" s="86">
-        <f t="shared" si="48"/>
+        <f>R173-B173</f>
         <v>0</v>
       </c>
       <c r="AG173" s="86">
-        <f t="shared" si="45"/>
+        <f>S173-C173</f>
         <v>-2</v>
       </c>
       <c r="AH173" s="86">
-        <f t="shared" si="45"/>
+        <f>T173-D173</f>
         <v>0</v>
       </c>
       <c r="AI173" s="86">
-        <f t="shared" si="45"/>
+        <f>U173-E173</f>
         <v>0</v>
       </c>
       <c r="AJ173" s="86">
-        <f t="shared" si="45"/>
+        <f>V173-F173</f>
         <v>0</v>
       </c>
       <c r="AK173" s="86">
-        <f t="shared" si="45"/>
+        <f>W173-G173</f>
         <v>-2</v>
       </c>
       <c r="AL173" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AM173" s="29"/>
@@ -13332,22 +13937,29 @@
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="D174" s="118"/>
-      <c r="E174" s="29">
-        <f>H161+H116+L37</f>
-        <v>694</v>
-      </c>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H174" s="29">
-        <f>SUM(H167:H173)</f>
-        <v>694</v>
+      <c r="B174" s="30">
+        <f>SUM(B167:B173)</f>
+        <v>58</v>
+      </c>
+      <c r="C174" s="101">
+        <f t="shared" ref="C174:G174" si="48">SUM(C167:C173)</f>
+        <v>54</v>
+      </c>
+      <c r="D174" s="101">
+        <f t="shared" si="48"/>
+        <v>30</v>
+      </c>
+      <c r="E174" s="101">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="F174" s="101">
+        <f t="shared" si="48"/>
+        <v>127</v>
+      </c>
+      <c r="G174" s="101">
+        <f t="shared" si="48"/>
+        <v>205</v>
       </c>
       <c r="I174" s="29"/>
       <c r="J174" s="29"/>
@@ -13359,13 +13971,13 @@
       <c r="P174" s="26"/>
       <c r="Q174" s="29"/>
       <c r="R174" s="30"/>
-      <c r="S174" s="118" t="s">
+      <c r="S174" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="T174" s="118"/>
+      <c r="T174" s="122"/>
       <c r="U174" s="29">
         <f>R48+R98+R147</f>
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="V174" s="29"/>
       <c r="W174" s="29" t="s">
@@ -13373,7 +13985,7 @@
       </c>
       <c r="X174" s="29">
         <f>SUM(X167:X173)</f>
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Y174" s="29"/>
       <c r="Z174" s="29"/>
@@ -13389,7 +14001,7 @@
       <c r="AH174" s="30"/>
       <c r="AI174" s="29">
         <f>AL161+AL116+AL37</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ174" s="29"/>
       <c r="AK174" s="29" t="s">
@@ -13397,7 +14009,7 @@
       </c>
       <c r="AL174" s="29">
         <f>SUM(AL167:AL173)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM174" s="29"/>
       <c r="AN174" s="29"/>
@@ -13406,12 +14018,22 @@
     <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
+      <c r="C175" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" s="122"/>
+      <c r="E175" s="29">
+        <f>H161+H116+L37</f>
+        <v>694</v>
+      </c>
       <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="29"/>
+      <c r="G175" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H175" s="29">
+        <f>SUM(H167:H173)</f>
+        <v>694</v>
+      </c>
       <c r="I175" s="29"/>
       <c r="J175" s="29"/>
       <c r="K175" s="29"/>
@@ -13638,7 +14260,8 @@
         <v>85</v>
       </c>
       <c r="AF179" s="39">
-        <v>0</v>
+        <f>R179-B179</f>
+        <v>220</v>
       </c>
       <c r="AG179" s="29"/>
       <c r="AH179" s="29"/>
@@ -13656,13 +14279,13 @@
       </c>
       <c r="B180" s="39">
         <f>D98</f>
-        <v>6874</v>
+        <v>6814</v>
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
       <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
+      <c r="G180" s="99"/>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
       <c r="J180" s="29"/>
@@ -13696,7 +14319,7 @@
       </c>
       <c r="AF180" s="39">
         <f>R180-B180</f>
-        <v>-68</v>
+        <v>-8</v>
       </c>
       <c r="AG180" s="29"/>
       <c r="AH180" s="29"/>
@@ -13720,7 +14343,7 @@
       <c r="D181" s="29"/>
       <c r="E181" s="29"/>
       <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
+      <c r="G181" s="99"/>
       <c r="H181" s="29"/>
       <c r="I181" s="29"/>
       <c r="J181" s="29"/>
@@ -13735,7 +14358,7 @@
       </c>
       <c r="R181" s="40">
         <f>T147</f>
-        <v>2726</v>
+        <v>2686</v>
       </c>
       <c r="S181" s="29"/>
       <c r="T181" s="29"/>
@@ -13753,8 +14376,8 @@
         <v>88</v>
       </c>
       <c r="AF181" s="39">
-        <f t="shared" ref="AF181" si="50">R181-B181</f>
-        <v>89</v>
+        <f t="shared" ref="AF181" si="49">R181-B181</f>
+        <v>49</v>
       </c>
       <c r="AG181" s="29"/>
       <c r="AH181" s="29"/>
@@ -13772,13 +14395,13 @@
       </c>
       <c r="B182" s="39">
         <f>SUM(B178:B181)</f>
-        <v>13450</v>
+        <v>13390</v>
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="29"/>
       <c r="E182" s="29"/>
       <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
+      <c r="G182" s="99"/>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
       <c r="J182" s="29"/>
@@ -13793,7 +14416,7 @@
       </c>
       <c r="R182" s="40">
         <f>SUM(R178:R181)</f>
-        <v>13691</v>
+        <v>13651</v>
       </c>
       <c r="S182" s="29"/>
       <c r="T182" s="29"/>
@@ -13812,7 +14435,7 @@
       </c>
       <c r="AF182" s="39">
         <f>SUM(AF178:AF181)</f>
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="AG182" s="29"/>
       <c r="AH182" s="29"/>
@@ -13831,7 +14454,7 @@
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
+      <c r="G183" s="99"/>
       <c r="H183" s="29"/>
       <c r="I183" s="29"/>
       <c r="J183" s="29"/>
@@ -13874,7 +14497,7 @@
       <c r="D184" s="29"/>
       <c r="E184" s="29"/>
       <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
+      <c r="G184" s="99"/>
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
       <c r="J184" s="29"/>
@@ -13911,6 +14534,7 @@
       <c r="AO184" s="29"/>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="G185" s="99"/>
       <c r="P185" s="27"/>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.25">
@@ -13935,7 +14559,72 @@
       <c r="P192" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="75">
+    <mergeCell ref="AN31:AO31"/>
+    <mergeCell ref="AN32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AI102:AK102"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AF102:AH102"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="R151:T151"/>
+    <mergeCell ref="U151:W151"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="W139:X139"/>
+    <mergeCell ref="U139:V139"/>
+    <mergeCell ref="U102:W102"/>
+    <mergeCell ref="R102:T102"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="A100:B100"/>
@@ -13946,60 +14635,12 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="W139:X139"/>
-    <mergeCell ref="U139:V139"/>
-    <mergeCell ref="U102:W102"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="R151:T151"/>
-    <mergeCell ref="U151:W151"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="AI102:AK102"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AF102:AH102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="T29" twoDigitTextYear="1"/>
-    <ignoredError sqref="B98 D97:D98" evalError="1"/>
+    <ignoredError sqref="B98 D97:D98 AH45 AH48" evalError="1"/>
     <ignoredError sqref="AG157" formula="1"/>
   </ignoredErrors>
 </worksheet>
@@ -14009,8 +14650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ196"/>
   <sheetViews>
-    <sheetView topLeftCell="C167" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:L177"/>
+    <sheetView topLeftCell="C128" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144:C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14048,10 +14689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
@@ -14102,10 +14743,10 @@
       <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -15221,10 +15862,10 @@
       <c r="AH23" s="29"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -15237,10 +15878,10 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
       <c r="N24" s="25"/>
-      <c r="P24" s="112" t="s">
+      <c r="P24" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="112"/>
+      <c r="Q24" s="105"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
@@ -15298,22 +15939,22 @@
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115" t="s">
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="99" t="s">
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="67" t="s">
         <v>63</v>
       </c>
@@ -15322,22 +15963,22 @@
       <c r="P26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="115" t="s">
+      <c r="Q26" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115" t="s">
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="99" t="s">
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="101"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="121"/>
       <c r="AA26" s="35" t="s">
         <v>63</v>
       </c>
@@ -15375,10 +16016,10 @@
       <c r="I27" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="100"/>
+      <c r="K27" s="120"/>
       <c r="L27" s="67"/>
       <c r="M27" s="8"/>
       <c r="N27" s="25"/>
@@ -15407,10 +16048,10 @@
       <c r="X27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Y27" s="99" t="s">
+      <c r="Y27" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="100"/>
+      <c r="Z27" s="120"/>
       <c r="AA27" s="35"/>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
@@ -15448,10 +16089,10 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="116">
+      <c r="J28" s="123">
         <v>11</v>
       </c>
-      <c r="K28" s="117"/>
+      <c r="K28" s="124"/>
       <c r="L28" s="67">
         <f>C28+F28+I28</f>
         <v>22</v>
@@ -15485,10 +16126,10 @@
       <c r="X28" s="1">
         <v>4</v>
       </c>
-      <c r="Y28" s="116">
+      <c r="Y28" s="123">
         <v>11</v>
       </c>
-      <c r="Z28" s="117"/>
+      <c r="Z28" s="124"/>
       <c r="AA28" s="35">
         <f>R28+U28+X28</f>
         <v>22</v>
@@ -15529,10 +16170,10 @@
       <c r="I29" s="76">
         <v>8</v>
       </c>
-      <c r="J29" s="110">
+      <c r="J29" s="117">
         <v>10</v>
       </c>
-      <c r="K29" s="111"/>
+      <c r="K29" s="118"/>
       <c r="L29" s="67">
         <f t="shared" ref="L29:L30" si="2">C29+F29+I29</f>
         <v>32</v>
@@ -15566,10 +16207,10 @@
       <c r="X29" s="2">
         <v>8</v>
       </c>
-      <c r="Y29" s="110">
+      <c r="Y29" s="117">
         <v>10</v>
       </c>
-      <c r="Z29" s="111"/>
+      <c r="Z29" s="118"/>
       <c r="AA29" s="35">
         <f t="shared" ref="AA29:AA30" si="3">R29+U29+X29</f>
         <v>32</v>
@@ -15691,10 +16332,10 @@
       <c r="I31" s="4">
         <v>6</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="115">
         <v>10</v>
       </c>
-      <c r="K31" s="103"/>
+      <c r="K31" s="116"/>
       <c r="L31" s="67">
         <f>C31+F31+I31+I32</f>
         <v>27</v>
@@ -15728,10 +16369,10 @@
       <c r="X31" s="4">
         <v>6</v>
       </c>
-      <c r="Y31" s="102">
+      <c r="Y31" s="115">
         <v>10</v>
       </c>
-      <c r="Z31" s="103"/>
+      <c r="Z31" s="116"/>
       <c r="AA31" s="35">
         <f>R31+U31+X31+X32</f>
         <v>27</v>
@@ -15758,10 +16399,10 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="102">
-        <v>0</v>
-      </c>
-      <c r="K32" s="103"/>
+      <c r="J32" s="115">
+        <v>0</v>
+      </c>
+      <c r="K32" s="116"/>
       <c r="L32" s="67"/>
       <c r="M32" s="8"/>
       <c r="N32" s="25"/>
@@ -15778,10 +16419,10 @@
       <c r="X32" s="4">
         <v>0</v>
       </c>
-      <c r="Y32" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="103"/>
+      <c r="Y32" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="116"/>
       <c r="AA32" s="35"/>
       <c r="AB32" s="29"/>
       <c r="AC32" s="29"/>
@@ -15819,10 +16460,10 @@
       <c r="I33" s="5">
         <v>8</v>
       </c>
-      <c r="J33" s="104" t="s">
+      <c r="J33" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="105"/>
+      <c r="K33" s="107"/>
       <c r="L33" s="67">
         <f t="shared" ref="L33:L35" si="4">C33+F33+I33</f>
         <v>28</v>
@@ -15856,10 +16497,10 @@
       <c r="X33" s="5">
         <v>8</v>
       </c>
-      <c r="Y33" s="104" t="s">
+      <c r="Y33" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z33" s="105"/>
+      <c r="Z33" s="107"/>
       <c r="AA33" s="35">
         <f t="shared" ref="AA33:AA35" si="5">R33+U33+X33</f>
         <v>28</v>
@@ -15900,10 +16541,10 @@
       <c r="I34" s="6">
         <v>13</v>
       </c>
-      <c r="J34" s="106">
+      <c r="J34" s="109">
         <v>11.14</v>
       </c>
-      <c r="K34" s="107"/>
+      <c r="K34" s="110"/>
       <c r="L34" s="67">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -15937,10 +16578,10 @@
       <c r="X34" s="6">
         <v>13</v>
       </c>
-      <c r="Y34" s="106">
+      <c r="Y34" s="109">
         <v>11.14</v>
       </c>
-      <c r="Z34" s="107"/>
+      <c r="Z34" s="110"/>
       <c r="AA34" s="35">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -15981,10 +16622,10 @@
       <c r="I35" s="7">
         <v>4</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="111">
         <v>14</v>
       </c>
-      <c r="K35" s="109"/>
+      <c r="K35" s="112"/>
       <c r="L35" s="67">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -16018,10 +16659,10 @@
       <c r="X35" s="7">
         <v>4</v>
       </c>
-      <c r="Y35" s="108">
+      <c r="Y35" s="111">
         <v>14</v>
       </c>
-      <c r="Z35" s="109"/>
+      <c r="Z35" s="112"/>
       <c r="AA35" s="35">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -16070,10 +16711,10 @@
       <c r="AH36" s="29"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="71">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -16100,10 +16741,10 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
-      <c r="P37" s="112" t="s">
+      <c r="P37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="Q37" s="112"/>
+      <c r="Q37" s="105"/>
       <c r="R37" s="38">
         <f>SUM(R28:R36)</f>
         <v>52</v>
@@ -16172,10 +16813,10 @@
       <c r="AH38" s="29"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="112"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="71"/>
@@ -16188,10 +16829,10 @@
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
       <c r="N39" s="25"/>
-      <c r="P39" s="112" t="s">
+      <c r="P39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="112"/>
+      <c r="Q39" s="105"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
@@ -16710,11 +17351,11 @@
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
       <c r="N51" s="25"/>
-      <c r="P51" s="119" t="s">
+      <c r="P51" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
+      <c r="Q51" s="125"/>
+      <c r="R51" s="125"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
       <c r="U51" s="29"/>
@@ -18805,14 +19446,14 @@
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
-      <c r="E90" s="112" t="s">
+      <c r="E90" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112" t="s">
+      <c r="F90" s="105"/>
+      <c r="G90" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="112"/>
+      <c r="H90" s="105"/>
       <c r="I90" s="71"/>
       <c r="J90" s="71"/>
       <c r="K90" s="71"/>
@@ -18823,14 +19464,14 @@
       <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
-      <c r="T90" s="112" t="s">
+      <c r="T90" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="U90" s="112"/>
-      <c r="V90" s="112" t="s">
+      <c r="U90" s="105"/>
+      <c r="V90" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="W90" s="112"/>
+      <c r="W90" s="105"/>
       <c r="AB90" s="25"/>
       <c r="AC90" s="29"/>
       <c r="AD90" s="71"/>
@@ -19534,10 +20175,10 @@
       <c r="AK99" s="71"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A100" s="112" t="s">
+      <c r="A100" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="112"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="71"/>
       <c r="D100" s="71"/>
       <c r="E100" s="71"/>
@@ -19550,10 +20191,10 @@
       <c r="L100" s="71"/>
       <c r="M100" s="71"/>
       <c r="N100" s="25"/>
-      <c r="P100" s="112" t="s">
+      <c r="P100" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="Q100" s="112"/>
+      <c r="Q100" s="105"/>
       <c r="R100" s="29"/>
       <c r="S100" s="29"/>
       <c r="T100" s="29"/>
@@ -19611,16 +20252,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="115" t="s">
+      <c r="B102" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115" t="s">
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="115"/>
-      <c r="G102" s="115"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
       <c r="H102" s="67" t="s">
         <v>63</v>
       </c>
@@ -19633,16 +20274,16 @@
       <c r="P102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q102" s="115" t="s">
+      <c r="Q102" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="R102" s="115"/>
-      <c r="S102" s="115"/>
-      <c r="T102" s="115" t="s">
+      <c r="R102" s="108"/>
+      <c r="S102" s="108"/>
+      <c r="T102" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="U102" s="115"/>
-      <c r="V102" s="115"/>
+      <c r="U102" s="108"/>
+      <c r="V102" s="108"/>
       <c r="W102" s="28" t="s">
         <v>63</v>
       </c>
@@ -20186,7 +20827,7 @@
       <c r="L109" s="71"/>
       <c r="M109" s="71"/>
       <c r="N109" s="25"/>
-      <c r="P109" s="120" t="s">
+      <c r="P109" s="126" t="s">
         <v>56</v>
       </c>
       <c r="Q109" s="31" t="s">
@@ -20275,7 +20916,7 @@
       <c r="L110" s="71"/>
       <c r="M110" s="71"/>
       <c r="N110" s="25"/>
-      <c r="P110" s="121"/>
+      <c r="P110" s="127"/>
       <c r="Q110" s="32" t="s">
         <v>3</v>
       </c>
@@ -20865,10 +21506,10 @@
       <c r="L119" s="71"/>
       <c r="M119" s="71"/>
       <c r="N119" s="25"/>
-      <c r="P119" s="119" t="s">
+      <c r="P119" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="Q119" s="119"/>
+      <c r="Q119" s="125"/>
       <c r="R119" s="29"/>
       <c r="S119" s="29"/>
       <c r="T119" s="29"/>
@@ -22014,14 +22655,14 @@
       <c r="B140" s="71"/>
       <c r="C140" s="71"/>
       <c r="D140" s="71"/>
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F140" s="112"/>
-      <c r="G140" s="112" t="s">
+      <c r="F140" s="105"/>
+      <c r="G140" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="H140" s="112"/>
+      <c r="H140" s="105"/>
       <c r="I140" s="71"/>
       <c r="J140" s="71"/>
       <c r="K140" s="71"/>
@@ -22032,14 +22673,14 @@
       <c r="Q140" s="29"/>
       <c r="R140" s="29"/>
       <c r="S140" s="29"/>
-      <c r="T140" s="112" t="s">
+      <c r="T140" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="U140" s="112"/>
-      <c r="V140" s="112" t="s">
+      <c r="U140" s="105"/>
+      <c r="V140" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="W140" s="112"/>
+      <c r="W140" s="105"/>
       <c r="AB140" s="25"/>
       <c r="AC140" s="29"/>
       <c r="AD140" s="71"/>
@@ -22717,10 +23358,10 @@
       <c r="AK149" s="71"/>
     </row>
     <row r="150" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A150" s="112" t="s">
+      <c r="A150" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="112"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="71"/>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
@@ -22733,10 +23374,10 @@
       <c r="L150" s="71"/>
       <c r="M150" s="71"/>
       <c r="N150" s="25"/>
-      <c r="P150" s="112" t="s">
+      <c r="P150" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="Q150" s="112"/>
+      <c r="Q150" s="105"/>
       <c r="R150" s="29"/>
       <c r="S150" s="29"/>
       <c r="T150" s="29"/>
@@ -22801,16 +23442,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="115" t="s">
+      <c r="B152" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="115"/>
-      <c r="D152" s="115"/>
-      <c r="E152" s="115" t="s">
+      <c r="C152" s="108"/>
+      <c r="D152" s="108"/>
+      <c r="E152" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="115"/>
-      <c r="G152" s="115"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="108"/>
       <c r="H152" s="67" t="s">
         <v>63</v>
       </c>
@@ -22823,16 +23464,16 @@
       <c r="P152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q152" s="115" t="s">
+      <c r="Q152" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="R152" s="115"/>
-      <c r="S152" s="115"/>
-      <c r="T152" s="115" t="s">
+      <c r="R152" s="108"/>
+      <c r="S152" s="108"/>
+      <c r="T152" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="U152" s="115"/>
-      <c r="V152" s="115"/>
+      <c r="U152" s="108"/>
+      <c r="V152" s="108"/>
       <c r="W152" s="47" t="s">
         <v>63</v>
       </c>
@@ -23791,10 +24432,10 @@
       <c r="AQ164" s="46"/>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A165" s="112" t="s">
+      <c r="A165" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B165" s="112"/>
+      <c r="B165" s="105"/>
       <c r="C165" s="71"/>
       <c r="D165" s="71"/>
       <c r="E165" s="71"/>
@@ -23807,10 +24448,10 @@
       <c r="L165" s="71"/>
       <c r="M165" s="71"/>
       <c r="N165" s="25"/>
-      <c r="P165" s="112" t="s">
+      <c r="P165" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="Q165" s="112"/>
+      <c r="Q165" s="105"/>
       <c r="R165" s="29"/>
       <c r="S165" s="29"/>
       <c r="T165" s="29"/>
@@ -24726,10 +25367,10 @@
     <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175" s="71"/>
       <c r="B175" s="72"/>
-      <c r="C175" s="118" t="s">
+      <c r="C175" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D175" s="118"/>
+      <c r="D175" s="122"/>
       <c r="E175" s="71">
         <f>B48+B98+B148</f>
         <v>712</v>
@@ -24750,10 +25391,10 @@
       <c r="N175" s="25"/>
       <c r="P175" s="29"/>
       <c r="Q175" s="30"/>
-      <c r="R175" s="118" t="s">
+      <c r="R175" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="S175" s="118"/>
+      <c r="S175" s="122"/>
       <c r="T175" s="29">
         <f>Q48+Q98+Q148</f>
         <v>716</v>
@@ -25570,42 +26211,15 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="T152:V152"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="V140:W140"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="Q102:S102"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="P165:Q165"/>
     <mergeCell ref="R175:S175"/>
     <mergeCell ref="E90:F90"/>
@@ -25620,15 +26234,42 @@
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="E152:G152"/>
     <mergeCell ref="A165:B165"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="Q102:S102"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="T152:V152"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="V140:W140"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -26178,10 +26819,10 @@
       <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -26213,22 +26854,22 @@
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115" t="s">
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115" t="s">
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
       <c r="L26" s="8"/>
       <c r="M26" s="25"/>
     </row>
@@ -26258,10 +26899,10 @@
       <c r="I27" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="115" t="s">
+      <c r="J27" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="115"/>
+      <c r="K27" s="108"/>
       <c r="L27" s="8"/>
       <c r="M27" s="25"/>
     </row>
@@ -26293,10 +26934,10 @@
       <c r="I28" s="61">
         <v>4</v>
       </c>
-      <c r="J28" s="124">
+      <c r="J28" s="129">
         <v>11</v>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="129"/>
       <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -26327,10 +26968,10 @@
       <c r="I29" s="2">
         <v>8</v>
       </c>
-      <c r="J29" s="125">
+      <c r="J29" s="130">
         <v>10</v>
       </c>
-      <c r="K29" s="125"/>
+      <c r="K29" s="130"/>
       <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -26361,10 +27002,10 @@
       <c r="I30" s="62">
         <v>14</v>
       </c>
-      <c r="J30" s="126">
+      <c r="J30" s="131">
         <v>10</v>
       </c>
-      <c r="K30" s="126"/>
+      <c r="K30" s="131"/>
       <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -26395,10 +27036,10 @@
       <c r="I31" s="63">
         <v>6</v>
       </c>
-      <c r="J31" s="127">
+      <c r="J31" s="132">
         <v>10</v>
       </c>
-      <c r="K31" s="127"/>
+      <c r="K31" s="132"/>
       <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -26415,10 +27056,10 @@
       <c r="I32" s="63">
         <v>0</v>
       </c>
-      <c r="J32" s="127">
-        <v>0</v>
-      </c>
-      <c r="K32" s="127"/>
+      <c r="J32" s="132">
+        <v>0</v>
+      </c>
+      <c r="K32" s="132"/>
       <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -26449,10 +27090,10 @@
       <c r="I33" s="64">
         <v>8</v>
       </c>
-      <c r="J33" s="128" t="s">
+      <c r="J33" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="128"/>
+      <c r="K33" s="133"/>
       <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -26483,10 +27124,10 @@
       <c r="I34" s="65">
         <v>13</v>
       </c>
-      <c r="J34" s="123">
+      <c r="J34" s="128">
         <v>11.14</v>
       </c>
-      <c r="K34" s="123"/>
+      <c r="K34" s="128"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -26517,10 +27158,10 @@
       <c r="I35" s="66">
         <v>4</v>
       </c>
-      <c r="J35" s="122">
+      <c r="J35" s="134">
         <v>14</v>
       </c>
-      <c r="K35" s="122"/>
+      <c r="K35" s="134"/>
       <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -26539,10 +27180,10 @@
       <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="55">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -26582,10 +27223,10 @@
       <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="112"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -26819,11 +27460,11 @@
       <c r="M50" s="25"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
@@ -27590,14 +28231,14 @@
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
-      <c r="E90" s="112" t="s">
+      <c r="E90" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112" t="s">
+      <c r="F90" s="105"/>
+      <c r="G90" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="112"/>
+      <c r="H90" s="105"/>
       <c r="K90" s="55"/>
       <c r="L90" s="55"/>
       <c r="M90" s="25"/>
@@ -27870,10 +28511,10 @@
       <c r="M99" s="25"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="112" t="s">
+      <c r="A100" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="112"/>
+      <c r="B100" s="105"/>
       <c r="C100" s="55"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -27901,16 +28542,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="115" t="s">
+      <c r="B102" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115" t="s">
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="115"/>
-      <c r="G102" s="115"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
       <c r="H102" s="56" t="s">
         <v>63</v>
       </c>
@@ -28091,7 +28732,7 @@
       <c r="M108" s="25"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="120" t="s">
+      <c r="A109" s="126" t="s">
         <v>56</v>
       </c>
       <c r="B109" s="58" t="s">
@@ -28125,7 +28766,7 @@
       <c r="M109" s="25"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="121"/>
+      <c r="A110" s="127"/>
       <c r="B110" s="59" t="s">
         <v>3</v>
       </c>
@@ -28342,10 +28983,10 @@
       <c r="M118" s="25"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="119" t="s">
+      <c r="A119" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="119"/>
+      <c r="B119" s="125"/>
       <c r="C119" s="55"/>
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
@@ -28764,14 +29405,14 @@
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
       <c r="D140" s="55"/>
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="F140" s="112"/>
-      <c r="G140" s="112" t="s">
+      <c r="F140" s="105"/>
+      <c r="G140" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="H140" s="112"/>
+      <c r="H140" s="105"/>
       <c r="K140" s="55"/>
       <c r="L140" s="55"/>
       <c r="M140" s="25"/>
@@ -29047,10 +29688,10 @@
       <c r="M149" s="25"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="112" t="s">
+      <c r="A150" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="112"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="55"/>
       <c r="D150" s="55"/>
       <c r="E150" s="55"/>
@@ -29079,16 +29720,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="115" t="s">
+      <c r="B152" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="115"/>
-      <c r="D152" s="115"/>
-      <c r="E152" s="115" t="s">
+      <c r="C152" s="108"/>
+      <c r="D152" s="108"/>
+      <c r="E152" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="115"/>
-      <c r="G152" s="115"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="108"/>
       <c r="H152" s="56" t="s">
         <v>63</v>
       </c>
@@ -29420,10 +30061,10 @@
       <c r="M165" s="25"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="112" t="s">
+      <c r="A166" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B166" s="112"/>
+      <c r="B166" s="105"/>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
       <c r="E166" s="55"/>
@@ -29735,10 +30376,10 @@
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="55"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="118" t="s">
+      <c r="C176" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D176" s="118"/>
+      <c r="D176" s="122"/>
       <c r="E176" s="55">
         <f>B48+B98+B148</f>
         <v>735</v>
@@ -30057,18 +30698,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C176:D176"/>
     <mergeCell ref="E140:F140"/>
     <mergeCell ref="G140:H140"/>
     <mergeCell ref="J35:K35"/>
@@ -30082,11 +30716,18 @@
     <mergeCell ref="E102:G102"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -30100,7 +30741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L179"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -30576,10 +31217,10 @@
       <c r="L22" s="87"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="112"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -30609,22 +31250,22 @@
       <c r="A25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115" t="s">
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="99" t="s">
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
       <c r="L25" s="88" t="s">
         <v>63</v>
       </c>
@@ -30655,10 +31296,10 @@
       <c r="I26" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="99" t="s">
+      <c r="J26" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="100"/>
+      <c r="K26" s="120"/>
       <c r="L26" s="88"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -30689,10 +31330,10 @@
       <c r="I27" s="1">
         <v>4</v>
       </c>
-      <c r="J27" s="116">
+      <c r="J27" s="123">
         <v>11</v>
       </c>
-      <c r="K27" s="117"/>
+      <c r="K27" s="124"/>
       <c r="L27" s="88">
         <f>C27+F27+I27</f>
         <v>22</v>
@@ -30726,10 +31367,10 @@
       <c r="I28" s="92">
         <v>8</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="117">
         <v>10</v>
       </c>
-      <c r="K28" s="111"/>
+      <c r="K28" s="118"/>
       <c r="L28" s="88">
         <f t="shared" ref="L28:L29" si="1">C28+F28+I28</f>
         <v>27</v>
@@ -30800,10 +31441,10 @@
       <c r="I30" s="4">
         <v>6</v>
       </c>
-      <c r="J30" s="102">
+      <c r="J30" s="115">
         <v>10</v>
       </c>
-      <c r="K30" s="103"/>
+      <c r="K30" s="116"/>
       <c r="L30" s="88">
         <f>C30+F30+I30+I31</f>
         <v>27</v>
@@ -30823,10 +31464,10 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="102">
-        <v>0</v>
-      </c>
-      <c r="K31" s="103"/>
+      <c r="J31" s="115">
+        <v>0</v>
+      </c>
+      <c r="K31" s="116"/>
       <c r="L31" s="88"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -30857,10 +31498,10 @@
       <c r="I32" s="5">
         <v>8</v>
       </c>
-      <c r="J32" s="104" t="s">
+      <c r="J32" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="105"/>
+      <c r="K32" s="107"/>
       <c r="L32" s="88">
         <f t="shared" ref="L32:L34" si="2">C32+F32+I32</f>
         <v>28</v>
@@ -30894,10 +31535,10 @@
       <c r="I33" s="6">
         <v>13</v>
       </c>
-      <c r="J33" s="106">
+      <c r="J33" s="109">
         <v>11.14</v>
       </c>
-      <c r="K33" s="107"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="88">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -30931,10 +31572,10 @@
       <c r="I34" s="7">
         <v>4</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="111">
         <v>14</v>
       </c>
-      <c r="K34" s="109"/>
+      <c r="K34" s="112"/>
       <c r="L34" s="88">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -30955,10 +31596,10 @@
       <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="87">
         <f>SUM(C27:C35)</f>
         <v>52</v>
@@ -30999,10 +31640,10 @@
       <c r="L37" s="87"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="112"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -31302,10 +31943,10 @@
       <c r="L53" s="87"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="112" t="s">
+      <c r="A54" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="112"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -32304,10 +32945,10 @@
       <c r="L100" s="87"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="112" t="s">
+      <c r="A101" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="112"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="87"/>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -32337,16 +32978,16 @@
       <c r="A103" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="115" t="s">
+      <c r="B103" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115" t="s">
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
       <c r="H103" s="88" t="s">
         <v>63</v>
       </c>
@@ -33398,10 +34039,10 @@
       <c r="L149" s="87"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="112" t="s">
+      <c r="A150" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="112"/>
+      <c r="B150" s="105"/>
       <c r="C150" s="87"/>
       <c r="D150" s="87"/>
       <c r="E150" s="87"/>
@@ -33431,16 +34072,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="115" t="s">
+      <c r="B152" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="115"/>
-      <c r="D152" s="115"/>
-      <c r="E152" s="115" t="s">
+      <c r="C152" s="108"/>
+      <c r="D152" s="108"/>
+      <c r="E152" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="115"/>
-      <c r="G152" s="115"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="108"/>
       <c r="H152" s="88" t="s">
         <v>63</v>
       </c>
@@ -33760,10 +34401,10 @@
       <c r="L164" s="87"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="112" t="s">
+      <c r="A165" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B165" s="112"/>
+      <c r="B165" s="105"/>
       <c r="C165" s="87"/>
       <c r="D165" s="87"/>
       <c r="E165" s="87"/>
@@ -34116,10 +34757,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="87"/>
       <c r="B177" s="89"/>
-      <c r="C177" s="118" t="s">
+      <c r="C177" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D177" s="118"/>
+      <c r="D177" s="122"/>
       <c r="E177" s="87">
         <f>G21+F87+F136</f>
         <v>694</v>
@@ -34161,12 +34802,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="A165:B165"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A38:B38"/>
@@ -34176,15 +34820,12 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documenti/RQ/esterni/piano_di_progetto/pianificazione.xlsx
+++ b/Documenti/RQ/esterni/piano_di_progetto/pianificazione.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="9315" windowHeight="5415" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="9315" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="PA" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="109">
   <si>
     <t>Ambiente di Progettazione</t>
   </si>
@@ -343,7 +343,7 @@
     <t>proge</t>
   </si>
   <si>
-    <t>s</t>
+    <t>totale</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -974,6 +974,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,6 +1049,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,13 +1091,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="40% - Colore 5" xfId="3" builtinId="47"/>
@@ -1089,16 +1112,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6459F1"/>
+      <color rgb="FF6DFB99"/>
+      <color rgb="FFED6565"/>
+      <color rgb="FF5526AA"/>
+      <color rgb="FF50B9DA"/>
+      <color rgb="FF8076FE"/>
       <color rgb="FFC10311"/>
+      <color rgb="FFC9B4EE"/>
       <color rgb="FFFD5235"/>
-      <color rgb="FF8076FE"/>
-      <color rgb="FFC9B4EE"/>
       <color rgb="FFAB8CE4"/>
-      <color rgb="FFFF99FF"/>
-      <color rgb="FF66FF66"/>
-      <color rgb="FFFF99CC"/>
-      <color rgb="FFFFCC66"/>
-      <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1398,13 +1421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP192"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H182" sqref="H181:H182"/>
+    <sheetView tabSelected="1" topLeftCell="M171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T171" sqref="T171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -1436,22 +1459,23 @@
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="94"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="105"/>
+      <c r="R1" s="111"/>
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
@@ -1464,10 +1488,10 @@
       <c r="AB1" s="29"/>
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
-      <c r="AE1" s="105" t="s">
+      <c r="AE1" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="105"/>
+      <c r="AF1" s="111"/>
       <c r="AG1" s="99"/>
       <c r="AH1" s="99"/>
       <c r="AI1" s="99"/>
@@ -1515,10 +1539,10 @@
       <c r="AP2" s="99"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="111"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
@@ -1527,10 +1551,10 @@
       <c r="N3" s="29"/>
       <c r="O3" s="25"/>
       <c r="P3" s="29"/>
-      <c r="Q3" s="105" t="s">
+      <c r="Q3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="105"/>
+      <c r="R3" s="111"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -1543,10 +1567,10 @@
       <c r="AB3" s="29"/>
       <c r="AC3" s="25"/>
       <c r="AD3" s="29"/>
-      <c r="AE3" s="105" t="s">
+      <c r="AE3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="105"/>
+      <c r="AF3" s="111"/>
       <c r="AG3" s="99"/>
       <c r="AH3" s="99"/>
       <c r="AI3" s="99"/>
@@ -3020,10 +3044,10 @@
       <c r="AP23" s="99"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="94"/>
       <c r="D24" s="94"/>
       <c r="E24" s="94"/>
@@ -3038,10 +3062,10 @@
       <c r="N24" s="29"/>
       <c r="O24" s="25"/>
       <c r="P24" s="29"/>
-      <c r="Q24" s="105" t="s">
+      <c r="Q24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="105"/>
+      <c r="R24" s="111"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
@@ -3054,10 +3078,10 @@
       <c r="AB24" s="29"/>
       <c r="AC24" s="25"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="105" t="s">
+      <c r="AE24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="AF24" s="105"/>
+      <c r="AF24" s="111"/>
       <c r="AG24" s="99"/>
       <c r="AH24" s="99"/>
       <c r="AI24" s="99"/>
@@ -3117,22 +3141,22 @@
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108" t="s">
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="119" t="s">
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="93" t="s">
         <v>63</v>
       </c>
@@ -3143,22 +3167,22 @@
       <c r="Q26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="108" t="s">
+      <c r="R26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108" t="s">
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="119" t="s">
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="121"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="127"/>
       <c r="AB26" s="28" t="s">
         <v>63</v>
       </c>
@@ -3167,22 +3191,22 @@
       <c r="AE26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AF26" s="108" t="s">
+      <c r="AF26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="108" t="s">
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AJ26" s="108"/>
-      <c r="AK26" s="108"/>
-      <c r="AL26" s="119" t="s">
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="114"/>
+      <c r="AL26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="AM26" s="120"/>
-      <c r="AN26" s="120"/>
-      <c r="AO26" s="121"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="127"/>
       <c r="AP26" s="100" t="s">
         <v>63</v>
       </c>
@@ -3213,10 +3237,10 @@
       <c r="I27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="119" t="s">
+      <c r="J27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="120"/>
+      <c r="K27" s="126"/>
       <c r="L27" s="93"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
@@ -3247,10 +3271,10 @@
       <c r="Y27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Z27" s="119" t="s">
+      <c r="Z27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="120"/>
+      <c r="AA27" s="126"/>
       <c r="AB27" s="28"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="29"/>
@@ -3279,10 +3303,10 @@
       <c r="AM27" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AN27" s="119" t="s">
+      <c r="AN27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AO27" s="120"/>
+      <c r="AO27" s="126"/>
       <c r="AP27" s="100"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -3313,10 +3337,10 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="129">
         <v>11</v>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="130"/>
       <c r="L28" s="93">
         <f>C28+F28+I28</f>
         <v>22</v>
@@ -3352,10 +3376,10 @@
       <c r="Y28" s="1">
         <v>4</v>
       </c>
-      <c r="Z28" s="123">
+      <c r="Z28" s="129">
         <v>11</v>
       </c>
-      <c r="AA28" s="124"/>
+      <c r="AA28" s="130"/>
       <c r="AB28" s="28">
         <f>S28+V28+Y28</f>
         <v>22</v>
@@ -3392,10 +3416,10 @@
         <f>Y28-I28</f>
         <v>0</v>
       </c>
-      <c r="AN28" s="123">
+      <c r="AN28" s="129">
         <v>11</v>
       </c>
-      <c r="AO28" s="124"/>
+      <c r="AO28" s="130"/>
       <c r="AP28" s="100">
         <f>AG28+AJ28+AM28</f>
         <v>0</v>
@@ -3429,10 +3453,10 @@
       <c r="I29" s="97">
         <v>8</v>
       </c>
-      <c r="J29" s="117">
+      <c r="J29" s="123">
         <v>10</v>
       </c>
-      <c r="K29" s="118"/>
+      <c r="K29" s="124"/>
       <c r="L29" s="93">
         <f t="shared" ref="L29:L30" si="4">C29+F29+I29</f>
         <v>27</v>
@@ -3468,10 +3492,10 @@
       <c r="Y29" s="2">
         <v>8</v>
       </c>
-      <c r="Z29" s="117">
+      <c r="Z29" s="123">
         <v>10</v>
       </c>
-      <c r="AA29" s="118"/>
+      <c r="AA29" s="124"/>
       <c r="AB29" s="28">
         <f t="shared" ref="AB29:AB30" si="5">S29+V29+Y29</f>
         <v>32</v>
@@ -3498,22 +3522,23 @@
         <f t="shared" ref="AJ29:AJ35" si="7">V29-F29</f>
         <v>5</v>
       </c>
-      <c r="AK29" s="104" t="s">
+      <c r="AK29" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="AL29" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM29" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN29" s="117">
+      <c r="AL29" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="108">
+        <f t="shared" ref="AM29:AM35" si="8">Y29-I29</f>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="123">
         <v>10</v>
       </c>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="100" t="e">
-        <f t="shared" ref="AP29:AP30" si="8">AG29+AJ29+AM29</f>
-        <v>#VALUE!</v>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="106">
+        <f t="shared" ref="AP29:AP30" si="9">AG29+AJ29+AM29</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -3544,10 +3569,10 @@
       <c r="I30" s="3">
         <v>14</v>
       </c>
-      <c r="J30" s="113">
+      <c r="J30" s="119">
         <v>10</v>
       </c>
-      <c r="K30" s="114"/>
+      <c r="K30" s="120"/>
       <c r="L30" s="93">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3583,10 +3608,10 @@
       <c r="Y30" s="3">
         <v>14</v>
       </c>
-      <c r="Z30" s="113">
+      <c r="Z30" s="119">
         <v>10</v>
       </c>
-      <c r="AA30" s="114"/>
+      <c r="AA30" s="120"/>
       <c r="AB30" s="28">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -3613,22 +3638,22 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AK30" s="82">
+      <c r="AK30" s="3">
         <v>13</v>
       </c>
-      <c r="AL30" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM30" s="82">
-        <f t="shared" ref="AM29:AM35" si="9">Y30-I30</f>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="113">
+      <c r="AL30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="119">
         <v>10</v>
       </c>
-      <c r="AO30" s="114"/>
-      <c r="AP30" s="100">
-        <f t="shared" si="8"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="106">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -3660,10 +3685,10 @@
       <c r="I31" s="4">
         <v>6</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="121">
         <v>10</v>
       </c>
-      <c r="K31" s="116"/>
+      <c r="K31" s="122"/>
       <c r="L31" s="93">
         <f>C31+F31+I31+I32</f>
         <v>27</v>
@@ -3699,10 +3724,10 @@
       <c r="Y31" s="4">
         <v>6</v>
       </c>
-      <c r="Z31" s="115">
+      <c r="Z31" s="121">
         <v>10</v>
       </c>
-      <c r="AA31" s="116"/>
+      <c r="AA31" s="122"/>
       <c r="AB31" s="28">
         <f>S31+V31+Y31+Y32</f>
         <v>27</v>
@@ -3729,21 +3754,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="83">
+      <c r="AK31" s="4">
         <v>9.1</v>
       </c>
-      <c r="AL31" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM31" s="83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="138">
+      <c r="AL31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="4">
+        <f>Y31-I31</f>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="131">
         <v>10</v>
       </c>
-      <c r="AO31" s="138"/>
-      <c r="AP31" s="100">
+      <c r="AO31" s="131"/>
+      <c r="AP31" s="106">
         <f>AG31+AJ31+AM31+AM32</f>
         <v>0</v>
       </c>
@@ -3762,10 +3787,10 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="115">
-        <v>0</v>
-      </c>
-      <c r="K32" s="116"/>
+      <c r="J32" s="121">
+        <v>0</v>
+      </c>
+      <c r="K32" s="122"/>
       <c r="L32" s="93"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -3784,10 +3809,10 @@
       <c r="Y32" s="4">
         <v>0</v>
       </c>
-      <c r="Z32" s="115">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="116"/>
+      <c r="Z32" s="121">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="122"/>
       <c r="AB32" s="28"/>
       <c r="AC32" s="25"/>
       <c r="AD32" s="29"/>
@@ -3803,19 +3828,19 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="83"/>
-      <c r="AL32" s="83" t="s">
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AM32" s="83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="138">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="138"/>
-      <c r="AP32" s="100"/>
+      <c r="AM32" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="131">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="106"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3845,10 +3870,10 @@
       <c r="I33" s="5">
         <v>8</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="107"/>
+      <c r="K33" s="113"/>
       <c r="L33" s="93">
         <f t="shared" ref="L33:L35" si="10">C33+F33+I33</f>
         <v>28</v>
@@ -3884,10 +3909,10 @@
       <c r="Y33" s="5">
         <v>8</v>
       </c>
-      <c r="Z33" s="106" t="s">
+      <c r="Z33" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AA33" s="107"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="28">
         <f t="shared" ref="AB33:AB35" si="11">S33+V33+Y33</f>
         <v>28</v>
@@ -3914,21 +3939,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="84">
+      <c r="AK33" s="5">
         <v>17</v>
       </c>
-      <c r="AL33" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM33" s="84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="137" t="s">
+      <c r="AL33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="AO33" s="137"/>
-      <c r="AP33" s="100">
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="106">
         <f t="shared" ref="AP33:AP35" si="12">AG33+AJ33+AM33</f>
         <v>0</v>
       </c>
@@ -3961,10 +3986,10 @@
       <c r="I34" s="6">
         <v>13</v>
       </c>
-      <c r="J34" s="109">
+      <c r="J34" s="115">
         <v>11.14</v>
       </c>
-      <c r="K34" s="110"/>
+      <c r="K34" s="116"/>
       <c r="L34" s="93">
         <f t="shared" si="10"/>
         <v>27</v>
@@ -4000,10 +4025,10 @@
       <c r="Y34" s="6">
         <v>13</v>
       </c>
-      <c r="Z34" s="109">
+      <c r="Z34" s="115">
         <v>11.14</v>
       </c>
-      <c r="AA34" s="110"/>
+      <c r="AA34" s="116"/>
       <c r="AB34" s="28">
         <f t="shared" si="11"/>
         <v>27</v>
@@ -4030,21 +4055,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="85">
+      <c r="AK34" s="6">
         <v>16</v>
       </c>
-      <c r="AL34" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM34" s="85">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="136">
+      <c r="AL34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM34" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="133">
         <v>11.14</v>
       </c>
-      <c r="AO34" s="136"/>
-      <c r="AP34" s="100">
+      <c r="AO34" s="133"/>
+      <c r="AP34" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -4077,10 +4102,10 @@
       <c r="I35" s="7">
         <v>4</v>
       </c>
-      <c r="J35" s="111">
+      <c r="J35" s="117">
         <v>14</v>
       </c>
-      <c r="K35" s="112"/>
+      <c r="K35" s="118"/>
       <c r="L35" s="93">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -4116,10 +4141,10 @@
       <c r="Y35" s="7">
         <v>4</v>
       </c>
-      <c r="Z35" s="111">
+      <c r="Z35" s="117">
         <v>14</v>
       </c>
-      <c r="AA35" s="112"/>
+      <c r="AA35" s="118"/>
       <c r="AB35" s="28">
         <f t="shared" si="11"/>
         <v>23</v>
@@ -4146,21 +4171,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="86">
+      <c r="AK35" s="7">
         <v>9.1</v>
       </c>
-      <c r="AL35" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM35" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="135">
+      <c r="AL35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="134">
         <v>14</v>
       </c>
-      <c r="AO35" s="135"/>
-      <c r="AP35" s="100">
+      <c r="AO35" s="134"/>
+      <c r="AP35" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -4202,18 +4227,18 @@
       <c r="AH36" s="99"/>
       <c r="AI36" s="99"/>
       <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="99"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="99"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="94">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -4244,10 +4269,10 @@
       <c r="N37" s="29"/>
       <c r="O37" s="25"/>
       <c r="P37" s="29"/>
-      <c r="Q37" s="105" t="s">
+      <c r="Q37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="105"/>
+      <c r="R37" s="111"/>
       <c r="S37" s="29">
         <f>SUM(S28:S36)</f>
         <v>52</v>
@@ -4274,10 +4299,10 @@
       </c>
       <c r="AC37" s="25"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="105" t="s">
+      <c r="AE37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="AF37" s="105"/>
+      <c r="AF37" s="111"/>
       <c r="AG37" s="99">
         <f>SUM(AG28:AG36)</f>
         <v>0</v>
@@ -4298,9 +4323,9 @@
       <c r="AO37" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="AP37" s="23" t="e">
+      <c r="AP37" s="23">
         <f>SUM(AP28:AP35)</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -4348,10 +4373,10 @@
       <c r="AP38" s="99"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="94"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
@@ -4366,10 +4391,10 @@
       <c r="N39" s="29"/>
       <c r="O39" s="25"/>
       <c r="P39" s="29"/>
-      <c r="Q39" s="105" t="s">
+      <c r="Q39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="105"/>
+      <c r="R39" s="111"/>
       <c r="S39" s="29"/>
       <c r="T39" s="29"/>
       <c r="U39" s="29"/>
@@ -4382,10 +4407,10 @@
       <c r="AB39" s="29"/>
       <c r="AC39" s="25"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="105" t="s">
+      <c r="AE39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="AF39" s="105"/>
+      <c r="AF39" s="111"/>
       <c r="AG39" s="99"/>
       <c r="AH39" s="99"/>
       <c r="AI39" s="99"/>
@@ -5062,10 +5087,10 @@
       <c r="AO49" s="29"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="105"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -5197,10 +5222,10 @@
       <c r="AO52" s="29"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="105"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -5518,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="AH58" s="29">
-        <f>T58-D58</f>
+        <f t="shared" ref="AH58:AH72" si="18">T58-D58</f>
         <v>-2</v>
       </c>
       <c r="AI58" s="29"/>
@@ -5543,7 +5568,7 @@
       </c>
       <c r="E59" s="87"/>
       <c r="F59" s="87">
-        <f t="shared" ref="F59:F82" si="18">SUM(D59:E59)</f>
+        <f t="shared" ref="F59:F82" si="19">SUM(D59:E59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="29"/>
@@ -5583,12 +5608,12 @@
         <v>2</v>
       </c>
       <c r="AH59" s="87">
-        <f>T59-D59</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI59" s="29"/>
       <c r="AJ59" s="29">
-        <f t="shared" ref="AJ59:AJ85" si="19">SUM(AH59:AI59)</f>
+        <f t="shared" ref="AJ59:AJ85" si="20">SUM(AH59:AI59)</f>
         <v>0</v>
       </c>
       <c r="AK59" s="29"/>
@@ -5612,7 +5637,7 @@
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55</v>
       </c>
       <c r="G60" s="29"/>
@@ -5635,12 +5660,12 @@
         <v>3</v>
       </c>
       <c r="T60" s="87">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U60" s="87"/>
       <c r="V60" s="29">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W60" s="29"/>
       <c r="X60" s="29"/>
@@ -5660,13 +5685,13 @@
         <v>3</v>
       </c>
       <c r="AH60" s="87">
-        <f>T60-D60</f>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>-2</v>
       </c>
       <c r="AI60" s="29"/>
       <c r="AJ60" s="29">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>-2</v>
       </c>
       <c r="AK60" s="29"/>
       <c r="AL60" s="29"/>
@@ -5684,7 +5709,7 @@
       <c r="C61" s="29"/>
       <c r="E61" s="87"/>
       <c r="F61" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G61" s="29"/>
@@ -5726,12 +5751,12 @@
       </c>
       <c r="AG61" s="29"/>
       <c r="AH61" s="87">
-        <f>T61-D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI61" s="29"/>
       <c r="AJ61" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK61" s="29"/>
@@ -5751,7 +5776,7 @@
       </c>
       <c r="E62" s="87"/>
       <c r="F62" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="G62" s="29"/>
@@ -5770,12 +5795,12 @@
         <v>5</v>
       </c>
       <c r="T62" s="87">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U62" s="87"/>
       <c r="V62" s="29">
         <f t="shared" si="17"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W62" s="29"/>
       <c r="X62" s="29"/>
@@ -5791,13 +5816,13 @@
         <v>5</v>
       </c>
       <c r="AH62" s="87">
-        <f>T62-D62</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AI62" s="29"/>
       <c r="AJ62" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="AK62" s="29"/>
       <c r="AL62" s="29"/>
@@ -5816,7 +5841,7 @@
       </c>
       <c r="E63" s="87"/>
       <c r="F63" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="G63" s="29"/>
@@ -5856,12 +5881,12 @@
         <v>2</v>
       </c>
       <c r="AH63" s="87">
-        <f>T63-D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI63" s="29"/>
       <c r="AJ63" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK63" s="29"/>
@@ -5885,7 +5910,7 @@
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="G64" s="29"/>
@@ -5908,12 +5933,12 @@
         <v>3</v>
       </c>
       <c r="T64" s="87">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U64" s="87"/>
       <c r="V64" s="29">
         <f t="shared" si="17"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W64" s="29"/>
       <c r="X64" s="29"/>
@@ -5933,13 +5958,13 @@
         <v>3</v>
       </c>
       <c r="AH64" s="87">
-        <f>T64-D64</f>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AI64" s="29"/>
       <c r="AJ64" s="29">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AK64" s="29"/>
       <c r="AL64" s="29"/>
@@ -5957,7 +5982,7 @@
       <c r="C65" s="29"/>
       <c r="E65" s="87"/>
       <c r="F65" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G65" s="29"/>
@@ -5999,12 +6024,12 @@
       </c>
       <c r="AG65" s="29"/>
       <c r="AH65" s="87">
-        <f>T65-D65</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI65" s="29"/>
       <c r="AJ65" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK65" s="29"/>
@@ -6064,12 +6089,12 @@
         <v>5</v>
       </c>
       <c r="AH66" s="87">
-        <f>T66-D66</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI66" s="29"/>
       <c r="AJ66" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK66" s="29"/>
@@ -6089,7 +6114,7 @@
       </c>
       <c r="E67" s="87"/>
       <c r="F67" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G67" s="29"/>
@@ -6129,12 +6154,12 @@
         <v>2</v>
       </c>
       <c r="AH67" s="87">
-        <f>T67-D67</f>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="AI67" s="29"/>
       <c r="AJ67" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="AK67" s="29"/>
@@ -6158,7 +6183,7 @@
       </c>
       <c r="E68" s="87"/>
       <c r="F68" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="G68" s="29"/>
@@ -6181,12 +6206,12 @@
         <v>3</v>
       </c>
       <c r="T68" s="29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U68" s="29"/>
       <c r="V68" s="29">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W68" s="29"/>
       <c r="X68" s="29"/>
@@ -6206,13 +6231,13 @@
         <v>3</v>
       </c>
       <c r="AH68" s="87">
-        <f>T68-D68</f>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AI68" s="29"/>
       <c r="AJ68" s="29">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AK68" s="29"/>
       <c r="AL68" s="29"/>
@@ -6230,7 +6255,7 @@
       <c r="C69" s="29"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G69" s="29"/>
@@ -6272,12 +6297,12 @@
       </c>
       <c r="AG69" s="29"/>
       <c r="AH69" s="87">
-        <f>T69-D69</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI69" s="29"/>
       <c r="AJ69" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK69" s="29"/>
@@ -6337,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="AH70" s="87">
-        <f>T70-D70</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI70" s="29"/>
@@ -6402,12 +6427,12 @@
         <v>2</v>
       </c>
       <c r="AH71" s="87">
-        <f>T71-D71</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI71" s="29"/>
       <c r="AJ71" s="87">
-        <f t="shared" ref="AJ71:AJ72" si="20">SUM(AH71:AI71)</f>
+        <f t="shared" ref="AJ71:AJ72" si="21">SUM(AH71:AI71)</f>
         <v>0</v>
       </c>
       <c r="AK71" s="29"/>
@@ -6483,15 +6508,15 @@
         <v>9</v>
       </c>
       <c r="AH72" s="87">
-        <f>T72-D72</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI72" s="29">
-        <f>U72-E72</f>
+        <f t="shared" ref="AI72:AI85" si="22">U72-E72</f>
         <v>0</v>
       </c>
       <c r="AJ72" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK72" s="29"/>
@@ -6515,7 +6540,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="G73" s="29"/>
@@ -6564,11 +6589,11 @@
       </c>
       <c r="AH73" s="29"/>
       <c r="AI73" s="87">
-        <f>U73-E73</f>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="AJ73" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="AK73" s="29"/>
@@ -6588,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="G74" s="29"/>
@@ -6629,11 +6654,11 @@
       </c>
       <c r="AH74" s="29"/>
       <c r="AI74" s="87">
-        <f>U74-E74</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ74" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK74" s="29"/>
@@ -6657,7 +6682,7 @@
         <v>44</v>
       </c>
       <c r="F75" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
       <c r="G75" s="29"/>
@@ -6706,11 +6731,11 @@
       </c>
       <c r="AH75" s="29"/>
       <c r="AI75" s="87">
-        <f>U75-E75</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ75" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK75" s="29"/>
@@ -6734,7 +6759,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="G76" s="29"/>
@@ -6783,11 +6808,11 @@
       </c>
       <c r="AH76" s="29"/>
       <c r="AI76" s="87">
-        <f>U76-E76</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AJ76" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AK76" s="29"/>
@@ -6807,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G77" s="29"/>
@@ -6848,11 +6873,11 @@
       </c>
       <c r="AH77" s="29"/>
       <c r="AI77" s="87">
-        <f>U77-E77</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ77" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK77" s="29"/>
@@ -6876,7 +6901,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="G78" s="29"/>
@@ -6900,11 +6925,11 @@
       </c>
       <c r="T78" s="29"/>
       <c r="U78" s="29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V78" s="29">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W78" s="29"/>
       <c r="X78" s="29"/>
@@ -6925,12 +6950,12 @@
       </c>
       <c r="AH78" s="29"/>
       <c r="AI78" s="87">
-        <f>U78-E78</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>-1</v>
       </c>
       <c r="AJ78" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>-1</v>
       </c>
       <c r="AK78" s="29"/>
       <c r="AL78" s="29"/>
@@ -6948,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="G79" s="29"/>
@@ -6989,11 +7014,11 @@
       </c>
       <c r="AH79" s="29"/>
       <c r="AI79" s="87">
-        <f>U79-E79</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ79" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK79" s="29"/>
@@ -7012,7 +7037,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="G80" s="29"/>
@@ -7053,11 +7078,11 @@
       </c>
       <c r="AH80" s="29"/>
       <c r="AI80" s="87">
-        <f>U80-E80</f>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="AJ80" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
       <c r="AK80" s="29"/>
@@ -7076,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G81" s="29"/>
@@ -7117,11 +7142,11 @@
       </c>
       <c r="AH81" s="29"/>
       <c r="AI81" s="87">
-        <f>U81-E81</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ81" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK81" s="29"/>
@@ -7147,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="G82" s="29"/>
@@ -7201,11 +7226,11 @@
         <v>0</v>
       </c>
       <c r="AI82" s="87">
-        <f>U82-E82</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ82" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK82" s="29"/>
@@ -7273,11 +7298,11 @@
         <v>0</v>
       </c>
       <c r="AI83" s="87">
-        <f>U83-E83</f>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="AJ83" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="AK83" s="29"/>
@@ -7350,11 +7375,11 @@
       </c>
       <c r="AH84" s="29"/>
       <c r="AI84" s="87">
-        <f>U84-E84</f>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="AJ84" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="AK84" s="29"/>
@@ -7415,11 +7440,11 @@
       </c>
       <c r="AH85" s="29"/>
       <c r="AI85" s="87">
-        <f>U85-E85</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ85" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AK85" s="29"/>
@@ -7439,7 +7464,7 @@
         <v>205</v>
       </c>
       <c r="E86" s="29">
-        <f t="shared" ref="E86" si="21">SUM(E58:E85)</f>
+        <f t="shared" ref="E86" si="23">SUM(E58:E85)</f>
         <v>161</v>
       </c>
       <c r="F86" s="29">
@@ -7462,16 +7487,16 @@
       <c r="R86" s="29"/>
       <c r="S86" s="22"/>
       <c r="T86" s="29">
-        <f t="shared" ref="T86:U86" si="22">SUM(T58:T85)</f>
-        <v>208</v>
+        <f t="shared" ref="T86:U86" si="24">SUM(T58:T85)</f>
+        <v>201</v>
       </c>
       <c r="U86" s="29">
-        <f t="shared" si="22"/>
-        <v>159</v>
+        <f t="shared" si="24"/>
+        <v>158</v>
       </c>
       <c r="V86" s="29">
         <f>SUM(V58:V85)</f>
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="W86" s="29"/>
       <c r="X86" s="29"/>
@@ -7488,15 +7513,15 @@
       <c r="AG86" s="22"/>
       <c r="AH86" s="29">
         <f>SUM(AH58:AH85)</f>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="AI86" s="29">
-        <f t="shared" ref="AI86:AJ86" si="23">SUM(AI58:AI85)</f>
-        <v>-2</v>
+        <f t="shared" ref="AI86:AJ86" si="25">SUM(AI58:AI85)</f>
+        <v>-3</v>
       </c>
       <c r="AJ86" s="29">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>-7</v>
       </c>
       <c r="AK86" s="29"/>
       <c r="AL86" s="29"/>
@@ -7660,14 +7685,14 @@
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
       <c r="T90" s="29"/>
-      <c r="U90" s="105" t="s">
+      <c r="U90" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="V90" s="105"/>
-      <c r="W90" s="105" t="s">
+      <c r="V90" s="111"/>
+      <c r="W90" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="X90" s="105"/>
+      <c r="X90" s="111"/>
       <c r="Y90" s="29"/>
       <c r="Z90" s="29"/>
       <c r="AA90" s="29"/>
@@ -7773,7 +7798,7 @@
         <v>30</v>
       </c>
       <c r="D92" s="21">
-        <f t="shared" ref="D92:D97" si="24">B92*C92</f>
+        <f t="shared" ref="D92:D97" si="26">B92*C92</f>
         <v>810</v>
       </c>
       <c r="E92" s="29"/>
@@ -7858,7 +7883,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>400</v>
       </c>
       <c r="E93" s="29"/>
@@ -7884,7 +7909,7 @@
         <v>20</v>
       </c>
       <c r="T93" s="21">
-        <f t="shared" ref="T93:T97" si="25">R93*S93</f>
+        <f t="shared" ref="T93:T97" si="27">R93*S93</f>
         <v>320</v>
       </c>
       <c r="U93" s="29">
@@ -7920,7 +7945,7 @@
         <v>20</v>
       </c>
       <c r="AH93" s="21">
-        <f t="shared" ref="AH93:AH97" si="26">AF93*AG93</f>
+        <f t="shared" ref="AH93:AH97" si="28">AF93*AG93</f>
         <v>-80</v>
       </c>
       <c r="AI93" s="29"/>
@@ -7942,7 +7967,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E94" s="29"/>
@@ -7967,7 +7992,7 @@
         <v>25</v>
       </c>
       <c r="T94" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U94" s="29"/>
@@ -7989,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="AH94" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI94" s="29"/>
@@ -8012,7 +8037,7 @@
         <v>22</v>
       </c>
       <c r="D95" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2574</v>
       </c>
       <c r="E95" s="29"/>
@@ -8032,30 +8057,30 @@
       </c>
       <c r="R95" s="28">
         <f>V60+V64+V68+V78</f>
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="S95" s="28">
         <v>22</v>
       </c>
       <c r="T95" s="21">
-        <f t="shared" si="25"/>
-        <v>2706</v>
+        <f t="shared" si="27"/>
+        <v>2508</v>
       </c>
       <c r="U95" s="29">
         <f>T60+T64+T68</f>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V95">
         <f>S104+S106+S110+S113</f>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="W95" s="29">
         <f>U78</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X95" s="29">
         <f>V110</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y95" s="29"/>
       <c r="Z95" s="29"/>
@@ -8068,14 +8093,14 @@
       </c>
       <c r="AF95" s="28">
         <f>AJ60+AJ64+AJ68+AJ78</f>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="AG95" s="28">
         <v>22</v>
       </c>
       <c r="AH95" s="21">
-        <f t="shared" si="26"/>
-        <v>132</v>
+        <f t="shared" si="28"/>
+        <v>-66</v>
       </c>
       <c r="AI95" s="29"/>
       <c r="AJ95" s="29"/>
@@ -8097,7 +8122,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1515</v>
       </c>
       <c r="E96" s="29"/>
@@ -8123,7 +8148,7 @@
         <v>15</v>
       </c>
       <c r="T96" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1515</v>
       </c>
       <c r="U96" s="29">
@@ -8159,7 +8184,7 @@
         <v>15</v>
       </c>
       <c r="AH96" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI96" s="29"/>
@@ -8182,7 +8207,7 @@
         <v>15</v>
       </c>
       <c r="D97" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1515</v>
       </c>
       <c r="E97" s="29"/>
@@ -8202,22 +8227,22 @@
       </c>
       <c r="R97" s="28">
         <f>V62+V66+V70+V73+V76+V79+V82</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S97" s="28">
         <v>15</v>
       </c>
       <c r="T97" s="21">
-        <f t="shared" si="25"/>
-        <v>1545</v>
+        <f t="shared" si="27"/>
+        <v>1560</v>
       </c>
       <c r="U97" s="29">
         <f>T62+T66+T70+T82</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V97">
         <f>S105+S112+S115</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W97" s="29">
         <f>U73+U76+U79+U82</f>
@@ -8238,14 +8263,14 @@
       </c>
       <c r="AF97" s="28">
         <f>AJ62+AJ66+AJ70+AJ73+AJ76+AJ79+AJ82</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG97" s="28">
         <v>15</v>
       </c>
       <c r="AH97" s="21">
-        <f t="shared" si="26"/>
-        <v>30</v>
+        <f t="shared" si="28"/>
+        <v>45</v>
       </c>
       <c r="AI97" s="29"/>
       <c r="AJ97" s="29"/>
@@ -8285,28 +8310,28 @@
       </c>
       <c r="R98" s="28">
         <f>SUM(R92:R97)</f>
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="S98" s="28"/>
       <c r="T98" s="21">
         <f>SUM(T92:T97)</f>
-        <v>6806</v>
+        <v>6623</v>
       </c>
       <c r="U98" s="29">
         <f>SUM(U92:U97)</f>
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="V98">
         <f>SUM(V92:V97)</f>
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="W98" s="60">
         <f>SUM(W92:W97)</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X98" s="29">
         <f>SUM(X92:X97)</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y98" s="29"/>
       <c r="Z98" s="29"/>
@@ -8319,12 +8344,12 @@
       </c>
       <c r="AF98" s="28">
         <f>SUM(AF92:AF97)</f>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="AG98" s="28"/>
       <c r="AH98" s="21">
         <f>SUM(AH92:AH97)</f>
-        <v>-8</v>
+        <v>-191</v>
       </c>
       <c r="AI98" s="29"/>
       <c r="AJ98" s="29"/>
@@ -8359,7 +8384,7 @@
       </c>
       <c r="U99">
         <f>U98+W98</f>
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="V99" s="29"/>
       <c r="W99" s="29"/>
@@ -8383,10 +8408,10 @@
       <c r="AO99" s="29"/>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
@@ -8401,10 +8426,10 @@
       <c r="N100" s="29"/>
       <c r="O100" s="25"/>
       <c r="P100" s="26"/>
-      <c r="Q100" s="105" t="s">
+      <c r="Q100" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="R100" s="105"/>
+      <c r="R100" s="111"/>
       <c r="S100" s="29"/>
       <c r="T100" s="29"/>
       <c r="U100" s="29"/>
@@ -8478,16 +8503,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108" t="s">
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
+      <c r="F102" s="114"/>
+      <c r="G102" s="114"/>
       <c r="H102" s="28" t="s">
         <v>63</v>
       </c>
@@ -8502,16 +8527,16 @@
       <c r="Q102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R102" s="108" t="s">
+      <c r="R102" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="S102" s="108"/>
-      <c r="T102" s="108"/>
-      <c r="U102" s="108" t="s">
+      <c r="S102" s="114"/>
+      <c r="T102" s="114"/>
+      <c r="U102" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="V102" s="108"/>
-      <c r="W102" s="108"/>
+      <c r="V102" s="114"/>
+      <c r="W102" s="114"/>
       <c r="X102" s="28" t="s">
         <v>63</v>
       </c>
@@ -8524,16 +8549,16 @@
       <c r="AE102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AF102" s="119" t="s">
+      <c r="AF102" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="AG102" s="120"/>
-      <c r="AH102" s="121"/>
-      <c r="AI102" s="119" t="s">
+      <c r="AG102" s="126"/>
+      <c r="AH102" s="127"/>
+      <c r="AI102" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="AJ102" s="120"/>
-      <c r="AK102" s="121"/>
+      <c r="AJ102" s="126"/>
+      <c r="AK102" s="127"/>
       <c r="AL102" s="28" t="s">
         <v>63</v>
       </c>
@@ -8661,7 +8686,7 @@
         <v>3</v>
       </c>
       <c r="S104" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T104" s="1">
         <v>3.5</v>
@@ -8677,9 +8702,12 @@
       </c>
       <c r="X104" s="28">
         <f>S104+V104+S105+V105</f>
-        <v>58</v>
-      </c>
-      <c r="Y104" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="Y104" s="29">
+        <f>Y153</f>
+        <v>100</v>
+      </c>
       <c r="Z104" s="29"/>
       <c r="AA104" s="29"/>
       <c r="AB104" s="29"/>
@@ -8692,8 +8720,8 @@
         <v>3</v>
       </c>
       <c r="AG104" s="1">
-        <f>S104-C104</f>
-        <v>-1</v>
+        <f t="shared" ref="AG104:AG115" si="29">S104-C104</f>
+        <v>-3</v>
       </c>
       <c r="AH104" s="1">
         <v>3.5</v>
@@ -8702,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" s="1">
-        <f>V104-F104</f>
+        <f t="shared" ref="AJ104:AJ115" si="30">V104-F104</f>
         <v>-2</v>
       </c>
       <c r="AK104" s="1">
@@ -8710,7 +8738,7 @@
       </c>
       <c r="AL104" s="28">
         <f>AG104+AJ104+AG105+AJ105</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AM104" s="29"/>
       <c r="AN104" s="29"/>
@@ -8750,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="S105" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T105" s="1">
         <v>9.16</v>
@@ -8765,7 +8793,7 @@
         <v>12.13</v>
       </c>
       <c r="X105" s="28"/>
-      <c r="Y105" s="29"/>
+      <c r="Y105" s="110"/>
       <c r="Z105" s="29"/>
       <c r="AA105" s="29"/>
       <c r="AB105" s="29"/>
@@ -8776,8 +8804,8 @@
         <v>5</v>
       </c>
       <c r="AG105" s="1">
-        <f>S105-C105</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AH105" s="1">
         <v>9.16</v>
@@ -8786,7 +8814,7 @@
         <v>5</v>
       </c>
       <c r="AJ105" s="1">
-        <f>V105-F105</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AK105" s="1">
@@ -8838,7 +8866,7 @@
         <v>3</v>
       </c>
       <c r="S106" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T106" s="2">
         <v>3.5</v>
@@ -8847,7 +8875,7 @@
         <v>9</v>
       </c>
       <c r="V106" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W106" s="2">
         <v>11.13</v>
@@ -8856,7 +8884,10 @@
         <f>S106+V106</f>
         <v>50</v>
       </c>
-      <c r="Y106" s="29"/>
+      <c r="Y106" s="110">
+        <f>Y154</f>
+        <v>100</v>
+      </c>
       <c r="Z106" s="29"/>
       <c r="AA106" s="29"/>
       <c r="AB106" s="29"/>
@@ -8869,8 +8900,8 @@
         <v>3</v>
       </c>
       <c r="AG106" s="2">
-        <f>S106-C106</f>
-        <v>3</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AH106" s="2">
         <v>3.5</v>
@@ -8879,8 +8910,8 @@
         <v>9</v>
       </c>
       <c r="AJ106" s="2">
-        <f>V106-F106</f>
-        <v>-1</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AK106" s="2">
         <v>11.13</v>
@@ -8944,16 +8975,19 @@
         <v>9</v>
       </c>
       <c r="V107" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W107" s="3">
         <v>11.13</v>
       </c>
       <c r="X107" s="28">
         <f>S107+S108+V107</f>
-        <v>50</v>
-      </c>
-      <c r="Y107" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="Y107" s="110">
+        <f>Y155</f>
+        <v>100</v>
+      </c>
       <c r="Z107" s="29"/>
       <c r="AA107" s="29"/>
       <c r="AB107" s="29"/>
@@ -8966,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="AG107" s="3">
-        <f>S107-C107</f>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="AH107" s="3" t="s">
@@ -8976,15 +9010,15 @@
         <v>9</v>
       </c>
       <c r="AJ107" s="3">
-        <f>V107-F107</f>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>-1</v>
       </c>
       <c r="AK107" s="3">
         <v>11.13</v>
       </c>
       <c r="AL107" s="28">
         <f>AG107+AG108+AJ107</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="29"/>
       <c r="AN107" s="29"/>
@@ -9018,7 +9052,7 @@
         <v>9</v>
       </c>
       <c r="S108" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T108" s="3">
         <v>11</v>
@@ -9027,7 +9061,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
       <c r="X108" s="33"/>
-      <c r="Y108" s="29"/>
+      <c r="Y108" s="110"/>
       <c r="Z108" s="29"/>
       <c r="AA108" s="29"/>
       <c r="AB108" s="29"/>
@@ -9038,15 +9072,15 @@
         <v>9</v>
       </c>
       <c r="AG108" s="3">
-        <f>S108-C108</f>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="AH108" s="3">
         <v>11</v>
       </c>
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3">
-        <f>V108-F108</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK108" s="3"/>
@@ -9096,7 +9130,7 @@
         <v>9</v>
       </c>
       <c r="S109" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T109" s="43">
         <v>11</v>
@@ -9113,9 +9147,12 @@
       </c>
       <c r="X109" s="33">
         <f>S109+S110+V109+V110</f>
-        <v>54</v>
-      </c>
-      <c r="Y109" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="Y109" s="110">
+        <f>Y156</f>
+        <v>100</v>
+      </c>
       <c r="Z109" s="29"/>
       <c r="AA109" s="29"/>
       <c r="AB109" s="29"/>
@@ -9128,8 +9165,8 @@
         <v>9</v>
       </c>
       <c r="AG109" s="4">
-        <f>S109-C109</f>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AH109" s="4">
         <v>11</v>
@@ -9138,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="AJ109" s="4">
-        <f>V109-F109</f>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="AK109" s="4" t="s">
@@ -9146,7 +9183,7 @@
       </c>
       <c r="AL109" s="33">
         <f>AG109+AG110+AJ109+AJ110</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AM109" s="29"/>
       <c r="AN109" s="29"/>
@@ -9186,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="S110" s="44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T110" s="44">
         <v>8</v>
@@ -9195,13 +9232,13 @@
         <v>3</v>
       </c>
       <c r="V110" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W110" s="44">
         <v>15</v>
       </c>
       <c r="X110" s="34"/>
-      <c r="Y110" s="29"/>
+      <c r="Y110" s="110"/>
       <c r="Z110" s="29"/>
       <c r="AA110" s="29"/>
       <c r="AB110" s="29"/>
@@ -9212,8 +9249,8 @@
         <v>3</v>
       </c>
       <c r="AG110" s="4">
-        <f>S110-C110</f>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AH110" s="4">
         <v>8</v>
@@ -9222,8 +9259,8 @@
         <v>3</v>
       </c>
       <c r="AJ110" s="4">
-        <f>V110-F110</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>-1</v>
       </c>
       <c r="AK110" s="4">
         <v>15</v>
@@ -9292,7 +9329,10 @@
         <f>S111+S112+V111</f>
         <v>48</v>
       </c>
-      <c r="Y111" s="29"/>
+      <c r="Y111" s="29">
+        <f>Y157</f>
+        <v>100</v>
+      </c>
       <c r="Z111" s="29"/>
       <c r="AA111" s="29"/>
       <c r="AB111" s="29"/>
@@ -9305,7 +9345,7 @@
         <v>9</v>
       </c>
       <c r="AG111" s="5">
-        <f>S111-C111</f>
+        <f t="shared" si="29"/>
         <v>-2</v>
       </c>
       <c r="AH111" s="5">
@@ -9315,7 +9355,7 @@
         <v>5</v>
       </c>
       <c r="AJ111" s="5">
-        <f>V111-F111</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AK111" s="5" t="s">
@@ -9377,7 +9417,7 @@
         <v>5</v>
       </c>
       <c r="AG112" s="5">
-        <f>S112-C112</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH112" s="5">
@@ -9385,7 +9425,7 @@
       </c>
       <c r="AI112" s="5"/>
       <c r="AJ112" s="5">
-        <f>V112-F112</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK112" s="5"/>
@@ -9435,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="S113" s="6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T113" s="6">
         <v>3.5</v>
@@ -9451,9 +9491,12 @@
       </c>
       <c r="X113" s="42">
         <f>S113+V113</f>
-        <v>51</v>
-      </c>
-      <c r="Y113" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="Y113" s="29">
+        <f>Y158</f>
+        <v>100</v>
+      </c>
       <c r="Z113" s="29"/>
       <c r="AA113" s="29"/>
       <c r="AB113" s="29"/>
@@ -9466,8 +9509,8 @@
         <v>3</v>
       </c>
       <c r="AG113" s="6">
-        <f>S113-C113</f>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AH113" s="6">
         <v>3.5</v>
@@ -9476,7 +9519,7 @@
         <v>9</v>
       </c>
       <c r="AJ113" s="6">
-        <f>V113-F113</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK113" s="6">
@@ -9484,7 +9527,7 @@
       </c>
       <c r="AL113" s="28">
         <f>AG113+AJ113</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM113" s="29"/>
       <c r="AN113" s="29"/>
@@ -9549,7 +9592,10 @@
         <f>S114+S115+V114</f>
         <v>56</v>
       </c>
-      <c r="Y114" s="29"/>
+      <c r="Y114" s="29">
+        <f>Y160</f>
+        <v>100</v>
+      </c>
       <c r="Z114" s="29"/>
       <c r="AA114" s="29"/>
       <c r="AB114" s="29"/>
@@ -9562,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="AG114" s="7">
-        <f>S114-C114</f>
+        <f t="shared" si="29"/>
         <v>-2</v>
       </c>
       <c r="AH114" s="7">
@@ -9572,7 +9618,7 @@
         <v>5</v>
       </c>
       <c r="AJ114" s="7">
-        <f>V114-F114</f>
+        <f t="shared" si="30"/>
         <v>-2</v>
       </c>
       <c r="AK114" s="7">
@@ -9634,7 +9680,7 @@
         <v>5</v>
       </c>
       <c r="AG115" s="7">
-        <f>S115-C115</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH115" s="7">
@@ -9642,7 +9688,7 @@
       </c>
       <c r="AI115" s="7"/>
       <c r="AJ115" s="7">
-        <f>V115-F115</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK115" s="7"/>
@@ -9684,7 +9730,7 @@
       </c>
       <c r="X116" s="41">
         <f>SUM(X104:X115)</f>
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y116" s="29"/>
       <c r="Z116" s="29"/>
@@ -9703,7 +9749,7 @@
       </c>
       <c r="AL116" s="29">
         <f>SUM(AL104:AL115)</f>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="AM116" s="29"/>
       <c r="AN116" s="29"/>
@@ -10107,7 +10153,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="29">
-        <f t="shared" ref="F124:F134" si="27">SUM(D124:E124)</f>
+        <f t="shared" ref="F124:F134" si="31">SUM(D124:E124)</f>
         <v>3</v>
       </c>
       <c r="G124" s="29"/>
@@ -10134,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="V124" s="29">
-        <f t="shared" ref="V124:V134" si="28">SUM(T124:U124)</f>
+        <f t="shared" ref="V124:V134" si="32">SUM(T124:U124)</f>
         <v>3</v>
       </c>
       <c r="W124" s="29"/>
@@ -10160,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" s="29">
-        <f t="shared" ref="AJ124:AJ134" si="29">SUM(AH124:AI124)</f>
+        <f t="shared" ref="AJ124:AJ134" si="33">SUM(AH124:AI124)</f>
         <v>0</v>
       </c>
       <c r="AK124" s="29"/>
@@ -10180,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="G125" s="29"/>
@@ -10203,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="V125" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="W125" s="29"/>
@@ -10225,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK125" s="29"/>
@@ -10249,7 +10295,7 @@
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="G126" s="29"/>
@@ -10272,12 +10318,12 @@
         <v>3</v>
       </c>
       <c r="T126" s="29">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U126" s="29"/>
       <c r="V126" s="29">
-        <f t="shared" si="28"/>
-        <v>18</v>
+        <f t="shared" si="32"/>
+        <v>14</v>
       </c>
       <c r="W126" s="29"/>
       <c r="X126" s="29"/>
@@ -10298,12 +10344,12 @@
       </c>
       <c r="AH126" s="29">
         <f>T126-D126</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI126" s="29"/>
       <c r="AJ126" s="29">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f t="shared" si="33"/>
+        <v>-2</v>
       </c>
       <c r="AK126" s="29"/>
       <c r="AL126" s="29"/>
@@ -10326,7 +10372,7 @@
       </c>
       <c r="E127" s="29"/>
       <c r="F127" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="G127" s="29"/>
@@ -10353,7 +10399,7 @@
       </c>
       <c r="U127" s="29"/>
       <c r="V127" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="W127" s="29"/>
@@ -10379,7 +10425,7 @@
       </c>
       <c r="AI127" s="29"/>
       <c r="AJ127" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK127" s="29"/>
@@ -10399,7 +10445,7 @@
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="G128" s="29"/>
@@ -10422,7 +10468,7 @@
       </c>
       <c r="U128" s="29"/>
       <c r="V128" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="W128" s="29"/>
@@ -10444,7 +10490,7 @@
       </c>
       <c r="AI128" s="29"/>
       <c r="AJ128" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK128" s="29"/>
@@ -10468,7 +10514,7 @@
         <v>56</v>
       </c>
       <c r="F129" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="G129" s="29"/>
@@ -10492,11 +10538,11 @@
       </c>
       <c r="T129" s="29"/>
       <c r="U129" s="29">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V129" s="29">
-        <f t="shared" si="28"/>
-        <v>56</v>
+        <f t="shared" si="32"/>
+        <v>60</v>
       </c>
       <c r="W129" s="29"/>
       <c r="X129" s="29"/>
@@ -10518,11 +10564,11 @@
       <c r="AH129" s="29"/>
       <c r="AI129" s="29">
         <f>U129-E129</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ129" s="29">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="AK129" s="29"/>
       <c r="AL129" s="29"/>
@@ -10545,7 +10591,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="G130" s="29"/>
@@ -10572,7 +10618,7 @@
         <v>10</v>
       </c>
       <c r="V130" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="W130" s="29"/>
@@ -10598,7 +10644,7 @@
         <v>-2</v>
       </c>
       <c r="AJ130" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-2</v>
       </c>
       <c r="AK130" s="29"/>
@@ -10618,7 +10664,7 @@
         <v>7</v>
       </c>
       <c r="F131" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="G131" s="29"/>
@@ -10641,7 +10687,7 @@
         <v>7</v>
       </c>
       <c r="V131" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="W131" s="29"/>
@@ -10663,7 +10709,7 @@
       </c>
       <c r="AI131" s="29"/>
       <c r="AJ131" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK131" s="29"/>
@@ -10687,7 +10733,7 @@
       </c>
       <c r="E132" s="29"/>
       <c r="F132" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="G132" s="29"/>
@@ -10714,7 +10760,7 @@
       </c>
       <c r="U132" s="29"/>
       <c r="V132" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>26</v>
       </c>
       <c r="W132" s="29"/>
@@ -10740,7 +10786,7 @@
       </c>
       <c r="AI132" s="29"/>
       <c r="AJ132" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK132" s="29"/>
@@ -10764,7 +10810,7 @@
       </c>
       <c r="E133" s="29"/>
       <c r="F133" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="G133" s="29"/>
@@ -10791,7 +10837,7 @@
       </c>
       <c r="U133" s="29"/>
       <c r="V133" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="W133" s="29"/>
@@ -10817,7 +10863,7 @@
       </c>
       <c r="AI133" s="29"/>
       <c r="AJ133" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AK133" s="29"/>
@@ -10837,7 +10883,7 @@
       </c>
       <c r="E134" s="29"/>
       <c r="F134" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="G134" s="29"/>
@@ -10860,7 +10906,7 @@
       </c>
       <c r="U134" s="29"/>
       <c r="V134" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="W134" s="29"/>
@@ -10882,7 +10928,7 @@
       </c>
       <c r="AI134" s="29"/>
       <c r="AJ134" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK134" s="29"/>
@@ -10898,11 +10944,11 @@
       <c r="B135" s="29"/>
       <c r="C135" s="22"/>
       <c r="D135" s="29">
-        <f t="shared" ref="D135:E135" si="30">SUM(D123:D134)</f>
+        <f t="shared" ref="D135:E135" si="34">SUM(D123:D134)</f>
         <v>68</v>
       </c>
       <c r="E135" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>80</v>
       </c>
       <c r="F135" s="29">
@@ -10925,12 +10971,12 @@
       <c r="R135" s="29"/>
       <c r="S135" s="22"/>
       <c r="T135" s="29">
-        <f t="shared" ref="T135" si="31">SUM(T123:T134)</f>
-        <v>73</v>
+        <f t="shared" ref="T135" si="35">SUM(T123:T134)</f>
+        <v>69</v>
       </c>
       <c r="U135" s="29">
-        <f t="shared" ref="U135" si="32">SUM(U123:U134)</f>
-        <v>78</v>
+        <f t="shared" ref="U135" si="36">SUM(U123:U134)</f>
+        <v>82</v>
       </c>
       <c r="V135" s="29">
         <f>SUM(V123:V134)</f>
@@ -10950,12 +10996,12 @@
       <c r="AF135" s="29"/>
       <c r="AG135" s="22"/>
       <c r="AH135" s="29">
-        <f t="shared" ref="AH135" si="33">SUM(AH123:AH134)</f>
-        <v>5</v>
+        <f t="shared" ref="AH135" si="37">SUM(AH123:AH134)</f>
+        <v>1</v>
       </c>
       <c r="AI135" s="29">
-        <f t="shared" ref="AI135" si="34">SUM(AI123:AI134)</f>
-        <v>-2</v>
+        <f t="shared" ref="AI135" si="38">SUM(AI123:AI134)</f>
+        <v>2</v>
       </c>
       <c r="AJ135" s="29">
         <f>SUM(AJ123:AJ134)</f>
@@ -11123,14 +11169,14 @@
       <c r="R139" s="29"/>
       <c r="S139" s="29"/>
       <c r="T139" s="29"/>
-      <c r="U139" s="105" t="s">
+      <c r="U139" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="V139" s="105"/>
-      <c r="W139" s="105" t="s">
+      <c r="V139" s="111"/>
+      <c r="W139" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="X139" s="105"/>
+      <c r="X139" s="111"/>
       <c r="Y139" s="29"/>
       <c r="Z139" s="29"/>
       <c r="AA139" s="29"/>
@@ -11321,7 +11367,7 @@
         <v>20</v>
       </c>
       <c r="D142" s="21">
-        <f t="shared" ref="D142:D146" si="35">B142*C142</f>
+        <f t="shared" ref="D142:D146" si="39">B142*C142</f>
         <v>380</v>
       </c>
       <c r="E142" s="29"/>
@@ -11347,7 +11393,7 @@
         <v>20</v>
       </c>
       <c r="T142" s="21">
-        <f t="shared" ref="T142:T146" si="36">R142*S142</f>
+        <f t="shared" ref="T142:T146" si="40">R142*S142</f>
         <v>340</v>
       </c>
       <c r="U142">
@@ -11383,7 +11429,7 @@
         <v>20</v>
       </c>
       <c r="AH142" s="21">
-        <f t="shared" ref="AH142:AH146" si="37">AF142*AG142</f>
+        <f t="shared" ref="AH142:AH146" si="41">AF142*AG142</f>
         <v>-40</v>
       </c>
       <c r="AI142" s="29"/>
@@ -11405,7 +11451,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E143" s="29"/>
@@ -11430,7 +11476,7 @@
         <v>25</v>
       </c>
       <c r="T143" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U143" s="29"/>
@@ -11453,7 +11499,7 @@
         <v>25</v>
       </c>
       <c r="AH143" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI143" s="29"/>
@@ -11476,7 +11522,7 @@
         <v>22</v>
       </c>
       <c r="D144" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>352</v>
       </c>
       <c r="E144" s="29"/>
@@ -11496,22 +11542,22 @@
       </c>
       <c r="R144" s="28">
         <f>V126</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S144" s="28">
         <v>22</v>
       </c>
       <c r="T144" s="21">
-        <f t="shared" si="36"/>
-        <v>396</v>
+        <f t="shared" si="40"/>
+        <v>308</v>
       </c>
       <c r="U144" s="29">
         <f>T126</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V144" s="29">
         <f>S155+S157</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W144" s="29"/>
       <c r="X144" s="29"/>
@@ -11526,14 +11572,14 @@
       </c>
       <c r="AF144" s="28">
         <f>AJ126</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG144" s="28">
         <v>22</v>
       </c>
       <c r="AH144" s="21">
-        <f t="shared" si="37"/>
-        <v>44</v>
+        <f t="shared" si="41"/>
+        <v>-44</v>
       </c>
       <c r="AI144" s="29"/>
       <c r="AJ144" s="29"/>
@@ -11555,7 +11601,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>390</v>
       </c>
       <c r="E145" s="29"/>
@@ -11581,7 +11627,7 @@
         <v>15</v>
       </c>
       <c r="T145" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>390</v>
       </c>
       <c r="U145" s="29">
@@ -11611,7 +11657,7 @@
         <v>15</v>
       </c>
       <c r="AH145" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI145" s="29"/>
@@ -11634,7 +11680,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1095</v>
       </c>
       <c r="E146" s="29"/>
@@ -11654,14 +11700,14 @@
       </c>
       <c r="R146" s="28">
         <f>V127+V129+V133</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S146" s="28">
         <v>15</v>
       </c>
       <c r="T146" s="21">
-        <f t="shared" si="36"/>
-        <v>1140</v>
+        <f t="shared" si="40"/>
+        <v>1200</v>
       </c>
       <c r="U146" s="29">
         <f>T127+T133</f>
@@ -11673,11 +11719,11 @@
       </c>
       <c r="W146" s="29">
         <f>U129</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="X146" s="29">
         <f>V153+V157+V158+V160+V155</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Y146" s="29"/>
       <c r="Z146" s="29"/>
@@ -11690,14 +11736,14 @@
       </c>
       <c r="AF146" s="28">
         <f>AJ127+AJ129+AJ133</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AG146" s="28">
         <v>15</v>
       </c>
       <c r="AH146" s="21">
-        <f t="shared" si="37"/>
-        <v>45</v>
+        <f t="shared" si="41"/>
+        <v>105</v>
       </c>
       <c r="AI146" s="29"/>
       <c r="AJ146" s="29"/>
@@ -11742,23 +11788,23 @@
       <c r="S147" s="28"/>
       <c r="T147" s="21">
         <f>SUM(T141:T146)</f>
-        <v>2686</v>
+        <v>2658</v>
       </c>
       <c r="U147" s="29">
         <f>SUM(U141:U146)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V147" s="87">
-        <f t="shared" ref="V147:X147" si="38">SUM(V141:V146)</f>
-        <v>73</v>
+        <f t="shared" ref="V147:X147" si="42">SUM(V141:V146)</f>
+        <v>69</v>
       </c>
       <c r="W147" s="87">
-        <f t="shared" si="38"/>
-        <v>78</v>
+        <f t="shared" si="42"/>
+        <v>82</v>
       </c>
       <c r="X147" s="87">
-        <f t="shared" si="38"/>
-        <v>78</v>
+        <f t="shared" si="42"/>
+        <v>82</v>
       </c>
       <c r="Y147" s="29"/>
       <c r="Z147" s="29"/>
@@ -11776,7 +11822,7 @@
       <c r="AG147" s="28"/>
       <c r="AH147" s="21">
         <f>SUM(AH141:AH146)</f>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="AI147" s="29"/>
       <c r="AJ147" s="29"/>
@@ -11830,10 +11876,10 @@
       <c r="AO148" s="29"/>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A149" s="105" t="s">
+      <c r="A149" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="105"/>
+      <c r="B149" s="111"/>
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
@@ -11848,10 +11894,10 @@
       <c r="N149" s="29"/>
       <c r="O149" s="25"/>
       <c r="P149" s="26"/>
-      <c r="Q149" s="105" t="s">
+      <c r="Q149" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="R149" s="105"/>
+      <c r="R149" s="111"/>
       <c r="S149" s="29"/>
       <c r="T149" s="29"/>
       <c r="U149" s="29"/>
@@ -11925,16 +11971,16 @@
       <c r="A151" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="108" t="s">
+      <c r="B151" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="108"/>
-      <c r="D151" s="108"/>
-      <c r="E151" s="108" t="s">
+      <c r="C151" s="114"/>
+      <c r="D151" s="114"/>
+      <c r="E151" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F151" s="108"/>
-      <c r="G151" s="108"/>
+      <c r="F151" s="114"/>
+      <c r="G151" s="114"/>
       <c r="H151" s="28" t="s">
         <v>63</v>
       </c>
@@ -11949,16 +11995,16 @@
       <c r="Q151" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R151" s="108" t="s">
+      <c r="R151" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="S151" s="108"/>
-      <c r="T151" s="108"/>
-      <c r="U151" s="108" t="s">
+      <c r="S151" s="114"/>
+      <c r="T151" s="114"/>
+      <c r="U151" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="V151" s="108"/>
-      <c r="W151" s="108"/>
+      <c r="V151" s="114"/>
+      <c r="W151" s="114"/>
       <c r="X151" s="28" t="s">
         <v>63</v>
       </c>
@@ -12128,7 +12174,7 @@
       </c>
       <c r="Y153" s="29">
         <f>X167</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z153" s="29"/>
       <c r="AA153" s="29"/>
@@ -12142,7 +12188,7 @@
         <v>9</v>
       </c>
       <c r="AG153" s="98">
-        <f>S153-C153</f>
+        <f t="shared" ref="AG153:AG160" si="43">S153-C153</f>
         <v>0</v>
       </c>
       <c r="AH153" s="98">
@@ -12152,7 +12198,7 @@
         <v>5</v>
       </c>
       <c r="AJ153" s="98">
-        <f>V153-F153</f>
+        <f t="shared" ref="AJ153:AJ160" si="44">V153-F153</f>
         <v>0</v>
       </c>
       <c r="AK153" s="98">
@@ -12189,7 +12235,7 @@
         <v>3.9</v>
       </c>
       <c r="H154" s="28">
-        <f t="shared" ref="H154:H160" si="39">C154+F154</f>
+        <f t="shared" ref="H154:H160" si="45">C154+F154</f>
         <v>20</v>
       </c>
       <c r="I154" s="29"/>
@@ -12224,11 +12270,11 @@
         <v>3.9</v>
       </c>
       <c r="X154" s="28">
-        <f t="shared" ref="X154:X157" si="40">S154+V154</f>
+        <f t="shared" ref="X154:X157" si="46">S154+V154</f>
         <v>18</v>
       </c>
       <c r="Y154" s="87">
-        <f t="shared" ref="Y154:Y158" si="41">X168</f>
+        <f t="shared" ref="Y154:Y158" si="47">X168</f>
         <v>100</v>
       </c>
       <c r="Z154" s="29"/>
@@ -12243,7 +12289,7 @@
         <v>2</v>
       </c>
       <c r="AG154" s="92">
-        <f>S154-C154</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH154" s="92" t="s">
@@ -12253,14 +12299,14 @@
         <v>1</v>
       </c>
       <c r="AJ154" s="92">
-        <f>V154-F154</f>
+        <f t="shared" si="44"/>
         <v>-2</v>
       </c>
       <c r="AK154" s="92">
         <v>3.9</v>
       </c>
       <c r="AL154" s="28">
-        <f t="shared" ref="AL154:AL157" si="42">AG154+AJ154</f>
+        <f t="shared" ref="AL154:AL157" si="48">AG154+AJ154</f>
         <v>-2</v>
       </c>
       <c r="AM154" s="29"/>
@@ -12290,7 +12336,7 @@
         <v>8</v>
       </c>
       <c r="H155" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="I155" s="29"/>
@@ -12308,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="S155" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T155" s="3">
         <v>5</v>
@@ -12317,18 +12363,18 @@
         <v>5</v>
       </c>
       <c r="V155" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W155" s="3">
         <v>8</v>
       </c>
       <c r="X155" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="Y155" s="87">
-        <f t="shared" si="41"/>
-        <v>101</v>
+        <f t="shared" si="47"/>
+        <v>100</v>
       </c>
       <c r="Z155" s="29"/>
       <c r="AA155" s="29"/>
@@ -12342,8 +12388,8 @@
         <v>3</v>
       </c>
       <c r="AG155" s="82">
-        <f>S155-C155</f>
-        <v>-2</v>
+        <f t="shared" si="43"/>
+        <v>-4</v>
       </c>
       <c r="AH155" s="82">
         <v>5</v>
@@ -12352,14 +12398,14 @@
         <v>5</v>
       </c>
       <c r="AJ155" s="82">
-        <f>V155-F155</f>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="AK155" s="82">
         <v>8</v>
       </c>
       <c r="AL155" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-2</v>
       </c>
       <c r="AM155" s="29"/>
@@ -12389,7 +12435,7 @@
         <v>3.9</v>
       </c>
       <c r="H156" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
       <c r="I156" s="29"/>
@@ -12407,7 +12453,7 @@
         <v>5</v>
       </c>
       <c r="S156" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T156" s="31">
         <v>6.12</v>
@@ -12423,12 +12469,12 @@
         <v>3.9</v>
       </c>
       <c r="X156" s="28">
-        <f t="shared" si="40"/>
-        <v>22</v>
+        <f t="shared" si="46"/>
+        <v>23</v>
       </c>
       <c r="Y156" s="87">
-        <f t="shared" si="41"/>
-        <v>103</v>
+        <f t="shared" si="47"/>
+        <v>100</v>
       </c>
       <c r="Z156" s="29"/>
       <c r="AA156" s="29"/>
@@ -12442,8 +12488,8 @@
         <v>5</v>
       </c>
       <c r="AG156" s="83">
-        <f>S156-C156</f>
-        <v>2</v>
+        <f t="shared" si="43"/>
+        <v>3</v>
       </c>
       <c r="AH156" s="83">
         <v>6.12</v>
@@ -12452,15 +12498,15 @@
         <v>2</v>
       </c>
       <c r="AJ156" s="83">
-        <f>V156-F156</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AK156" s="83">
         <v>3.9</v>
       </c>
       <c r="AL156" s="28">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <f t="shared" si="48"/>
+        <v>3</v>
       </c>
       <c r="AM156" s="29"/>
       <c r="AN156" s="29"/>
@@ -12489,7 +12535,7 @@
         <v>8</v>
       </c>
       <c r="H157" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="I157" s="29"/>
@@ -12507,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="S157" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T157" s="5">
         <v>5</v>
@@ -12522,12 +12568,12 @@
         <v>8</v>
       </c>
       <c r="X157" s="28">
-        <f t="shared" si="40"/>
-        <v>26</v>
+        <f t="shared" si="46"/>
+        <v>24</v>
       </c>
       <c r="Y157" s="87">
-        <f t="shared" si="41"/>
-        <v>102</v>
+        <f t="shared" si="47"/>
+        <v>100</v>
       </c>
       <c r="Z157" s="29"/>
       <c r="AA157" s="29"/>
@@ -12541,8 +12587,8 @@
         <v>3</v>
       </c>
       <c r="AG157" s="84">
-        <f>S157-C157</f>
-        <v>4</v>
+        <f t="shared" si="43"/>
+        <v>2</v>
       </c>
       <c r="AH157" s="84">
         <v>5</v>
@@ -12551,15 +12597,15 @@
         <v>5</v>
       </c>
       <c r="AJ157" s="84">
-        <f>V157-F157</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AK157" s="84">
         <v>8</v>
       </c>
       <c r="AL157" s="28">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <f t="shared" si="48"/>
+        <v>2</v>
       </c>
       <c r="AM157" s="29"/>
       <c r="AN157" s="29"/>
@@ -12615,18 +12661,18 @@
         <v>5</v>
       </c>
       <c r="V158" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W158" s="6">
         <v>8</v>
       </c>
       <c r="X158" s="28">
         <f>S158+S159+V158</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y158" s="87">
-        <f t="shared" si="41"/>
-        <v>101</v>
+        <f t="shared" si="47"/>
+        <v>100</v>
       </c>
       <c r="Z158" s="29"/>
       <c r="AA158" s="29"/>
@@ -12640,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="AG158" s="85">
-        <f>S158-C158</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH158" s="85">
@@ -12650,15 +12696,15 @@
         <v>5</v>
       </c>
       <c r="AJ158" s="85">
-        <f>V158-F158</f>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="AK158" s="85">
         <v>8</v>
       </c>
       <c r="AL158" s="28">
         <f>AG158+AG159+AJ158</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM158" s="29"/>
       <c r="AN158" s="29"/>
@@ -12692,7 +12738,7 @@
         <v>5</v>
       </c>
       <c r="S159" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T159" s="6">
         <v>12</v>
@@ -12712,15 +12758,15 @@
         <v>5</v>
       </c>
       <c r="AG159" s="85">
-        <f>S159-C159</f>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AH159" s="85">
         <v>12</v>
       </c>
       <c r="AI159" s="85"/>
       <c r="AJ159" s="85">
-        <f>V159-F159</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AK159" s="85"/>
@@ -12752,7 +12798,7 @@
         <v>8</v>
       </c>
       <c r="H160" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>21</v>
       </c>
       <c r="I160" s="29"/>
@@ -12785,7 +12831,7 @@
         <v>8</v>
       </c>
       <c r="X160" s="28">
-        <f t="shared" ref="X160" si="43">S160+V160</f>
+        <f t="shared" ref="X160" si="49">S160+V160</f>
         <v>21</v>
       </c>
       <c r="Y160" s="29">
@@ -12804,7 +12850,7 @@
         <v>9</v>
       </c>
       <c r="AG160" s="86">
-        <f>S160-C160</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH160" s="86">
@@ -12814,14 +12860,14 @@
         <v>5</v>
       </c>
       <c r="AJ160" s="86">
-        <f>V160-F160</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AK160" s="86">
         <v>8</v>
       </c>
       <c r="AL160" s="28">
-        <f t="shared" ref="AL160" si="44">AG160+AJ160</f>
+        <f t="shared" ref="AL160" si="50">AG160+AJ160</f>
         <v>0</v>
       </c>
       <c r="AM160" s="29"/>
@@ -12854,13 +12900,13 @@
       <c r="R161" s="29"/>
       <c r="S161" s="29">
         <f>SUM(S153:S160)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T161" s="29"/>
       <c r="U161" s="29"/>
       <c r="V161" s="29">
         <f>SUM(V153:V160)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W161" s="29" t="s">
         <v>49</v>
@@ -12979,10 +13025,10 @@
       <c r="AO163" s="29"/>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A164" s="105" t="s">
+      <c r="A164" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B164" s="105"/>
+      <c r="B164" s="111"/>
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -12997,10 +13043,10 @@
       <c r="N164" s="29"/>
       <c r="O164" s="25"/>
       <c r="P164" s="26"/>
-      <c r="Q164" s="105" t="s">
+      <c r="Q164" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R164" s="105"/>
+      <c r="R164" s="111"/>
       <c r="S164" s="29"/>
       <c r="T164" s="29"/>
       <c r="U164" s="29"/>
@@ -13216,7 +13262,7 @@
       </c>
       <c r="U167" s="1">
         <f>V28+S104</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V167" s="1">
         <f>S153</f>
@@ -13224,11 +13270,11 @@
       </c>
       <c r="W167" s="1">
         <f>Y28+S105+V105+V153</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X167" s="29">
         <f>SUM(R167:W167)</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y167" s="29"/>
       <c r="Z167" s="29"/>
@@ -13240,32 +13286,32 @@
         <v>20</v>
       </c>
       <c r="AF167" s="1">
-        <f>R167-B167</f>
+        <f t="shared" ref="AF167:AK174" si="51">R167-B167</f>
         <v>0</v>
       </c>
       <c r="AG167" s="1">
-        <f>S167-C167</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AH167" s="1">
-        <f>T167-D167</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI167" s="1">
-        <f>U167-E167</f>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>-3</v>
       </c>
       <c r="AJ167" s="1">
-        <f>V167-F167</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AK167" s="1">
-        <f>W167-G167</f>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AL167" s="29">
         <f>SUM(AF167:AK167)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AM167" s="29"/>
       <c r="AN167" s="29"/>
@@ -13298,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="29">
-        <f t="shared" ref="H168:H173" si="45">SUM(B168:G168)</f>
+        <f t="shared" ref="H168:H173" si="52">SUM(B168:G168)</f>
         <v>95</v>
       </c>
       <c r="I168" s="29" t="s">
@@ -13327,17 +13373,17 @@
       </c>
       <c r="U168" s="2">
         <f>V29+Y29+S106</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V168" s="2">
         <f>V106</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W168" s="2">
         <v>0</v>
       </c>
       <c r="X168" s="29">
-        <f t="shared" ref="X168:X173" si="46">SUM(R168:W168)</f>
+        <f t="shared" ref="X168:X173" si="53">SUM(R168:W168)</f>
         <v>100</v>
       </c>
       <c r="Y168" s="29"/>
@@ -13350,31 +13396,31 @@
         <v>19</v>
       </c>
       <c r="AF168" s="92">
-        <f>R168-B168</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG168" s="92">
-        <f>S168-C168</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AH168" s="92">
-        <f>T168-D168</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI168" s="92">
-        <f>U168-E168</f>
-        <v>8</v>
+        <f t="shared" si="51"/>
+        <v>6</v>
       </c>
       <c r="AJ168" s="92">
-        <f>V168-F168</f>
-        <v>-1</v>
-      </c>
-      <c r="AK168" s="139">
-        <f>W168-G168</f>
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="AK168" s="109">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AL168" s="29">
-        <f t="shared" ref="AL168:AL173" si="47">SUM(AF168:AK168)</f>
+        <f t="shared" ref="AL168:AL173" si="54">SUM(AF168:AK168)</f>
         <v>5</v>
       </c>
       <c r="AM168" s="29"/>
@@ -13409,7 +13455,7 @@
         <v>14</v>
       </c>
       <c r="H169" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>97</v>
       </c>
       <c r="I169" s="87" t="s">
@@ -13438,19 +13484,19 @@
       </c>
       <c r="U169" s="3">
         <f>V30+Y30+S155</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V169" s="3">
         <f>V107+S108</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W169" s="3">
         <f>V155</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X169" s="29">
-        <f t="shared" si="46"/>
-        <v>101</v>
+        <f t="shared" si="53"/>
+        <v>100</v>
       </c>
       <c r="Y169" s="29"/>
       <c r="Z169" s="29"/>
@@ -13462,32 +13508,32 @@
         <v>18</v>
       </c>
       <c r="AF169" s="82">
-        <f>R169-B169</f>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="AG169" s="82">
-        <f>S169-C169</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH169" s="82">
-        <f>T169-D169</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI169" s="82">
-        <f>U169-E169</f>
-        <v>3</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="AJ169" s="82">
-        <f>V169-F169</f>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="AK169" s="82">
-        <f>W169-G169</f>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AL169" s="29">
-        <f t="shared" si="47"/>
-        <v>4</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="AM169" s="29"/>
       <c r="AN169" s="29"/>
@@ -13521,7 +13567,7 @@
         <v>16</v>
       </c>
       <c r="H170" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>100</v>
       </c>
       <c r="I170" s="29"/>
@@ -13548,19 +13594,19 @@
       </c>
       <c r="U170" s="31">
         <f>V31+Y31+S110+V110</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V170" s="31">
         <f>S109</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W170" s="31">
         <f>S31+S156</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X170" s="29">
-        <f t="shared" si="46"/>
-        <v>103</v>
+        <f t="shared" si="53"/>
+        <v>100</v>
       </c>
       <c r="Y170" s="29"/>
       <c r="Z170" s="29"/>
@@ -13572,32 +13618,32 @@
         <v>56</v>
       </c>
       <c r="AF170" s="83">
-        <f>R170-B170</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AG170" s="83">
-        <f>S170-C170</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH170" s="83">
-        <f>T170-D170</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI170" s="83">
-        <f>U170-E170</f>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>-1</v>
       </c>
       <c r="AJ170" s="83">
-        <f>V170-F170</f>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AK170" s="83">
-        <f>W170-G170</f>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="AL170" s="29">
-        <f t="shared" si="47"/>
-        <v>3</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AM170" s="29"/>
       <c r="AN170" s="29"/>
@@ -13632,7 +13678,7 @@
         <v>41</v>
       </c>
       <c r="H171" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>97</v>
       </c>
       <c r="I171" s="29"/>
@@ -13660,7 +13706,7 @@
       </c>
       <c r="U171" s="5">
         <f>S157</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V171" s="5">
         <f>S111</f>
@@ -13671,8 +13717,8 @@
         <v>44</v>
       </c>
       <c r="X171" s="29">
-        <f t="shared" si="46"/>
-        <v>102</v>
+        <f t="shared" si="53"/>
+        <v>100</v>
       </c>
       <c r="Y171" s="29"/>
       <c r="Z171" s="29"/>
@@ -13684,32 +13730,32 @@
         <v>17</v>
       </c>
       <c r="AF171" s="84">
-        <f>R171-B171</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG171" s="84">
-        <f>S171-C171</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH171" s="84">
-        <f>T171-D171</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI171" s="84">
-        <f>U171-E171</f>
-        <v>4</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AJ171" s="84">
-        <f>V171-F171</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AK171" s="84">
-        <f>W171-G171</f>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="AL171" s="29">
-        <f t="shared" si="47"/>
-        <v>5</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="AM171" s="29"/>
       <c r="AN171" s="29"/>
@@ -13744,7 +13790,7 @@
         <v>31</v>
       </c>
       <c r="H172" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>98</v>
       </c>
       <c r="I172" s="29"/>
@@ -13772,7 +13818,7 @@
       </c>
       <c r="U172" s="6">
         <f>S113</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V172" s="6">
         <f>V113</f>
@@ -13780,11 +13826,11 @@
       </c>
       <c r="W172" s="6">
         <f>Y34+S159+V158</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X172" s="29">
-        <f t="shared" si="46"/>
-        <v>101</v>
+        <f t="shared" si="53"/>
+        <v>100</v>
       </c>
       <c r="Y172" s="29"/>
       <c r="Z172" s="29"/>
@@ -13796,32 +13842,32 @@
         <v>57</v>
       </c>
       <c r="AF172" s="85">
-        <f>R172-B172</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG172" s="85">
-        <f>S172-C172</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH172" s="85">
-        <f>T172-D172</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI172" s="85">
-        <f>U172-E172</f>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AJ172" s="85">
-        <f>V172-F172</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AK172" s="85">
-        <f>W172-G172</f>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AL172" s="29">
-        <f t="shared" si="47"/>
-        <v>3</v>
+        <f t="shared" si="54"/>
+        <v>2</v>
       </c>
       <c r="AM172" s="29"/>
       <c r="AN172" s="29"/>
@@ -13854,7 +13900,7 @@
         <v>68</v>
       </c>
       <c r="H173" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>104</v>
       </c>
       <c r="I173" s="29"/>
@@ -13891,7 +13937,7 @@
         <v>66</v>
       </c>
       <c r="X173" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="Y173" s="29"/>
@@ -13904,31 +13950,31 @@
         <v>16</v>
       </c>
       <c r="AF173" s="86">
-        <f>R173-B173</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG173" s="86">
-        <f>S173-C173</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AH173" s="86">
-        <f>T173-D173</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI173" s="86">
-        <f>U173-E173</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AJ173" s="86">
-        <f>V173-F173</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AK173" s="86">
-        <f>W173-G173</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="AL173" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>-4</v>
       </c>
       <c r="AM173" s="29"/>
@@ -13942,23 +13988,23 @@
         <v>58</v>
       </c>
       <c r="C174" s="101">
-        <f t="shared" ref="C174:G174" si="48">SUM(C167:C173)</f>
+        <f t="shared" ref="C174:G174" si="55">SUM(C167:C173)</f>
         <v>54</v>
       </c>
       <c r="D174" s="101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="E174" s="101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>220</v>
       </c>
       <c r="F174" s="101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>127</v>
       </c>
       <c r="G174" s="101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>205</v>
       </c>
       <c r="I174" s="29"/>
@@ -13970,22 +14016,33 @@
       <c r="O174" s="25"/>
       <c r="P174" s="26"/>
       <c r="Q174" s="29"/>
-      <c r="R174" s="30"/>
-      <c r="S174" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="T174" s="122"/>
-      <c r="U174" s="29">
-        <f>R48+R98+R147</f>
-        <v>708</v>
-      </c>
-      <c r="V174" s="29"/>
-      <c r="W174" s="29" t="s">
-        <v>49</v>
+      <c r="R174" s="30">
+        <f>SUM(R167:R173)</f>
+        <v>55</v>
+      </c>
+      <c r="S174" s="107">
+        <f t="shared" ref="S174:W174" si="56">SUM(S167:S173)</f>
+        <v>48</v>
+      </c>
+      <c r="T174" s="107">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="U174" s="107">
+        <f t="shared" si="56"/>
+        <v>225</v>
+      </c>
+      <c r="V174" s="107">
+        <f t="shared" si="56"/>
+        <v>127</v>
+      </c>
+      <c r="W174" s="107">
+        <f t="shared" si="56"/>
+        <v>215</v>
       </c>
       <c r="X174" s="29">
         <f>SUM(X167:X173)</f>
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="Y174" s="29"/>
       <c r="Z174" s="29"/>
@@ -13994,22 +14051,29 @@
       <c r="AC174" s="25"/>
       <c r="AD174" s="29"/>
       <c r="AE174" s="29"/>
-      <c r="AF174" s="30"/>
-      <c r="AG174" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH174" s="30"/>
-      <c r="AI174" s="29">
-        <f>AL161+AL116+AL37</f>
-        <v>4</v>
-      </c>
-      <c r="AJ174" s="29"/>
-      <c r="AK174" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL174" s="29">
-        <f>SUM(AL167:AL173)</f>
-        <v>14</v>
+      <c r="AF174" s="30">
+        <f>R174-B174</f>
+        <v>-3</v>
+      </c>
+      <c r="AG174" s="107">
+        <f t="shared" si="51"/>
+        <v>-6</v>
+      </c>
+      <c r="AH174" s="107">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AI174" s="107">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="AJ174" s="107">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AK174" s="107">
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="AM174" s="29"/>
       <c r="AN174" s="29"/>
@@ -14018,10 +14082,10 @@
     <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
-      <c r="C175" s="122" t="s">
+      <c r="C175" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D175" s="122"/>
+      <c r="D175" s="128"/>
       <c r="E175" s="29">
         <f>H161+H116+L37</f>
         <v>694</v>
@@ -14044,11 +14108,18 @@
       <c r="P175" s="26"/>
       <c r="Q175" s="29"/>
       <c r="R175" s="29"/>
-      <c r="S175" s="29"/>
-      <c r="T175" s="29"/>
-      <c r="U175" s="29"/>
+      <c r="S175" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="T175" s="128"/>
+      <c r="U175" s="29">
+        <f>R48+R98+R147</f>
+        <v>700</v>
+      </c>
       <c r="V175" s="29"/>
-      <c r="W175" s="29"/>
+      <c r="W175" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="X175" s="29"/>
       <c r="Y175" s="29"/>
       <c r="Z175" s="29"/>
@@ -14058,15 +14129,22 @@
       <c r="AD175" s="29"/>
       <c r="AE175" s="29"/>
       <c r="AF175" s="29"/>
-      <c r="AG175" s="29"/>
-      <c r="AH175" s="29"/>
-      <c r="AI175" s="29"/>
+      <c r="AG175" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH175" s="30"/>
+      <c r="AI175" s="29">
+        <f>U175-E175</f>
+        <v>6</v>
+      </c>
       <c r="AJ175" s="29"/>
-      <c r="AK175" s="29"/>
-      <c r="AL175" s="29"/>
-      <c r="AM175" s="29"/>
-      <c r="AN175" s="29"/>
-      <c r="AO175" s="29"/>
+      <c r="AK175" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL175" s="29">
+        <f>SUM(AL167:AL173)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
@@ -14300,7 +14378,7 @@
       </c>
       <c r="R180" s="40">
         <f>T98</f>
-        <v>6806</v>
+        <v>6623</v>
       </c>
       <c r="S180" s="29"/>
       <c r="T180" s="29"/>
@@ -14319,7 +14397,7 @@
       </c>
       <c r="AF180" s="39">
         <f>R180-B180</f>
-        <v>-8</v>
+        <v>-191</v>
       </c>
       <c r="AG180" s="29"/>
       <c r="AH180" s="29"/>
@@ -14358,7 +14436,7 @@
       </c>
       <c r="R181" s="40">
         <f>T147</f>
-        <v>2686</v>
+        <v>2658</v>
       </c>
       <c r="S181" s="29"/>
       <c r="T181" s="29"/>
@@ -14376,8 +14454,8 @@
         <v>88</v>
       </c>
       <c r="AF181" s="39">
-        <f t="shared" ref="AF181" si="49">R181-B181</f>
-        <v>49</v>
+        <f t="shared" ref="AF181" si="57">R181-B181</f>
+        <v>21</v>
       </c>
       <c r="AG181" s="29"/>
       <c r="AH181" s="29"/>
@@ -14416,7 +14494,7 @@
       </c>
       <c r="R182" s="40">
         <f>SUM(R178:R181)</f>
-        <v>13651</v>
+        <v>13440</v>
       </c>
       <c r="S182" s="29"/>
       <c r="T182" s="29"/>
@@ -14435,7 +14513,7 @@
       </c>
       <c r="AF182" s="39">
         <f>SUM(AF178:AF181)</f>
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="AG182" s="29"/>
       <c r="AH182" s="29"/>
@@ -14536,27 +14614,130 @@
     <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G185" s="99"/>
       <c r="P185" s="27"/>
+      <c r="Q185" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="R185" t="s">
+        <v>53</v>
+      </c>
+      <c r="S185" t="s">
+        <v>67</v>
+      </c>
+      <c r="T185" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="P186" s="27"/>
+      <c r="Q186" t="s">
+        <v>2</v>
+      </c>
+      <c r="R186">
+        <f>SUM(R174)</f>
+        <v>55</v>
+      </c>
+      <c r="S186">
+        <v>30</v>
+      </c>
+      <c r="T186">
+        <f>R186*S186</f>
+        <v>1650</v>
+      </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="P187" s="27"/>
+      <c r="Q187" t="s">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <f>S174</f>
+        <v>48</v>
+      </c>
+      <c r="S187">
+        <v>20</v>
+      </c>
+      <c r="T187">
+        <f t="shared" ref="T187:T191" si="58">R187*S187</f>
+        <v>960</v>
+      </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B188" s="51"/>
       <c r="P188" s="27"/>
+      <c r="Q188" t="s">
+        <v>15</v>
+      </c>
+      <c r="R188">
+        <f>T174</f>
+        <v>30</v>
+      </c>
+      <c r="S188">
+        <v>25</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="58"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B189" s="51"/>
       <c r="P189" s="27"/>
+      <c r="Q189" t="s">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <f>U174</f>
+        <v>225</v>
+      </c>
+      <c r="S189">
+        <v>22</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="58"/>
+        <v>4950</v>
+      </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B190" s="51"/>
       <c r="P190" s="27"/>
+      <c r="Q190" t="s">
+        <v>9</v>
+      </c>
+      <c r="R190">
+        <f>V174</f>
+        <v>127</v>
+      </c>
+      <c r="S190">
+        <v>15</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="58"/>
+        <v>1905</v>
+      </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="P191" s="27"/>
+      <c r="Q191" t="s">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <f>W174</f>
+        <v>215</v>
+      </c>
+      <c r="S191">
+        <v>15</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="58"/>
+        <v>3225</v>
+      </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="P192" s="27"/>
+      <c r="T192">
+        <f>SUM(T186:T191)</f>
+        <v>13440</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -14565,16 +14746,16 @@
     <mergeCell ref="AN33:AO33"/>
     <mergeCell ref="AN34:AO34"/>
     <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AF26:AH26"/>
     <mergeCell ref="AI26:AK26"/>
     <mergeCell ref="AL26:AO26"/>
     <mergeCell ref="AN27:AO27"/>
     <mergeCell ref="AN28:AO28"/>
     <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AF26:AH26"/>
     <mergeCell ref="AI102:AK102"/>
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="Z32:AA32"/>
@@ -14607,7 +14788,7 @@
     <mergeCell ref="A164:B164"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="S175:T175"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="B151:D151"/>
     <mergeCell ref="E151:G151"/>
@@ -14639,7 +14820,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="T29" twoDigitTextYear="1"/>
+    <ignoredError sqref="T29 AN33" twoDigitTextYear="1"/>
     <ignoredError sqref="B98 D97:D98 AH45 AH48" evalError="1"/>
     <ignoredError sqref="AG157" formula="1"/>
   </ignoredErrors>
@@ -14650,8 +14831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ196"/>
   <sheetViews>
-    <sheetView topLeftCell="C128" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144:C147"/>
+    <sheetView topLeftCell="AE61" workbookViewId="0">
+      <selection activeCell="AJ138" sqref="AJ138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14689,10 +14870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
@@ -14743,10 +14924,10 @@
       <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -15862,10 +16043,10 @@
       <c r="AH23" s="29"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -15878,10 +16059,10 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
       <c r="N24" s="25"/>
-      <c r="P24" s="105" t="s">
+      <c r="P24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="105"/>
+      <c r="Q24" s="111"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
@@ -15939,22 +16120,22 @@
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108" t="s">
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="119" t="s">
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="67" t="s">
         <v>63</v>
       </c>
@@ -15963,22 +16144,22 @@
       <c r="P26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="108" t="s">
+      <c r="Q26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108" t="s">
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="119" t="s">
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="121"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="127"/>
       <c r="AA26" s="35" t="s">
         <v>63</v>
       </c>
@@ -16016,10 +16197,10 @@
       <c r="I27" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="119" t="s">
+      <c r="J27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="120"/>
+      <c r="K27" s="126"/>
       <c r="L27" s="67"/>
       <c r="M27" s="8"/>
       <c r="N27" s="25"/>
@@ -16048,10 +16229,10 @@
       <c r="X27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Y27" s="119" t="s">
+      <c r="Y27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="120"/>
+      <c r="Z27" s="126"/>
       <c r="AA27" s="35"/>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
@@ -16089,10 +16270,10 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="129">
         <v>11</v>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="130"/>
       <c r="L28" s="67">
         <f>C28+F28+I28</f>
         <v>22</v>
@@ -16126,10 +16307,10 @@
       <c r="X28" s="1">
         <v>4</v>
       </c>
-      <c r="Y28" s="123">
+      <c r="Y28" s="129">
         <v>11</v>
       </c>
-      <c r="Z28" s="124"/>
+      <c r="Z28" s="130"/>
       <c r="AA28" s="35">
         <f>R28+U28+X28</f>
         <v>22</v>
@@ -16170,10 +16351,10 @@
       <c r="I29" s="76">
         <v>8</v>
       </c>
-      <c r="J29" s="117">
+      <c r="J29" s="123">
         <v>10</v>
       </c>
-      <c r="K29" s="118"/>
+      <c r="K29" s="124"/>
       <c r="L29" s="67">
         <f t="shared" ref="L29:L30" si="2">C29+F29+I29</f>
         <v>32</v>
@@ -16207,10 +16388,10 @@
       <c r="X29" s="2">
         <v>8</v>
       </c>
-      <c r="Y29" s="117">
+      <c r="Y29" s="123">
         <v>10</v>
       </c>
-      <c r="Z29" s="118"/>
+      <c r="Z29" s="124"/>
       <c r="AA29" s="35">
         <f t="shared" ref="AA29:AA30" si="3">R29+U29+X29</f>
         <v>32</v>
@@ -16251,10 +16432,10 @@
       <c r="I30" s="3">
         <v>14</v>
       </c>
-      <c r="J30" s="113">
+      <c r="J30" s="119">
         <v>10</v>
       </c>
-      <c r="K30" s="114"/>
+      <c r="K30" s="120"/>
       <c r="L30" s="67">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -16288,10 +16469,10 @@
       <c r="X30" s="3">
         <v>14</v>
       </c>
-      <c r="Y30" s="113">
+      <c r="Y30" s="119">
         <v>10</v>
       </c>
-      <c r="Z30" s="114"/>
+      <c r="Z30" s="120"/>
       <c r="AA30" s="35">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -16332,10 +16513,10 @@
       <c r="I31" s="4">
         <v>6</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="121">
         <v>10</v>
       </c>
-      <c r="K31" s="116"/>
+      <c r="K31" s="122"/>
       <c r="L31" s="67">
         <f>C31+F31+I31+I32</f>
         <v>27</v>
@@ -16369,10 +16550,10 @@
       <c r="X31" s="4">
         <v>6</v>
       </c>
-      <c r="Y31" s="115">
+      <c r="Y31" s="121">
         <v>10</v>
       </c>
-      <c r="Z31" s="116"/>
+      <c r="Z31" s="122"/>
       <c r="AA31" s="35">
         <f>R31+U31+X31+X32</f>
         <v>27</v>
@@ -16399,10 +16580,10 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="115">
-        <v>0</v>
-      </c>
-      <c r="K32" s="116"/>
+      <c r="J32" s="121">
+        <v>0</v>
+      </c>
+      <c r="K32" s="122"/>
       <c r="L32" s="67"/>
       <c r="M32" s="8"/>
       <c r="N32" s="25"/>
@@ -16419,10 +16600,10 @@
       <c r="X32" s="4">
         <v>0</v>
       </c>
-      <c r="Y32" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="116"/>
+      <c r="Y32" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="122"/>
       <c r="AA32" s="35"/>
       <c r="AB32" s="29"/>
       <c r="AC32" s="29"/>
@@ -16460,10 +16641,10 @@
       <c r="I33" s="5">
         <v>8</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="107"/>
+      <c r="K33" s="113"/>
       <c r="L33" s="67">
         <f t="shared" ref="L33:L35" si="4">C33+F33+I33</f>
         <v>28</v>
@@ -16497,10 +16678,10 @@
       <c r="X33" s="5">
         <v>8</v>
       </c>
-      <c r="Y33" s="106" t="s">
+      <c r="Y33" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="Z33" s="107"/>
+      <c r="Z33" s="113"/>
       <c r="AA33" s="35">
         <f t="shared" ref="AA33:AA35" si="5">R33+U33+X33</f>
         <v>28</v>
@@ -16541,10 +16722,10 @@
       <c r="I34" s="6">
         <v>13</v>
       </c>
-      <c r="J34" s="109">
+      <c r="J34" s="115">
         <v>11.14</v>
       </c>
-      <c r="K34" s="110"/>
+      <c r="K34" s="116"/>
       <c r="L34" s="67">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -16578,10 +16759,10 @@
       <c r="X34" s="6">
         <v>13</v>
       </c>
-      <c r="Y34" s="109">
+      <c r="Y34" s="115">
         <v>11.14</v>
       </c>
-      <c r="Z34" s="110"/>
+      <c r="Z34" s="116"/>
       <c r="AA34" s="35">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -16622,10 +16803,10 @@
       <c r="I35" s="7">
         <v>4</v>
       </c>
-      <c r="J35" s="111">
+      <c r="J35" s="117">
         <v>14</v>
       </c>
-      <c r="K35" s="112"/>
+      <c r="K35" s="118"/>
       <c r="L35" s="67">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -16659,10 +16840,10 @@
       <c r="X35" s="7">
         <v>4</v>
       </c>
-      <c r="Y35" s="111">
+      <c r="Y35" s="117">
         <v>14</v>
       </c>
-      <c r="Z35" s="112"/>
+      <c r="Z35" s="118"/>
       <c r="AA35" s="35">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -16711,10 +16892,10 @@
       <c r="AH36" s="29"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="71">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -16741,10 +16922,10 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
-      <c r="P37" s="105" t="s">
+      <c r="P37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="Q37" s="105"/>
+      <c r="Q37" s="111"/>
       <c r="R37" s="38">
         <f>SUM(R28:R36)</f>
         <v>52</v>
@@ -16813,10 +16994,10 @@
       <c r="AH38" s="29"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="71"/>
@@ -16829,10 +17010,10 @@
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
       <c r="N39" s="25"/>
-      <c r="P39" s="105" t="s">
+      <c r="P39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="105"/>
+      <c r="Q39" s="111"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
@@ -17351,11 +17532,11 @@
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
       <c r="N51" s="25"/>
-      <c r="P51" s="125" t="s">
+      <c r="P51" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="125"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
       <c r="U51" s="29"/>
@@ -19446,14 +19627,14 @@
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
-      <c r="E90" s="105" t="s">
+      <c r="E90" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105" t="s">
+      <c r="F90" s="111"/>
+      <c r="G90" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="105"/>
+      <c r="H90" s="111"/>
       <c r="I90" s="71"/>
       <c r="J90" s="71"/>
       <c r="K90" s="71"/>
@@ -19464,14 +19645,14 @@
       <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
-      <c r="T90" s="105" t="s">
+      <c r="T90" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="U90" s="105"/>
-      <c r="V90" s="105" t="s">
+      <c r="U90" s="111"/>
+      <c r="V90" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="W90" s="105"/>
+      <c r="W90" s="111"/>
       <c r="AB90" s="25"/>
       <c r="AC90" s="29"/>
       <c r="AD90" s="71"/>
@@ -20175,10 +20356,10 @@
       <c r="AK99" s="71"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="71"/>
       <c r="D100" s="71"/>
       <c r="E100" s="71"/>
@@ -20191,10 +20372,10 @@
       <c r="L100" s="71"/>
       <c r="M100" s="71"/>
       <c r="N100" s="25"/>
-      <c r="P100" s="105" t="s">
+      <c r="P100" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="Q100" s="105"/>
+      <c r="Q100" s="111"/>
       <c r="R100" s="29"/>
       <c r="S100" s="29"/>
       <c r="T100" s="29"/>
@@ -20252,16 +20433,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108" t="s">
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
+      <c r="F102" s="114"/>
+      <c r="G102" s="114"/>
       <c r="H102" s="67" t="s">
         <v>63</v>
       </c>
@@ -20274,16 +20455,16 @@
       <c r="P102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q102" s="108" t="s">
+      <c r="Q102" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="R102" s="108"/>
-      <c r="S102" s="108"/>
-      <c r="T102" s="108" t="s">
+      <c r="R102" s="114"/>
+      <c r="S102" s="114"/>
+      <c r="T102" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="U102" s="108"/>
-      <c r="V102" s="108"/>
+      <c r="U102" s="114"/>
+      <c r="V102" s="114"/>
       <c r="W102" s="28" t="s">
         <v>63</v>
       </c>
@@ -20827,7 +21008,7 @@
       <c r="L109" s="71"/>
       <c r="M109" s="71"/>
       <c r="N109" s="25"/>
-      <c r="P109" s="126" t="s">
+      <c r="P109" s="136" t="s">
         <v>56</v>
       </c>
       <c r="Q109" s="31" t="s">
@@ -20916,7 +21097,7 @@
       <c r="L110" s="71"/>
       <c r="M110" s="71"/>
       <c r="N110" s="25"/>
-      <c r="P110" s="127"/>
+      <c r="P110" s="137"/>
       <c r="Q110" s="32" t="s">
         <v>3</v>
       </c>
@@ -21506,10 +21687,10 @@
       <c r="L119" s="71"/>
       <c r="M119" s="71"/>
       <c r="N119" s="25"/>
-      <c r="P119" s="125" t="s">
+      <c r="P119" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Q119" s="125"/>
+      <c r="Q119" s="135"/>
       <c r="R119" s="29"/>
       <c r="S119" s="29"/>
       <c r="T119" s="29"/>
@@ -22655,14 +22836,14 @@
       <c r="B140" s="71"/>
       <c r="C140" s="71"/>
       <c r="D140" s="71"/>
-      <c r="E140" s="105" t="s">
+      <c r="E140" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F140" s="105"/>
-      <c r="G140" s="105" t="s">
+      <c r="F140" s="111"/>
+      <c r="G140" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="H140" s="105"/>
+      <c r="H140" s="111"/>
       <c r="I140" s="71"/>
       <c r="J140" s="71"/>
       <c r="K140" s="71"/>
@@ -22673,14 +22854,14 @@
       <c r="Q140" s="29"/>
       <c r="R140" s="29"/>
       <c r="S140" s="29"/>
-      <c r="T140" s="105" t="s">
+      <c r="T140" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="U140" s="105"/>
-      <c r="V140" s="105" t="s">
+      <c r="U140" s="111"/>
+      <c r="V140" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="W140" s="105"/>
+      <c r="W140" s="111"/>
       <c r="AB140" s="25"/>
       <c r="AC140" s="29"/>
       <c r="AD140" s="71"/>
@@ -23358,10 +23539,10 @@
       <c r="AK149" s="71"/>
     </row>
     <row r="150" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A150" s="105" t="s">
+      <c r="A150" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="105"/>
+      <c r="B150" s="111"/>
       <c r="C150" s="71"/>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
@@ -23374,10 +23555,10 @@
       <c r="L150" s="71"/>
       <c r="M150" s="71"/>
       <c r="N150" s="25"/>
-      <c r="P150" s="105" t="s">
+      <c r="P150" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="Q150" s="105"/>
+      <c r="Q150" s="111"/>
       <c r="R150" s="29"/>
       <c r="S150" s="29"/>
       <c r="T150" s="29"/>
@@ -23442,16 +23623,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="108" t="s">
+      <c r="B152" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="108"/>
-      <c r="D152" s="108"/>
-      <c r="E152" s="108" t="s">
+      <c r="C152" s="114"/>
+      <c r="D152" s="114"/>
+      <c r="E152" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="108"/>
-      <c r="G152" s="108"/>
+      <c r="F152" s="114"/>
+      <c r="G152" s="114"/>
       <c r="H152" s="67" t="s">
         <v>63</v>
       </c>
@@ -23464,16 +23645,16 @@
       <c r="P152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="Q152" s="108" t="s">
+      <c r="Q152" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="R152" s="108"/>
-      <c r="S152" s="108"/>
-      <c r="T152" s="108" t="s">
+      <c r="R152" s="114"/>
+      <c r="S152" s="114"/>
+      <c r="T152" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="U152" s="108"/>
-      <c r="V152" s="108"/>
+      <c r="U152" s="114"/>
+      <c r="V152" s="114"/>
       <c r="W152" s="47" t="s">
         <v>63</v>
       </c>
@@ -24432,10 +24613,10 @@
       <c r="AQ164" s="46"/>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A165" s="105" t="s">
+      <c r="A165" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B165" s="105"/>
+      <c r="B165" s="111"/>
       <c r="C165" s="71"/>
       <c r="D165" s="71"/>
       <c r="E165" s="71"/>
@@ -24448,10 +24629,10 @@
       <c r="L165" s="71"/>
       <c r="M165" s="71"/>
       <c r="N165" s="25"/>
-      <c r="P165" s="105" t="s">
+      <c r="P165" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="Q165" s="105"/>
+      <c r="Q165" s="111"/>
       <c r="R165" s="29"/>
       <c r="S165" s="29"/>
       <c r="T165" s="29"/>
@@ -25367,10 +25548,10 @@
     <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175" s="71"/>
       <c r="B175" s="72"/>
-      <c r="C175" s="122" t="s">
+      <c r="C175" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D175" s="122"/>
+      <c r="D175" s="128"/>
       <c r="E175" s="71">
         <f>B48+B98+B148</f>
         <v>712</v>
@@ -25391,10 +25572,10 @@
       <c r="N175" s="25"/>
       <c r="P175" s="29"/>
       <c r="Q175" s="30"/>
-      <c r="R175" s="122" t="s">
+      <c r="R175" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S175" s="122"/>
+      <c r="S175" s="128"/>
       <c r="T175" s="29">
         <f>Q48+Q98+Q148</f>
         <v>716</v>
@@ -26819,10 +27000,10 @@
       <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -26854,22 +27035,22 @@
       <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108" t="s">
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108" t="s">
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
       <c r="L26" s="8"/>
       <c r="M26" s="25"/>
     </row>
@@ -26899,10 +27080,10 @@
       <c r="I27" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="108"/>
+      <c r="K27" s="114"/>
       <c r="L27" s="8"/>
       <c r="M27" s="25"/>
     </row>
@@ -26934,10 +27115,10 @@
       <c r="I28" s="61">
         <v>4</v>
       </c>
-      <c r="J28" s="129">
+      <c r="J28" s="139">
         <v>11</v>
       </c>
-      <c r="K28" s="129"/>
+      <c r="K28" s="139"/>
       <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -26968,10 +27149,10 @@
       <c r="I29" s="2">
         <v>8</v>
       </c>
-      <c r="J29" s="130">
+      <c r="J29" s="140">
         <v>10</v>
       </c>
-      <c r="K29" s="130"/>
+      <c r="K29" s="140"/>
       <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -27002,10 +27183,10 @@
       <c r="I30" s="62">
         <v>14</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="141">
         <v>10</v>
       </c>
-      <c r="K30" s="131"/>
+      <c r="K30" s="141"/>
       <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -27036,10 +27217,10 @@
       <c r="I31" s="63">
         <v>6</v>
       </c>
-      <c r="J31" s="132">
+      <c r="J31" s="142">
         <v>10</v>
       </c>
-      <c r="K31" s="132"/>
+      <c r="K31" s="142"/>
       <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -27056,10 +27237,10 @@
       <c r="I32" s="63">
         <v>0</v>
       </c>
-      <c r="J32" s="132">
-        <v>0</v>
-      </c>
-      <c r="K32" s="132"/>
+      <c r="J32" s="142">
+        <v>0</v>
+      </c>
+      <c r="K32" s="142"/>
       <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -27090,10 +27271,10 @@
       <c r="I33" s="64">
         <v>8</v>
       </c>
-      <c r="J33" s="133" t="s">
+      <c r="J33" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="133"/>
+      <c r="K33" s="143"/>
       <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -27124,10 +27305,10 @@
       <c r="I34" s="65">
         <v>13</v>
       </c>
-      <c r="J34" s="128">
+      <c r="J34" s="138">
         <v>11.14</v>
       </c>
-      <c r="K34" s="128"/>
+      <c r="K34" s="138"/>
       <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -27158,10 +27339,10 @@
       <c r="I35" s="66">
         <v>4</v>
       </c>
-      <c r="J35" s="134">
+      <c r="J35" s="144">
         <v>14</v>
       </c>
-      <c r="K35" s="134"/>
+      <c r="K35" s="144"/>
       <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -27180,10 +27361,10 @@
       <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="55">
         <f>SUM(C28:C36)</f>
         <v>52</v>
@@ -27223,10 +27404,10 @@
       <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -27460,11 +27641,11 @@
       <c r="M50" s="25"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
@@ -28231,14 +28412,14 @@
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
-      <c r="E90" s="105" t="s">
+      <c r="E90" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105" t="s">
+      <c r="F90" s="111"/>
+      <c r="G90" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="105"/>
+      <c r="H90" s="111"/>
       <c r="K90" s="55"/>
       <c r="L90" s="55"/>
       <c r="M90" s="25"/>
@@ -28511,10 +28692,10 @@
       <c r="M99" s="25"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="105"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="55"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -28542,16 +28723,16 @@
       <c r="A102" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108" t="s">
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
+      <c r="F102" s="114"/>
+      <c r="G102" s="114"/>
       <c r="H102" s="56" t="s">
         <v>63</v>
       </c>
@@ -28732,7 +28913,7 @@
       <c r="M108" s="25"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="126" t="s">
+      <c r="A109" s="136" t="s">
         <v>56</v>
       </c>
       <c r="B109" s="58" t="s">
@@ -28766,7 +28947,7 @@
       <c r="M109" s="25"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="127"/>
+      <c r="A110" s="137"/>
       <c r="B110" s="59" t="s">
         <v>3</v>
       </c>
@@ -28983,10 +29164,10 @@
       <c r="M118" s="25"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="125" t="s">
+      <c r="A119" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="125"/>
+      <c r="B119" s="135"/>
       <c r="C119" s="55"/>
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
@@ -29405,14 +29586,14 @@
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
       <c r="D140" s="55"/>
-      <c r="E140" s="105" t="s">
+      <c r="E140" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="F140" s="105"/>
-      <c r="G140" s="105" t="s">
+      <c r="F140" s="111"/>
+      <c r="G140" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="H140" s="105"/>
+      <c r="H140" s="111"/>
       <c r="K140" s="55"/>
       <c r="L140" s="55"/>
       <c r="M140" s="25"/>
@@ -29688,10 +29869,10 @@
       <c r="M149" s="25"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="105" t="s">
+      <c r="A150" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="105"/>
+      <c r="B150" s="111"/>
       <c r="C150" s="55"/>
       <c r="D150" s="55"/>
       <c r="E150" s="55"/>
@@ -29720,16 +29901,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="108" t="s">
+      <c r="B152" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="108"/>
-      <c r="D152" s="108"/>
-      <c r="E152" s="108" t="s">
+      <c r="C152" s="114"/>
+      <c r="D152" s="114"/>
+      <c r="E152" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="108"/>
-      <c r="G152" s="108"/>
+      <c r="F152" s="114"/>
+      <c r="G152" s="114"/>
       <c r="H152" s="56" t="s">
         <v>63</v>
       </c>
@@ -30061,10 +30242,10 @@
       <c r="M165" s="25"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="105" t="s">
+      <c r="A166" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B166" s="105"/>
+      <c r="B166" s="111"/>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
       <c r="E166" s="55"/>
@@ -30376,10 +30557,10 @@
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="55"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="122" t="s">
+      <c r="C176" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D176" s="122"/>
+      <c r="D176" s="128"/>
       <c r="E176" s="55">
         <f>B48+B98+B148</f>
         <v>735</v>
@@ -30741,7 +30922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -31217,10 +31398,10 @@
       <c r="L22" s="87"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -31250,22 +31431,22 @@
       <c r="A25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="119" t="s">
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="121"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="88" t="s">
         <v>63</v>
       </c>
@@ -31296,10 +31477,10 @@
       <c r="I26" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="119" t="s">
+      <c r="J26" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="120"/>
+      <c r="K26" s="126"/>
       <c r="L26" s="88"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -31330,10 +31511,10 @@
       <c r="I27" s="1">
         <v>4</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J27" s="129">
         <v>11</v>
       </c>
-      <c r="K27" s="124"/>
+      <c r="K27" s="130"/>
       <c r="L27" s="88">
         <f>C27+F27+I27</f>
         <v>22</v>
@@ -31367,10 +31548,10 @@
       <c r="I28" s="92">
         <v>8</v>
       </c>
-      <c r="J28" s="117">
+      <c r="J28" s="123">
         <v>10</v>
       </c>
-      <c r="K28" s="118"/>
+      <c r="K28" s="124"/>
       <c r="L28" s="88">
         <f t="shared" ref="L28:L29" si="1">C28+F28+I28</f>
         <v>27</v>
@@ -31404,10 +31585,10 @@
       <c r="I29" s="3">
         <v>14</v>
       </c>
-      <c r="J29" s="113">
+      <c r="J29" s="119">
         <v>10</v>
       </c>
-      <c r="K29" s="114"/>
+      <c r="K29" s="120"/>
       <c r="L29" s="88">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -31441,10 +31622,10 @@
       <c r="I30" s="4">
         <v>6</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="121">
         <v>10</v>
       </c>
-      <c r="K30" s="116"/>
+      <c r="K30" s="122"/>
       <c r="L30" s="88">
         <f>C30+F30+I30+I31</f>
         <v>27</v>
@@ -31464,10 +31645,10 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="115">
-        <v>0</v>
-      </c>
-      <c r="K31" s="116"/>
+      <c r="J31" s="121">
+        <v>0</v>
+      </c>
+      <c r="K31" s="122"/>
       <c r="L31" s="88"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -31498,10 +31679,10 @@
       <c r="I32" s="5">
         <v>8</v>
       </c>
-      <c r="J32" s="106" t="s">
+      <c r="J32" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="107"/>
+      <c r="K32" s="113"/>
       <c r="L32" s="88">
         <f t="shared" ref="L32:L34" si="2">C32+F32+I32</f>
         <v>28</v>
@@ -31535,10 +31716,10 @@
       <c r="I33" s="6">
         <v>13</v>
       </c>
-      <c r="J33" s="109">
+      <c r="J33" s="115">
         <v>11.14</v>
       </c>
-      <c r="K33" s="110"/>
+      <c r="K33" s="116"/>
       <c r="L33" s="88">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -31572,10 +31753,10 @@
       <c r="I34" s="7">
         <v>4</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="117">
         <v>14</v>
       </c>
-      <c r="K34" s="112"/>
+      <c r="K34" s="118"/>
       <c r="L34" s="88">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -31596,10 +31777,10 @@
       <c r="L35" s="87"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="87">
         <f>SUM(C27:C35)</f>
         <v>52</v>
@@ -31640,10 +31821,10 @@
       <c r="L37" s="87"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="105"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -31943,10 +32124,10 @@
       <c r="L53" s="87"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="105" t="s">
+      <c r="A54" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -32945,10 +33126,10 @@
       <c r="L100" s="87"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="105" t="s">
+      <c r="A101" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="105"/>
+      <c r="B101" s="111"/>
       <c r="C101" s="87"/>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -32978,16 +33159,16 @@
       <c r="A103" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108" t="s">
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
+      <c r="F103" s="114"/>
+      <c r="G103" s="114"/>
       <c r="H103" s="88" t="s">
         <v>63</v>
       </c>
@@ -34039,10 +34220,10 @@
       <c r="L149" s="87"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="105" t="s">
+      <c r="A150" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="105"/>
+      <c r="B150" s="111"/>
       <c r="C150" s="87"/>
       <c r="D150" s="87"/>
       <c r="E150" s="87"/>
@@ -34072,16 +34253,16 @@
       <c r="A152" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="108" t="s">
+      <c r="B152" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="108"/>
-      <c r="D152" s="108"/>
-      <c r="E152" s="108" t="s">
+      <c r="C152" s="114"/>
+      <c r="D152" s="114"/>
+      <c r="E152" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="108"/>
-      <c r="G152" s="108"/>
+      <c r="F152" s="114"/>
+      <c r="G152" s="114"/>
       <c r="H152" s="88" t="s">
         <v>63</v>
       </c>
@@ -34401,10 +34582,10 @@
       <c r="L164" s="87"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="105" t="s">
+      <c r="A165" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B165" s="105"/>
+      <c r="B165" s="111"/>
       <c r="C165" s="87"/>
       <c r="D165" s="87"/>
       <c r="E165" s="87"/>
@@ -34757,10 +34938,10 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="87"/>
       <c r="B177" s="89"/>
-      <c r="C177" s="122" t="s">
+      <c r="C177" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D177" s="122"/>
+      <c r="D177" s="128"/>
       <c r="E177" s="87">
         <f>G21+F87+F136</f>
         <v>694</v>
